--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C512407A-B04E-4362-9476-3459F96D4DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A9C05-8ABE-4BDD-899F-8FCC4C64F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
   <si>
     <t>RunTest</t>
   </si>
@@ -471,9 +471,6 @@
     <t>Aim of the script is to verify whether company and RIC are displayed in Story body</t>
   </si>
   <si>
-    <t>Aim of the Scirpt  is to verify the associated Product and topic codes are displayed when select multiple RIC's in Alert Editor</t>
-  </si>
-  <si>
     <t>FW_UI_0035</t>
   </si>
   <si>
@@ -487,13 +484,100 @@
   </si>
   <si>
     <t>Verify_Display_Metadata_RIC</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>FW_UI_0037</t>
+  </si>
+  <si>
+    <t>Aim of the script is to verify whether story ID column is present or not in Story list.</t>
+  </si>
+  <si>
+    <t>Verify_Alert_Publish</t>
+  </si>
+  <si>
+    <t>FW_UI_0038</t>
+  </si>
+  <si>
+    <t>Verify_StoryID_Format</t>
+  </si>
+  <si>
+    <t>FW_UI_0039</t>
+  </si>
+  <si>
+    <t>Aim of the script is to verify whether story ID format in 1 to 999 range.</t>
+  </si>
+  <si>
+    <t>Verify_Multiplecodes</t>
+  </si>
+  <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Topics</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify the associated Product and topic codes are displayed when select multiple RIC's in Alert Editor</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether the alert is published  or not using alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether user is able to add multiple product codes in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether user is able to add multiple topic codes in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0040</t>
+  </si>
+  <si>
+    <t>FW_UI_0041</t>
+  </si>
+  <si>
+    <t>Verify_USN</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether publish is enabled or not when alert text is not entered in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether user is able get the USN when click on the 'Get' button in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0042</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to verify that Publish button should be enabled when alert text is more than 150 characters in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0043</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish</t>
+  </si>
+  <si>
+    <t>BlankAlerttext,Test Publish</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish This text is to confirm whether headline publish happens successfully or not for more than one hunderd and fifty characters alert text entered by user</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 50 characters in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0044</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish FiftyCharacters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -507,6 +591,11 @@
       <b/>
       <sz val="10"/>
       <color indexed="17"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -613,7 +702,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -651,6 +740,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -948,7 +1040,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A2:F43" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A2:F51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
@@ -1283,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2094,36 +2186,34 @@
         <v>143</v>
       </c>
       <c r="C41" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>150</v>
-      </c>
-      <c r="D41" s="12" t="s">
-        <v>148</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>144</v>
+      <c r="F41" s="11" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
-        <v>10</v>
+      <c r="A42" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="D42" s="12" t="s">
-        <v>149</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="5"/>
       <c r="E42" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="9" t="s">
-        <v>145</v>
+      <c r="F42" s="6" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2131,12 +2221,178 @@
         <v>31</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D43" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="9"/>
+      <c r="E43" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>176</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34A9C05-8ABE-4BDD-899F-8FCC4C64F8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B13009A-BD3A-4DB4-8CEA-96EC80FB9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="263">
   <si>
     <t>RunTest</t>
   </si>
@@ -558,19 +558,271 @@
     <t>Publish,Test Publish</t>
   </si>
   <si>
-    <t>BlankAlerttext,Test Publish</t>
-  </si>
-  <si>
-    <t>Publish,Test Publish This text is to confirm whether headline publish happens successfully or not for more than one hunderd and fifty characters alert text entered by user</t>
-  </si>
-  <si>
     <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 50 characters in alert editor.</t>
   </si>
   <si>
     <t>FW_UI_0044</t>
   </si>
   <si>
-    <t>Publish,Test Publish FiftyCharacters</t>
+    <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 100 characters in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0045</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 150 characters in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0046</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 200 characters in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0047</t>
+  </si>
+  <si>
+    <t>Aim of the Scirpt  is to verify whether Publish button is Disabled or not when alert text contains place holders in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0048</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking 9 charcters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>BlankAlerttext,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish This text is to confirm whether headline publish happens successfully or not for more than one hunderd and fifty characters alert text entered by user,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish FiftyCharacters,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,TEST PUBLISH HUNDREDCHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUC,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER HUNDRED CHARACTERS  ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED CHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED,TESTUSN</t>
+  </si>
+  <si>
+    <t>PlaceHolder,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>FW_UI_0049</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,123456789</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,!@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking 8 charcters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking 10 charcters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking numerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking alphabets or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking special characters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,12345678</t>
+  </si>
+  <si>
+    <t>FW_UI_0050</t>
+  </si>
+  <si>
+    <t>FW_UI_0051</t>
+  </si>
+  <si>
+    <t>FW_UI_0052</t>
+  </si>
+  <si>
+    <t>FW_UI_0053</t>
+  </si>
+  <si>
+    <t>FW_UI_0054</t>
+  </si>
+  <si>
+    <t>USNFAILS,Test Publish,1234567890</t>
+  </si>
+  <si>
+    <t>Verify_MetaData_Inputs</t>
+  </si>
+  <si>
+    <t>FW_UI_0055</t>
+  </si>
+  <si>
+    <t>Products,123456,Numeric</t>
+  </si>
+  <si>
+    <t>FW_UI_0056</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking only numerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0057</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking only characters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Products,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>FW_UI_0058</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking alphanumerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking special characters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0059</t>
+  </si>
+  <si>
+    <t>Products,characters,Character</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is taking max length (10) or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is taking less than 10 characters (max len) or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is accepting only numerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is accepting only characters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is accepting alphanumerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether NamedItems filed is accepting special characters or not in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0060</t>
+  </si>
+  <si>
+    <t>FW_UI_0061</t>
+  </si>
+  <si>
+    <t>FW_UI_0062</t>
+  </si>
+  <si>
+    <t>FW_UI_0063</t>
+  </si>
+  <si>
+    <t>FW_UI_0064</t>
+  </si>
+  <si>
+    <t>FW_UI_0065</t>
+  </si>
+  <si>
+    <t>NamedItems,123456,Numeric</t>
+  </si>
+  <si>
+    <t>NamedItems,characters,Character</t>
+  </si>
+  <si>
+    <t>NamedItems,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>Products,12!#$%^&amp;*,Special</t>
+  </si>
+  <si>
+    <t>NamedItems,12!#$%^&amp;*,Special</t>
+  </si>
+  <si>
+    <t>NamedItems,exactvalue,exactlimit</t>
+  </si>
+  <si>
+    <t>FW_UI_0066</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking less than 80 charcters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Products filed is taking 80 charcters (max len) or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Products,this test case isto verify if eighty characters are allowed in the product field,exactlimit</t>
+  </si>
+  <si>
+    <t>Products,this test case is to validate less than eighty characters in the product field,lesslimit</t>
+  </si>
+  <si>
+    <t>NamedItems,lessval,lesslimit</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs filed is accepting less than max length (255) characters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs filed is accepting only numerics  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs filed is accepting only characters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs filed is accepting alphanumerics  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs filed is accepting special characters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0067</t>
+  </si>
+  <si>
+    <t>FW_UI_0068</t>
+  </si>
+  <si>
+    <t>FW_UI_0069</t>
+  </si>
+  <si>
+    <t>FW_UI_0070</t>
+  </si>
+  <si>
+    <t>FW_UI_0071</t>
+  </si>
+  <si>
+    <t>FW_UI_0072</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether RICs field is accepting  max length (255) or not in alert editor.</t>
+  </si>
+  <si>
+    <t>RICS,123456,Numeric</t>
+  </si>
+  <si>
+    <t>RICS,characters,Character</t>
+  </si>
+  <si>
+    <t>RICS,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>RICS,12!#$%^&amp;*,Special</t>
+  </si>
+  <si>
+    <t>RICS,this test case isto validate if ric field is taking less than two hundred fifty five characters as the max limit for the test case will pass if this text is entered successfully into the field else the test case would fail and report updated accordingly,lesslimit</t>
+  </si>
+  <si>
+    <t>RICS,this test case isto validate if ric field is taking exactly two hundred and fifty five characters as the max limit for the test case will pass if this text is entered successfully into the field else the test case would fail and report updated accordingly,exactlimit</t>
   </si>
 </sst>
 </file>
@@ -614,7 +866,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -664,17 +916,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -702,7 +943,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -726,9 +967,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1040,7 +1278,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A2:F51" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A2:F79" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
@@ -1375,10 +1613,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78:A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1885,16 +2123,16 @@
       <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F26" s="8" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1905,7 +2143,7 @@
       <c r="B27" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>97</v>
       </c>
       <c r="D27" s="5" t="s">
@@ -1914,7 +2152,7 @@
       <c r="E27" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="F27" s="8" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1925,7 +2163,7 @@
       <c r="B28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>99</v>
       </c>
       <c r="D28" s="5" t="s">
@@ -1934,7 +2172,7 @@
       <c r="E28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="F28" s="8" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1945,7 +2183,7 @@
       <c r="B29" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D29" s="5" t="s">
@@ -1954,7 +2192,7 @@
       <c r="E29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1965,7 +2203,7 @@
       <c r="B30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="7" t="s">
         <v>101</v>
       </c>
       <c r="D30" s="5" t="s">
@@ -1974,227 +2212,227 @@
       <c r="E30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E31" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="9" t="s">
+      <c r="E31" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="8" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="8" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F33" s="8" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="F34" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="F35" s="8" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="11" t="s">
+      <c r="F36" s="10" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B37" s="8" t="s">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C37" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="F37" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="E38" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B39" s="8" t="s">
+      <c r="A39" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="E39" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F39" s="11" t="s">
+      <c r="E39" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="10" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B40" s="8" t="s">
+      <c r="A40" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E40" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F40" s="11" t="s">
+      <c r="E40" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F40" s="10" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="8" t="s">
+      <c r="A41" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F41" s="11" t="s">
+      <c r="E41" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" s="10" t="s">
         <v>152</v>
       </c>
     </row>
@@ -2202,14 +2440,14 @@
       <c r="A42" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>145</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D42" s="5"/>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="7" t="s">
         <v>108</v>
       </c>
       <c r="F42" s="6" t="s">
@@ -2217,181 +2455,741 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="A43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="E43" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F43" s="9" t="s">
+      <c r="E43" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F43" s="8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B44" s="8" t="s">
+      <c r="A44" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="E44" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F44" s="9" t="s">
+      <c r="E44" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F44" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="A45" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="E45" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F45" s="9" t="s">
+      <c r="E45" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="8" t="s">
+      <c r="A46" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46" s="8" t="s">
+      <c r="E46" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="7" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="A47" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="13" t="s">
+      <c r="C47" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="E47" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F47" s="9" t="s">
+      <c r="E47" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48" s="8" t="s">
+      <c r="A48" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F48" s="9" t="s">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F48" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B49" s="8" t="s">
+      <c r="A49" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="D49" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F51" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C50" s="8" t="s">
+    </row>
+    <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="D52" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F52" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F62" s="8" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" s="8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F73" s="8" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E75" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="E76" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>176</v>
+      <c r="B77" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="E77" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F79" s="8" t="s">
+        <v>249</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire\LYNX_Automation\src\test\resources\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B13009A-BD3A-4DB4-8CEA-96EC80FB9B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93CC39C-D8C9-4AF9-9A40-21484C4CDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="NP_UI_001" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NP_UI_001!$A$1:$F$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">NP_UI_001!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="338">
   <si>
     <t>RunTest</t>
   </si>
@@ -66,9 +66,6 @@
     <t>FW_UI_0002</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>Headline_Alarm</t>
   </si>
   <si>
@@ -555,9 +552,6 @@
     <t>FW_UI_0043</t>
   </si>
   <si>
-    <t>Publish,Test Publish</t>
-  </si>
-  <si>
     <t>Aim of the Scirpt  is to verify whether Publish button is enabled or not when alert text is 50 characters in alert editor.</t>
   </si>
   <si>
@@ -591,36 +585,9 @@
     <t>Aim of the Script  is to verify whether USN filed is taking 9 charcters or not in alert editor.</t>
   </si>
   <si>
-    <t>BlankAlerttext,Test Publish,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,Test Publish This text is to confirm whether headline publish happens successfully or not for more than one hunderd and fifty characters alert text entered by user,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,Test Publish FiftyCharacters,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,TEST PUBLISH HUNDREDCHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUC,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER HUNDRED CHARACTERS  ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED CHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED,TESTUSN</t>
-  </si>
-  <si>
-    <t>PlaceHolder,Test Publish,TESTUSN</t>
-  </si>
-  <si>
     <t>FW_UI_0049</t>
   </si>
   <si>
-    <t>Publish,Test Publish,123456789</t>
-  </si>
-  <si>
-    <t>Publish,Test Publish,!@#$%^&amp;</t>
-  </si>
-  <si>
     <t>Aim of the Script  is to verify whether USN filed is taking 8 charcters or not in alert editor.</t>
   </si>
   <si>
@@ -636,12 +603,6 @@
     <t>Aim of the Script  is to verify whether USN filed is taking special characters or not in alert editor.</t>
   </si>
   <si>
-    <t>Publish,Test Publish,TESTUSN</t>
-  </si>
-  <si>
-    <t>Publish,Test Publish,12345678</t>
-  </si>
-  <si>
     <t>FW_UI_0050</t>
   </si>
   <si>
@@ -657,9 +618,6 @@
     <t>FW_UI_0054</t>
   </si>
   <si>
-    <t>USNFAILS,Test Publish,1234567890</t>
-  </si>
-  <si>
     <t>Verify_MetaData_Inputs</t>
   </si>
   <si>
@@ -823,6 +781,273 @@
   </si>
   <si>
     <t>RICS,this test case isto validate if ric field is taking exactly two hundred and fifty five characters as the max limit for the test case will pass if this text is entered successfully into the field else the test case would fail and report updated accordingly,exactlimit</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting max length (244)  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting less than max length (244)  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting only numerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting only characters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting alphanumerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Topics filed is accepting special characters  or not in alert editor.</t>
+  </si>
+  <si>
+    <t>FW_UI_0073</t>
+  </si>
+  <si>
+    <t>FW_UI_0074</t>
+  </si>
+  <si>
+    <t>FW_UI_0075</t>
+  </si>
+  <si>
+    <t>FW_UI_0076</t>
+  </si>
+  <si>
+    <t>FW_UI_0077</t>
+  </si>
+  <si>
+    <t>FW_UI_0078</t>
+  </si>
+  <si>
+    <t>Topics,this test case isto validate if topics field is taking less than two hundred forty four characters as the max limit for the test case will pass if this text is entered successfully into the field else the test case would fail and report updated,exactlimit</t>
+  </si>
+  <si>
+    <t>Topics,this test case isto validate if topics field is taking less than two hundred forty four characters as the max limit for the test case will pass if this text is entered successfully into the field else the test case would fail &amp; report updated,lesslimit</t>
+  </si>
+  <si>
+    <t>Topics,123456,Numeric</t>
+  </si>
+  <si>
+    <t>Topics,characters,Character</t>
+  </si>
+  <si>
+    <t>Topics,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>Topics,12!#$%^&amp;*,Special</t>
+  </si>
+  <si>
+    <t>FW_UI_0079</t>
+  </si>
+  <si>
+    <t>USN,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking alpha numerics or not in alert editor.</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish</t>
+  </si>
+  <si>
+    <t>YES,BlankAlerttext,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish This text is to confirm whether headline publish happens successfully or not for more than one hunderd and fifty characters alert text entered by user,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish FiftyCharacters,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,TEST PUBLISH HUNDREDCHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUC,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER HUNDRED CHARACTERS  ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED CHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,PlaceHolder,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish,123456789</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish,12345678</t>
+  </si>
+  <si>
+    <t>YES,USNFAILS,Test Publish,1234567890</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,Publish,Test Publish,!@#$%^&amp;</t>
+  </si>
+  <si>
+    <t>Verify_Lang_Publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Arabic language.</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Arabic</t>
+  </si>
+  <si>
+    <t>FW_UI_0080</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using French language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Bulgarian language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Czech language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Danish language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Dutch language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to publish an alert using English (UK) language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using German language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Greek language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Italian language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Norwegian language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Polish language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Portuguese language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Russian language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Spanish language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Swedish language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Swiss German language.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to publish an alert using Turkish language.</t>
+  </si>
+  <si>
+    <t>FW_UI_0081</t>
+  </si>
+  <si>
+    <t>FW_UI_0082</t>
+  </si>
+  <si>
+    <t>FW_UI_0083</t>
+  </si>
+  <si>
+    <t>FW_UI_0084</t>
+  </si>
+  <si>
+    <t>FW_UI_0085</t>
+  </si>
+  <si>
+    <t>FW_UI_0086</t>
+  </si>
+  <si>
+    <t>FW_UI_0087</t>
+  </si>
+  <si>
+    <t>FW_UI_0088</t>
+  </si>
+  <si>
+    <t>FW_UI_0089</t>
+  </si>
+  <si>
+    <t>FW_UI_0090</t>
+  </si>
+  <si>
+    <t>FW_UI_0091</t>
+  </si>
+  <si>
+    <t>FW_UI_0092</t>
+  </si>
+  <si>
+    <t>FW_UI_0093</t>
+  </si>
+  <si>
+    <t>FW_UI_0094</t>
+  </si>
+  <si>
+    <t>FW_UI_0095</t>
+  </si>
+  <si>
+    <t>FW_UI_0096</t>
+  </si>
+  <si>
+    <t>FW_UI_0097</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,French</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Bulgarian</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Czech</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Danish</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Dutch</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,EnglishUK</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,German</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Greek</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Italian</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Norwegian</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Polish</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Portuguese</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Russian</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Spanish</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Swedish</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,SwissGerman</t>
+  </si>
+  <si>
+    <t>Publish,Test Publish,TESTUSN,Turkish</t>
   </si>
 </sst>
 </file>
@@ -985,7 +1210,49 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1002,19 +1269,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1044,6 +1298,12 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
@@ -1052,7 +1312,9 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1082,21 +1344,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1120,59 +1367,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1188,19 +1382,6 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1238,32 +1419,6 @@
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1278,14 +1433,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A2:F79" headerRowCount="0" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F104" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="1" tableBorderDxfId="9" totalsRowBorderDxfId="8">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="Column1" headerRowDxfId="11" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="Column2" headerRowDxfId="9" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{7C8347B6-FF57-42E1-A6C2-EC27070A40D0}" name="Column3" headerRowDxfId="7" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{EE0534CE-1AD7-4FF9-85D0-3AE501688863}" name="Column4" headerRowDxfId="5" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D9E527CD-0865-44E9-A462-CB70BB730775}" name="Column5" headerRowDxfId="3" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{8264D975-498F-4ED6-8B84-152D38F182B3}" name="Column6" headerRowDxfId="1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7C8347B6-FF57-42E1-A6C2-EC27070A40D0}" name="ScriptName" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{EE0534CE-1AD7-4FF9-85D0-3AE501688863}" name="Parameters" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{D9E527CD-0865-44E9-A462-CB70BB730775}" name="Class Name" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{8264D975-498F-4ED6-8B84-152D38F182B3}" name="Description" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1613,10 +1768,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78:A79"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1652,1544 +1807,2044 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>57</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>64</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D23" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C24" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D25" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="6" t="s">
         <v>91</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D26" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="E26" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="F26" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F27" s="8" t="s">
         <v>97</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F28" s="8" t="s">
         <v>99</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="E29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="D34" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="8" t="s">
         <v>120</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="11" t="s">
-        <v>130</v>
-      </c>
       <c r="E36" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D42" s="5"/>
       <c r="E42" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="C43" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="D43" s="11" t="s">
-        <v>147</v>
-      </c>
       <c r="E43" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F44" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C46" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="D46" s="7" t="s">
-        <v>159</v>
-      </c>
       <c r="E46" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C48" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="C48" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F48" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>185</v>
+        <v>271</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>186</v>
+        <v>272</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>187</v>
+        <v>273</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C52" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>188</v>
+        <v>274</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F52" s="8" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F53" s="8" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>190</v>
+        <v>276</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F54" s="8" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F55" s="8" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F56" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>201</v>
+        <v>279</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>207</v>
+        <v>280</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>193</v>
+        <v>278</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>200</v>
+        <v>281</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="D61" s="11" t="s">
         <v>194</v>
       </c>
+      <c r="D61" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="E61" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>199</v>
+        <v>107</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>243</v>
+        <v>152</v>
+      </c>
+      <c r="D62" s="11" t="s">
+        <v>282</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>240</v>
+        <v>107</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F67" s="8" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F68" s="6" t="s">
-        <v>221</v>
+        <v>107</v>
+      </c>
+      <c r="F68" s="8" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C69" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="E70" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" s="6" t="s">
         <v>208</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="E70" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="C72" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>226</v>
+        <v>107</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F74" s="6" t="s">
-        <v>256</v>
+        <v>107</v>
+      </c>
+      <c r="F74" s="8" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="E75" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="C76" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="E76" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C77" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E77" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="C78" s="7" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B79" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="C79" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D79" s="7" t="s">
+      <c r="C80" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="E80" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" s="8" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="E81" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="E82" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E83" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B84" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D84" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B85" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="E79" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>249</v>
+      <c r="C85" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D85" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="E85" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E86" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" s="8" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D88" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D89" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D90" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D91" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" s="10" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D92" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="E92" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D93" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="E93" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D94" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E94" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D95" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" s="10" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C96" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D96" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="E96" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B97" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="C97" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D97" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E97" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F97" s="10" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D98" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="E98" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D99" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="E99" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F99" s="10" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B100" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D100" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E100" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B101" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D101" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="E101" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B102" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="C102" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D102" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="E102" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B103" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D103" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E103" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F103" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B104" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D104" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>303</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A93CC39C-D8C9-4AF9-9A40-21484C4CDA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70184792-9A75-48FB-B1BA-0EC91AF1EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="360">
   <si>
     <t>RunTest</t>
   </si>
@@ -867,9 +867,6 @@
     <t>YES,Publish,TEST PUBLISH THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED CHARACTERS ARE ALLOWED OR NOT FOR PUBLISHING THE ALERTS SUCCESSFULLY NOT THIS TEST CASE IS TO TEST WHETHER TWO HUNDRED,TESTUSN</t>
   </si>
   <si>
-    <t>YES,PlaceHolder,Test Publish,TESTUSN</t>
-  </si>
-  <si>
     <t>YES,Publish,Test Publish,123456789</t>
   </si>
   <si>
@@ -1048,6 +1045,75 @@
   </si>
   <si>
     <t>Publish,Test Publish,TESTUSN,Turkish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Script is to verify that user should not be able to publish an alert with incomplete placeholders (with incomplete company and RIC), so that I do not publish out an incomplete alert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Script is to verify that user should not be able to publish an alert with incomplete placeholders (with an incomplete RIC), so that I do not publish out an incomplete alert </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Script is to verify that user should not be able to publish an alert with incomplete placeholders (with an incomplete Company), so that I do not publish out an incomplete alert </t>
+  </si>
+  <si>
+    <t>FW_UI_0098</t>
+  </si>
+  <si>
+    <t>FW_UI_0099</t>
+  </si>
+  <si>
+    <t>FW_UI_0100</t>
+  </si>
+  <si>
+    <t>FW_UI_0101</t>
+  </si>
+  <si>
+    <t>FW_UI_0102</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>YES,PlaceHolder,Test Publish~,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,PlaceHolder,~company~ ~ric~ - SALES AND REVENUES WERE UP $1.780 BLN FROM Q1 OF 2007. SALES VOLUME IMPROVED $1.087,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,PlaceHolder,~company~ ric - SALES AND REVENUES WERE UP $1.780 BLN FROM Q1 OF 2018. SALES VOLUME IMPROVED,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,PlaceHolder,Company ~ric~ - SALES AND REVENUES WERE UP $1.780 BLN FROM Q1 OF 2007. SALES VOLUME IMPROVED,TESTUSN</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether user is able to add multiple product codes in alert editor and publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether user is able to add multiple topic codes in alert editor and publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether user is able to add multiple RICs in alert editor and publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether user is able to add multiple named items in alert editor and publish</t>
+  </si>
+  <si>
+    <t>FW_UI_0103</t>
+  </si>
+  <si>
+    <t>FW_UI_0104</t>
+  </si>
+  <si>
+    <t>Products,SCAN;UKP;SUDB;HX;SUKP,Publish</t>
+  </si>
+  <si>
+    <t>Topics,SASIAE;SANPRO;HAND;HARW;HACK,Publish</t>
+  </si>
+  <si>
+    <t>NamedItems,ABS/;AB/CN,Publish</t>
+  </si>
+  <si>
+    <t>RICS,H.N;D11.HN,Publish</t>
   </si>
 </sst>
 </file>
@@ -1211,48 +1277,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="17"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.39997558519241921"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -1419,6 +1443,48 @@
       </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="17"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9" tint="0.39997558519241921"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1433,14 +1499,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F104" totalsRowShown="0" headerRowDxfId="0" dataDxfId="10" headerRowBorderDxfId="1" tableBorderDxfId="9" totalsRowBorderDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{7C8347B6-FF57-42E1-A6C2-EC27070A40D0}" name="ScriptName" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{EE0534CE-1AD7-4FF9-85D0-3AE501688863}" name="Parameters" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{D9E527CD-0865-44E9-A462-CB70BB730775}" name="Class Name" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{8264D975-498F-4ED6-8B84-152D38F182B3}" name="Description" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{7C8347B6-FF57-42E1-A6C2-EC27070A40D0}" name="ScriptName" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{EE0534CE-1AD7-4FF9-85D0-3AE501688863}" name="Parameters" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{D9E527CD-0865-44E9-A462-CB70BB730775}" name="Class Name" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{8264D975-498F-4ED6-8B84-152D38F182B3}" name="Description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1768,10 +1834,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2858,7 +2924,7 @@
         <v>152</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>277</v>
+        <v>346</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>107</v>
@@ -2878,7 +2944,7 @@
         <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>107</v>
@@ -2898,7 +2964,7 @@
         <v>152</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>107</v>
@@ -2918,7 +2984,7 @@
         <v>152</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>107</v>
@@ -2938,7 +3004,7 @@
         <v>152</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>107</v>
@@ -2958,7 +3024,7 @@
         <v>152</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>107</v>
@@ -2998,7 +3064,7 @@
         <v>152</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>107</v>
@@ -3492,19 +3558,19 @@
         <v>30</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>283</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3512,19 +3578,19 @@
         <v>30</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3532,19 +3598,19 @@
         <v>30</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3552,19 +3618,19 @@
         <v>30</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3572,19 +3638,19 @@
         <v>30</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3592,19 +3658,19 @@
         <v>30</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3612,19 +3678,19 @@
         <v>30</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3632,19 +3698,19 @@
         <v>30</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3652,19 +3718,19 @@
         <v>30</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3672,19 +3738,19 @@
         <v>30</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3692,19 +3758,19 @@
         <v>30</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3712,19 +3778,19 @@
         <v>30</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3732,19 +3798,19 @@
         <v>30</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3752,19 +3818,19 @@
         <v>30</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3772,19 +3838,19 @@
         <v>30</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3792,19 +3858,19 @@
         <v>30</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3812,19 +3878,19 @@
         <v>30</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3832,19 +3898,159 @@
         <v>30</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D104" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E104" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D105" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="E105" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F105" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="E104" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>303</v>
+    </row>
+    <row r="106" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C106" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D106" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="E106" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D107" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E107" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B108" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D108" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="E108" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B109" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="C109" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E109" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F109" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="B110" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D110" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="E110" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B111" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>353</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70184792-9A75-48FB-B1BA-0EC91AF1EA77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C1E2C-5EF1-411C-922C-B8655E51D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="400">
   <si>
     <t>RunTest</t>
   </si>
@@ -846,9 +846,6 @@
     <t>Aim of the Script  is to verify whether USN filed is taking alpha numerics or not in alert editor.</t>
   </si>
   <si>
-    <t>YES,Publish,Test Publish</t>
-  </si>
-  <si>
     <t>YES,BlankAlerttext,Test Publish,TESTUSN</t>
   </si>
   <si>
@@ -1071,9 +1068,6 @@
     <t>FW_UI_0102</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>YES,PlaceHolder,Test Publish~,TESTUSN</t>
   </si>
   <si>
@@ -1114,6 +1108,132 @@
   </si>
   <si>
     <t>RICS,H.N;D11.HN,Publish</t>
+  </si>
+  <si>
+    <t>Verify_Headline_Search</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Script is to verify that user should be able to search the story with full headline text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aim of the Script is to verify that user should be able to search the story with part of the headline text </t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify that user should be able to search the story with single character</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify that user should be able to search the story with Story ID</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify that user should be able to search the story with number when it is part of headline text.</t>
+  </si>
+  <si>
+    <t>FW_UI_0105</t>
+  </si>
+  <si>
+    <t>FW_UI_0106</t>
+  </si>
+  <si>
+    <t>FW_UI_0107</t>
+  </si>
+  <si>
+    <t>FW_UI_0108</t>
+  </si>
+  <si>
+    <t>FW_UI_0109</t>
+  </si>
+  <si>
+    <t>Research</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>"438"</t>
+  </si>
+  <si>
+    <t>"4"</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>ny 6</t>
+  </si>
+  <si>
+    <t>FW_UI_0110</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify that user should be able to search the story with alphanumeric word (part of the headline text).</t>
+  </si>
+  <si>
+    <t>FW_UI_0111</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify that user should be able to quick publish the story using shortcut key (F12)</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether the alert is published or not using Shift+F12 shortcut key</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether able to publish an alert that is being edited or not using (Shift+F12) shortcut key</t>
+  </si>
+  <si>
+    <t>FW_UI_0112</t>
+  </si>
+  <si>
+    <t>FW_UI_0113</t>
+  </si>
+  <si>
+    <t>RICS,H.N,ShortcutPublishF12</t>
+  </si>
+  <si>
+    <t>RICS,H.N,ShortcutPublishSF12</t>
+  </si>
+  <si>
+    <t>FW_UI_0114</t>
+  </si>
+  <si>
+    <t>Verify_RIC_Correction</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction and Headline publish.</t>
+  </si>
+  <si>
+    <t>H.N,NewTest,Publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in story header for non english stories with Non-Eng default Product Codes.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in alert editor for non english stories with Non-Eng default codes.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in story header and publish the headline with same RIC for non english stories with Non-Eng default Products.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in alert editor and publish the alert with the same RIC for non english stories with Non-Eng default Products.</t>
+  </si>
+  <si>
+    <t>FW_UI_0115</t>
+  </si>
+  <si>
+    <t>FW_UI_0116</t>
+  </si>
+  <si>
+    <t>FW_UI_0117</t>
+  </si>
+  <si>
+    <t>FW_UI_0118</t>
+  </si>
+  <si>
+    <t>Verify_NonEnglish_Publish_BSKT</t>
+  </si>
+  <si>
+    <t>H.N,Spanish,NoPublish</t>
+  </si>
+  <si>
+    <t>H.N,Spanish,Publish</t>
   </si>
 </sst>
 </file>
@@ -1234,7 +1354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1271,6 +1391,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1499,7 +1622,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F111" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F125" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F125" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -1834,10 +1958,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F111"/>
+  <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D110" sqref="D110"/>
+    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D130" sqref="D130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2726,7 +2850,7 @@
         <v>152</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="E45" s="7" t="s">
         <v>107</v>
@@ -2804,7 +2928,7 @@
         <v>152</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E49" s="7" t="s">
         <v>107</v>
@@ -2824,7 +2948,7 @@
         <v>152</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E50" s="7" t="s">
         <v>107</v>
@@ -2844,7 +2968,7 @@
         <v>152</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E51" s="7" t="s">
         <v>107</v>
@@ -2864,7 +2988,7 @@
         <v>152</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>107</v>
@@ -2884,7 +3008,7 @@
         <v>152</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E53" s="7" t="s">
         <v>107</v>
@@ -2904,7 +3028,7 @@
         <v>152</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>107</v>
@@ -2924,7 +3048,7 @@
         <v>152</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>107</v>
@@ -2944,7 +3068,7 @@
         <v>152</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E56" s="7" t="s">
         <v>107</v>
@@ -2964,7 +3088,7 @@
         <v>152</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>107</v>
@@ -2984,7 +3108,7 @@
         <v>152</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>107</v>
@@ -3004,7 +3128,7 @@
         <v>152</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>107</v>
@@ -3024,7 +3148,7 @@
         <v>152</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>107</v>
@@ -3064,7 +3188,7 @@
         <v>152</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>107</v>
@@ -3558,19 +3682,19 @@
         <v>30</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C87" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="D87" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="E87" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>282</v>
-      </c>
-      <c r="D87" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E87" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3578,19 +3702,19 @@
         <v>30</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F88" s="10" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3598,19 +3722,19 @@
         <v>30</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F89" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3618,19 +3742,19 @@
         <v>30</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C90" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F90" s="10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3638,19 +3762,19 @@
         <v>30</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C91" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F91" s="10" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3658,19 +3782,19 @@
         <v>30</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C92" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3678,19 +3802,19 @@
         <v>30</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C93" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3698,19 +3822,19 @@
         <v>30</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C94" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F94" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3718,19 +3842,19 @@
         <v>30</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C95" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F95" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3738,19 +3862,19 @@
         <v>30</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C96" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F96" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3758,19 +3882,19 @@
         <v>30</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C97" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F97" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3778,19 +3902,19 @@
         <v>30</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F98" s="10" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3798,19 +3922,19 @@
         <v>30</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C99" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F99" s="10" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3818,19 +3942,19 @@
         <v>30</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C100" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F100" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3838,19 +3962,19 @@
         <v>30</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C101" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F101" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3858,19 +3982,19 @@
         <v>30</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C102" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F102" s="10" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3878,19 +4002,19 @@
         <v>30</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C103" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F103" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3898,19 +4022,19 @@
         <v>30</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C104" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F104" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3918,19 +4042,19 @@
         <v>30</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C105" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E105" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3938,19 +4062,19 @@
         <v>30</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C106" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E106" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3958,19 +4082,19 @@
         <v>30</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C107" s="7" t="s">
         <v>152</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E107" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3978,19 +4102,19 @@
         <v>30</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C108" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F108" s="10" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3998,39 +4122,39 @@
         <v>30</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C109" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E109" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F109" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="4" t="s">
-        <v>345</v>
+        <v>30</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C110" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E110" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F110" s="10" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4038,19 +4162,299 @@
         <v>30</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C111" s="7" t="s">
         <v>194</v>
       </c>
       <c r="D111" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="C112" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="E111" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>353</v>
+      <c r="D112" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B113" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B114" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D114" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D115" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115" s="5" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="C116" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="C117" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="E118" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E119" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B120" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="C120" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E120" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="C121" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="E121" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="C122" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="C123" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="E123" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B124" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="C124" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E124" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="C125" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E125" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>392</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25C1E2C-5EF1-411C-922C-B8655E51D193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF891B-BB5D-43AB-B0B2-8C9E7C8F8294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="431">
   <si>
     <t>RunTest</t>
   </si>
@@ -1234,6 +1234,99 @@
   </si>
   <si>
     <t>H.N,Spanish,Publish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether able to enter data in USN filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>FW_UI_0119</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>USNHC,test123,HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether able to enter data in Product code filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether able to enter data in RIC filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether able to enter data in Topic code filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether able to enter data in Named Items filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether able to enter data in alert text filed or not in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify whether the alert is published or not using alert editor in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to Verify whether the story is published or not using Quick Publish button in High contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the script is to verify whether story ID format in 1 to 999 range in high contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in Story Header for high contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in Alert Editor for high contrast mode.</t>
+  </si>
+  <si>
+    <t>FW_UI_0120</t>
+  </si>
+  <si>
+    <t>FW_UI_0121</t>
+  </si>
+  <si>
+    <t>FW_UI_0122</t>
+  </si>
+  <si>
+    <t>FW_UI_0123</t>
+  </si>
+  <si>
+    <t>FW_UI_0124</t>
+  </si>
+  <si>
+    <t>ProductsHC,Test,HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>RICSHC,Test.V,HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>TopicsHC,TESTME,HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>NamedItemsHC,Tea/BD,HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>YES,HIGHCONTRAST,TEST PUBLISH HIGHCONTRAST,TESTUSN</t>
+  </si>
+  <si>
+    <t>FW_UI_0125</t>
+  </si>
+  <si>
+    <t>FW_UI_0126</t>
+  </si>
+  <si>
+    <t>FW_UI_0127</t>
+  </si>
+  <si>
+    <t>FW_UI_0128</t>
+  </si>
+  <si>
+    <t>FW_UI_0129</t>
+  </si>
+  <si>
+    <t>YES,HIGHCONTRASTPUBLISH,TEST PUBLISH HIGHCONTRAST,TESTUSN</t>
+  </si>
+  <si>
+    <t>YES,HIGHCONTRASTQUICKPUBLISH,TEST PUBLISH HIGHCONTRASTQUICKPUBLISH,TESTUSN</t>
   </si>
 </sst>
 </file>
@@ -1277,7 +1370,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1350,11 +1443,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1393,6 +1497,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1622,8 +1729,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F125" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F125" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F136" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -1958,10 +2065,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F125"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4457,6 +4564,202 @@
         <v>392</v>
       </c>
     </row>
+    <row r="126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="C126" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D126" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B127" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="C127" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="E127" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B128" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="C128" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D128" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E128" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="C129" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E129" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="C130" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="D130" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="E130" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B131" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="C131" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D131" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E131" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F131" s="6" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B132" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="C132" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D132" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E132" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="B133" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="C133" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D133" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="E133" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="14"/>
+      <c r="B134" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="8" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="4"/>
+      <c r="B135" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="6" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="14"/>
+      <c r="B136" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="8" t="s">
+        <v>413</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9BF891B-BB5D-43AB-B0B2-8C9E7C8F8294}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8D4F1-658F-4630-84D3-AB4B51FB90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="497">
   <si>
     <t>RunTest</t>
   </si>
@@ -1327,6 +1327,204 @@
   </si>
   <si>
     <t>YES,HIGHCONTRASTQUICKPUBLISH,TEST PUBLISH HIGHCONTRASTQUICKPUBLISH,TESTUSN</t>
+  </si>
+  <si>
+    <t>HIGHCONTRAST</t>
+  </si>
+  <si>
+    <t>NORMAL</t>
+  </si>
+  <si>
+    <t>H.N,NewTest,HCPublish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction and publish alert with same RIC in Alert Editor for high contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction and Headline publish for high contrast mode.</t>
+  </si>
+  <si>
+    <t>FW_UI_0130</t>
+  </si>
+  <si>
+    <t>FW_UI_0131</t>
+  </si>
+  <si>
+    <t>H.N,NewTest,HCVerify</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in story header for non english stories in high contrast mode.</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify RIC correction in alert editor for non english stories in high contrast mode.</t>
+  </si>
+  <si>
+    <t>FW_UI_0132</t>
+  </si>
+  <si>
+    <t>FW_UI_0133</t>
+  </si>
+  <si>
+    <t>H.N,Spanish,HCPublish</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Templates window using shortcut ket (Alt+T) in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Templates window using shortcut ket (Alt+T) in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Templates window through More Actions buttons in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to open Templates window through More Actions buttons in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Headline Activity window through More Actions buttons in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Headline Activity window through More Actions buttons in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Publish History window using shortcut ket (Alt+Y) in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Publish History window using shortcut ket (Alt+Y) in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open More Actions dropdown using shortcut ket (Alt+R) in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open More Actions dropdown using shortcut ket (Alt+R) in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Publish History window through More Actions buttons in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Published History window through More Actions buttons in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Company List dropdown using shortcut ket (Alt+L) in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Company List dropdown using shortcut ket (Alt+L) in Full Search</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open News Feeds dropdown using shortcut ket (Alt+F) in Live Feeds</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open News Feeds dropdown using shortcut ket (Alt+F) in Full Search</t>
+  </si>
+  <si>
+    <t>Verify_MoreActions</t>
+  </si>
+  <si>
+    <t>FW_UI_0134</t>
+  </si>
+  <si>
+    <t>FW_UI_0135</t>
+  </si>
+  <si>
+    <t>FW_UI_0136</t>
+  </si>
+  <si>
+    <t>FW_UI_0137</t>
+  </si>
+  <si>
+    <t>FW_UI_0138</t>
+  </si>
+  <si>
+    <t>FW_UI_0139</t>
+  </si>
+  <si>
+    <t>FW_UI_0140</t>
+  </si>
+  <si>
+    <t>FW_UI_0141</t>
+  </si>
+  <si>
+    <t>FW_UI_0142</t>
+  </si>
+  <si>
+    <t>FW_UI_0143</t>
+  </si>
+  <si>
+    <t>FW_UI_0144</t>
+  </si>
+  <si>
+    <t>FW_UI_0145</t>
+  </si>
+  <si>
+    <t>FW_UI_0146</t>
+  </si>
+  <si>
+    <t>FW_UI_0147</t>
+  </si>
+  <si>
+    <t>FW_UI_0148</t>
+  </si>
+  <si>
+    <t>FW_UI_0149</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,SHORTCUT,TEMPLATE</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,MOREACTION,TEMPLATE</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,SHORTCUT,TEMPLATE</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,MOREACTION,TEMPLATE</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,MOREACTION,HEADLINE</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,MOREACTION,HEADLINE</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,SHORTCUT,PUBLISHHISTORY</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,SHORTCUT,MOREACTIONS</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,SHORTCUT,MOREACTIONS</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,SHORTCUT,COMPANYLIST</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,SHORTCUT,COMPANYLIST</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,SHORTCUT,PUBLISHHISTORY</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,MOREACTION,PUBLISHHISTORY</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,MOREACTION,PUBLISHHISTORY</t>
+  </si>
+  <si>
+    <t>LIVEFEEDS,SHORTCUT,NEWSFEED</t>
+  </si>
+  <si>
+    <t>FULLSEARCH,SHORTCUT,NEWSFEED</t>
+  </si>
+  <si>
+    <t>Verify_Topics_FullSearch</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to do Full Search with given Topic Codes</t>
+  </si>
+  <si>
+    <t>FW_UI_0150</t>
+  </si>
+  <si>
+    <t>US</t>
   </si>
 </sst>
 </file>
@@ -1356,7 +1554,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1564,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1458,7 +1662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1500,6 +1704,24 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1729,8 +1951,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F136" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F136" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="A1:F157" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -2065,10 +2287,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C152" sqref="C152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2898,7 +3120,9 @@
       <c r="C42" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D42" s="5"/>
+      <c r="D42" s="5" t="s">
+        <v>432</v>
+      </c>
       <c r="E42" s="7" t="s">
         <v>107</v>
       </c>
@@ -4706,7 +4930,7 @@
     </row>
     <row r="133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B133" s="7" t="s">
         <v>425</v>
@@ -4725,39 +4949,483 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="14"/>
+      <c r="A134" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B134" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="C134" s="7"/>
-      <c r="D134" s="7"/>
-      <c r="E134" s="7"/>
+      <c r="C134" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D134" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E134" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F134" s="8" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="4"/>
+      <c r="A135" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B135" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
+      <c r="C135" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E135" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F135" s="6" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="14"/>
+      <c r="A136" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="B136" s="7" t="s">
         <v>428</v>
       </c>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
+      <c r="C136" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="E136" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="F136" s="8" t="s">
         <v>413</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B137" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E137" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B138" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="C138" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E138" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B139" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C139" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="E140" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B141" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E141" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B142" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E142" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B143" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A144" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B144" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="E144" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A145" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B145" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="E145" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A146" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B146" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A147" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="E147" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A148" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D148" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E148" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A149" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B149" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D149" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="E149" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A150" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B150" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D150" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="E150" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A151" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B151" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D151" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E151" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A152" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B152" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D152" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E152" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F152" s="6" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A153" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B153" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D153" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E153" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="17" t="s">
+        <v>474</v>
+      </c>
+      <c r="C154" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="D154" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="E154" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A155" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>475</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="C156" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="D156" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="B157" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="C157" s="19" t="s">
+        <v>493</v>
+      </c>
+      <c r="D157" s="19" t="s">
+        <v>496</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F157" s="7" t="s">
+        <v>494</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE8D4F1-658F-4630-84D3-AB4B51FB90E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9763EA-BC94-4589-BBA1-7F13D3107EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="934" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="954">
   <si>
     <t>RunTest</t>
   </si>
@@ -1525,6 +1527,1377 @@
   </si>
   <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select UCDP feeds and Verify PNAC ID in Brief window.</t>
+  </si>
+  <si>
+    <t>FW_UI_0151</t>
+  </si>
+  <si>
+    <t>VerifyPNAC_UCDP</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to select NOODL feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>FW_UI_0152</t>
+  </si>
+  <si>
+    <t>Others,HUGXX,C.N,YES</t>
+  </si>
+  <si>
+    <t>Others,NOODL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR (Others Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:XX (Others Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:SP (Others Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:PT (Others Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-GBR (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select TEN (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select RNZ (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select PRN (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select PIMS (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:UK (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:IE (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select CIS (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select BW (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @UnitedKingdom_Web (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @ukequities3 (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @ukequities2 (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @ukequities1 (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @uk_online (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @uk.econ (United Kingdom Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-TUR (Turkey Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select KAP (Turkey Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @istanbul_nr (Turkey Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-CHE (Switzerland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:CH (Switzerland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Switzerland_Web (Switzerland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @geneva_nr (Switzerland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-ESP (Spain Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-ZAF (South Africa Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select JSE (South Africa Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @jhb_nr (South Africa Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-RUS (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select TASS (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select RIAN (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select IFAX:GFTP (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @E-disclosure_Ru16 (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-PRT (Portugal Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Portugal_Web (Portugal Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select VSE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-NOR (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select TLSE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select SSE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select SNDO (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select SBI (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select RIGA (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select PAP (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OSLB (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OSL (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:XXX (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:VIL (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:TAL (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:STK (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:RIG (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:ICE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:HEL (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select OMX:CSE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select ICE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:SE (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:NO (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:IS (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:FI (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:DK (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HEL (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select EBI (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select CIS (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select CGN (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Sweden_Web (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @stockholm_nr (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @statoil_webauto2 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @statoil_webauto1 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se6 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se5 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se4 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se3 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se2 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se1 (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @riksbank_se (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @oslo_nr (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @npdnorway_webauto (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Norway_Web (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @helsinki_nr (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Finland_Web (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Denmark_Web (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @copenhagen_nr (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @cisionfeed (Nordiac-Scandinavian-Baltic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-ITA (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:IT (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select BM-V (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select BIA (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @milan_nr (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Italy_Web (Italy Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-IRL (Ireland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:IE (Ireland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Ireland_Web (Ireland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @dublin_nr (Ireland Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-GRC (Greece Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @athens_nr (Greece Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-DEU (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select PRN:EMEA (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:DE (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select EANS (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select DB (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select BW:EMEA (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @zurich_nr (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @zurich_news (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @research_ff (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @power_ff (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @germanyecb_nr (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Germany_Web (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @germany_it (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @frankfurt_nr (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @berlin_nr (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @berlin_fm (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @berlin_econ (Germany Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-FRA (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:FR (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select ECHO (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select ACT (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @pariscorp_rtrs (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @paris_equities (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @France_Web (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @france_newsroom (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @agence_reuters (France Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-EZY (Egypt Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @cairo_nr (Egypt Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-CZE (Czech Republic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select EMIT (Poland) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @prague_nr (Czech Republic Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-BNL (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:NL (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:LU (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:BE (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Netherlands_Web (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Luxembourg_Web (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @brussels_nr (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Belgium_Web (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Belgium_nr (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @amswire (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @amsterdam (Benelux Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-AUT (Austria Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select PTX (Austria Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:AT (Austria Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @vienna_nr (Austria Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Austria_Web (Austria Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>FW_UI_0153</t>
+  </si>
+  <si>
+    <t>FW_UI_0154</t>
+  </si>
+  <si>
+    <t>FW_UI_0155</t>
+  </si>
+  <si>
+    <t>FW_UI_0156</t>
+  </si>
+  <si>
+    <t>FW_UI_0157</t>
+  </si>
+  <si>
+    <t>FW_UI_0158</t>
+  </si>
+  <si>
+    <t>FW_UI_0159</t>
+  </si>
+  <si>
+    <t>FW_UI_0160</t>
+  </si>
+  <si>
+    <t>FW_UI_0161</t>
+  </si>
+  <si>
+    <t>FW_UI_0162</t>
+  </si>
+  <si>
+    <t>FW_UI_0163</t>
+  </si>
+  <si>
+    <t>FW_UI_0164</t>
+  </si>
+  <si>
+    <t>FW_UI_0165</t>
+  </si>
+  <si>
+    <t>FW_UI_0166</t>
+  </si>
+  <si>
+    <t>FW_UI_0167</t>
+  </si>
+  <si>
+    <t>FW_UI_0168</t>
+  </si>
+  <si>
+    <t>FW_UI_0169</t>
+  </si>
+  <si>
+    <t>FW_UI_0170</t>
+  </si>
+  <si>
+    <t>FW_UI_0171</t>
+  </si>
+  <si>
+    <t>FW_UI_0172</t>
+  </si>
+  <si>
+    <t>FW_UI_0173</t>
+  </si>
+  <si>
+    <t>FW_UI_0174</t>
+  </si>
+  <si>
+    <t>FW_UI_0175</t>
+  </si>
+  <si>
+    <t>FW_UI_0176</t>
+  </si>
+  <si>
+    <t>FW_UI_0177</t>
+  </si>
+  <si>
+    <t>FW_UI_0178</t>
+  </si>
+  <si>
+    <t>FW_UI_0179</t>
+  </si>
+  <si>
+    <t>FW_UI_0180</t>
+  </si>
+  <si>
+    <t>FW_UI_0181</t>
+  </si>
+  <si>
+    <t>FW_UI_0182</t>
+  </si>
+  <si>
+    <t>FW_UI_0183</t>
+  </si>
+  <si>
+    <t>FW_UI_0184</t>
+  </si>
+  <si>
+    <t>FW_UI_0185</t>
+  </si>
+  <si>
+    <t>FW_UI_0186</t>
+  </si>
+  <si>
+    <t>FW_UI_0187</t>
+  </si>
+  <si>
+    <t>FW_UI_0188</t>
+  </si>
+  <si>
+    <t>FW_UI_0189</t>
+  </si>
+  <si>
+    <t>FW_UI_0190</t>
+  </si>
+  <si>
+    <t>FW_UI_0191</t>
+  </si>
+  <si>
+    <t>FW_UI_0192</t>
+  </si>
+  <si>
+    <t>FW_UI_0193</t>
+  </si>
+  <si>
+    <t>FW_UI_0194</t>
+  </si>
+  <si>
+    <t>FW_UI_0195</t>
+  </si>
+  <si>
+    <t>FW_UI_0196</t>
+  </si>
+  <si>
+    <t>FW_UI_0197</t>
+  </si>
+  <si>
+    <t>FW_UI_0198</t>
+  </si>
+  <si>
+    <t>FW_UI_0199</t>
+  </si>
+  <si>
+    <t>FW_UI_0200</t>
+  </si>
+  <si>
+    <t>FW_UI_0201</t>
+  </si>
+  <si>
+    <t>FW_UI_0202</t>
+  </si>
+  <si>
+    <t>FW_UI_0203</t>
+  </si>
+  <si>
+    <t>FW_UI_0204</t>
+  </si>
+  <si>
+    <t>FW_UI_0205</t>
+  </si>
+  <si>
+    <t>FW_UI_0206</t>
+  </si>
+  <si>
+    <t>FW_UI_0207</t>
+  </si>
+  <si>
+    <t>FW_UI_0208</t>
+  </si>
+  <si>
+    <t>FW_UI_0209</t>
+  </si>
+  <si>
+    <t>FW_UI_0210</t>
+  </si>
+  <si>
+    <t>FW_UI_0211</t>
+  </si>
+  <si>
+    <t>FW_UI_0212</t>
+  </si>
+  <si>
+    <t>FW_UI_0213</t>
+  </si>
+  <si>
+    <t>FW_UI_0214</t>
+  </si>
+  <si>
+    <t>FW_UI_0215</t>
+  </si>
+  <si>
+    <t>FW_UI_0216</t>
+  </si>
+  <si>
+    <t>FW_UI_0217</t>
+  </si>
+  <si>
+    <t>FW_UI_0218</t>
+  </si>
+  <si>
+    <t>FW_UI_0219</t>
+  </si>
+  <si>
+    <t>FW_UI_0220</t>
+  </si>
+  <si>
+    <t>FW_UI_0221</t>
+  </si>
+  <si>
+    <t>FW_UI_0222</t>
+  </si>
+  <si>
+    <t>FW_UI_0223</t>
+  </si>
+  <si>
+    <t>FW_UI_0224</t>
+  </si>
+  <si>
+    <t>FW_UI_0225</t>
+  </si>
+  <si>
+    <t>FW_UI_0226</t>
+  </si>
+  <si>
+    <t>FW_UI_0227</t>
+  </si>
+  <si>
+    <t>FW_UI_0228</t>
+  </si>
+  <si>
+    <t>FW_UI_0229</t>
+  </si>
+  <si>
+    <t>FW_UI_0230</t>
+  </si>
+  <si>
+    <t>FW_UI_0231</t>
+  </si>
+  <si>
+    <t>FW_UI_0232</t>
+  </si>
+  <si>
+    <t>FW_UI_0233</t>
+  </si>
+  <si>
+    <t>FW_UI_0234</t>
+  </si>
+  <si>
+    <t>FW_UI_0235</t>
+  </si>
+  <si>
+    <t>FW_UI_0236</t>
+  </si>
+  <si>
+    <t>FW_UI_0237</t>
+  </si>
+  <si>
+    <t>FW_UI_0238</t>
+  </si>
+  <si>
+    <t>FW_UI_0239</t>
+  </si>
+  <si>
+    <t>FW_UI_0240</t>
+  </si>
+  <si>
+    <t>FW_UI_0241</t>
+  </si>
+  <si>
+    <t>FW_UI_0242</t>
+  </si>
+  <si>
+    <t>FW_UI_0243</t>
+  </si>
+  <si>
+    <t>FW_UI_0244</t>
+  </si>
+  <si>
+    <t>FW_UI_0245</t>
+  </si>
+  <si>
+    <t>FW_UI_0246</t>
+  </si>
+  <si>
+    <t>FW_UI_0247</t>
+  </si>
+  <si>
+    <t>FW_UI_0248</t>
+  </si>
+  <si>
+    <t>FW_UI_0249</t>
+  </si>
+  <si>
+    <t>FW_UI_0250</t>
+  </si>
+  <si>
+    <t>FW_UI_0251</t>
+  </si>
+  <si>
+    <t>FW_UI_0252</t>
+  </si>
+  <si>
+    <t>FW_UI_0253</t>
+  </si>
+  <si>
+    <t>FW_UI_0254</t>
+  </si>
+  <si>
+    <t>FW_UI_0255</t>
+  </si>
+  <si>
+    <t>FW_UI_0256</t>
+  </si>
+  <si>
+    <t>FW_UI_0257</t>
+  </si>
+  <si>
+    <t>FW_UI_0258</t>
+  </si>
+  <si>
+    <t>FW_UI_0259</t>
+  </si>
+  <si>
+    <t>FW_UI_0260</t>
+  </si>
+  <si>
+    <t>FW_UI_0261</t>
+  </si>
+  <si>
+    <t>FW_UI_0262</t>
+  </si>
+  <si>
+    <t>FW_UI_0263</t>
+  </si>
+  <si>
+    <t>FW_UI_0264</t>
+  </si>
+  <si>
+    <t>FW_UI_0265</t>
+  </si>
+  <si>
+    <t>FW_UI_0266</t>
+  </si>
+  <si>
+    <t>FW_UI_0267</t>
+  </si>
+  <si>
+    <t>FW_UI_0268</t>
+  </si>
+  <si>
+    <t>FW_UI_0269</t>
+  </si>
+  <si>
+    <t>FW_UI_0270</t>
+  </si>
+  <si>
+    <t>FW_UI_0271</t>
+  </si>
+  <si>
+    <t>FW_UI_0272</t>
+  </si>
+  <si>
+    <t>FW_UI_0273</t>
+  </si>
+  <si>
+    <t>FW_UI_0274</t>
+  </si>
+  <si>
+    <t>FW_UI_0275</t>
+  </si>
+  <si>
+    <t>FW_UI_0276</t>
+  </si>
+  <si>
+    <t>FW_UI_0277</t>
+  </si>
+  <si>
+    <t>FW_UI_0278</t>
+  </si>
+  <si>
+    <t>FW_UI_0279</t>
+  </si>
+  <si>
+    <t>FW_UI_0280</t>
+  </si>
+  <si>
+    <t>FW_UI_0281</t>
+  </si>
+  <si>
+    <t>FW_UI_0282</t>
+  </si>
+  <si>
+    <t>FW_UI_0283</t>
+  </si>
+  <si>
+    <t>FW_UI_0284</t>
+  </si>
+  <si>
+    <t>FW_UI_0285</t>
+  </si>
+  <si>
+    <t>FW_UI_0286</t>
+  </si>
+  <si>
+    <t>FW_UI_0287</t>
+  </si>
+  <si>
+    <t>FW_UI_0288</t>
+  </si>
+  <si>
+    <t>FW_UI_0289</t>
+  </si>
+  <si>
+    <t>FW_UI_0290</t>
+  </si>
+  <si>
+    <t>FW_UI_0291</t>
+  </si>
+  <si>
+    <t>FW_UI_0292</t>
+  </si>
+  <si>
+    <t>FW_UI_0293</t>
+  </si>
+  <si>
+    <t>FW_UI_0294</t>
+  </si>
+  <si>
+    <t>FW_UI_0295</t>
+  </si>
+  <si>
+    <t>FW_UI_0296</t>
+  </si>
+  <si>
+    <t>FW_UI_0297</t>
+  </si>
+  <si>
+    <t>FW_UI_0298</t>
+  </si>
+  <si>
+    <t>FW_UI_0299</t>
+  </si>
+  <si>
+    <t>FW_UI_0300</t>
+  </si>
+  <si>
+    <t>FW_UI_0301</t>
+  </si>
+  <si>
+    <t>Austria,@Austria_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Austria,HUGAT,C.N,NO</t>
+  </si>
+  <si>
+    <t>Austria,PTX,C.N,NO</t>
+  </si>
+  <si>
+    <t>Austria,USRAUT,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@amsterdam,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@amswire,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@Belgium_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Egypt,@cairo_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@Belgium_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@brussels_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@Luxembourg_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@Netherlanda_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,HUGBE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,HUGLU,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,HUGNL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,USRBNL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Poland,EMIT,C.N,NO</t>
+  </si>
+  <si>
+    <t>CzechRepublic,@prague_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>CzechRepublic,USRCZE,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,@france_newsroom,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@berlin_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@frankfurt_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Egypt,USREZY,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,HUGFR,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,@agence_reuters,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@berlin_econ,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@berlin_fm,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@germany_it,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,@France_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,@paris_equities,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,@pariscorp_rtrs,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,ACT,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,ECHO,C.N,NO</t>
+  </si>
+  <si>
+    <t>France,USR-FRA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@Germany_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@germanyecb_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@power_ff,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@research_ff,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@zurich_news,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,@zurich_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,BWEMEA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,DB,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,EANS,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,HUGDE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,PRNEMEA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Germany,USR-DEU,C.N,NO</t>
+  </si>
+  <si>
+    <t>Greece,@athens_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Greece,USR-GRC,C.N,NO</t>
+  </si>
+  <si>
+    <t>Ireland,@dublin_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Ireland,@Ireland_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Ireland,HUGIE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Ireland,USR-IRL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,@Italy_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,@milan_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,BIA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,BM-V,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,HUGIT,C.N,NO</t>
+  </si>
+  <si>
+    <t>Italy,USR-ITA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@cisionfeed,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@copenhagen_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@Denmark_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@Finland_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@helsinki_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@Norway_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@npdnorway_webauto,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@oslo_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se1,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se2,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se3,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se4,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se5,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@riksbank_se6,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@statoil_webauto1,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@statoil_webauto2,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@stockholm_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,@Sweden_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,CGN,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,CIS,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,EBI,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HEL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HUGDK,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HUGFI,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HUGIS,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HUGNO,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,HUGSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,ICE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXCSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXHEL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXICE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXRIG,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXSTK,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXTAL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXVIL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OMXXXX,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OSL,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,OSLB,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,PAP,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,RIGA,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,SBI,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,SNDO,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,SSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,TLSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,USR-NOR,C.N,NO</t>
+  </si>
+  <si>
+    <t>Nordic,VSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Portugal,@Portugal_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,@E-disclosure_Ru16,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,IFAXGFTP,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,RIAN,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,TASS,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,USR-RUS,C.N,NO</t>
+  </si>
+  <si>
+    <t>SouthAfrica,@jhb_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>SouthAfrica,JSE,C.N,NO</t>
+  </si>
+  <si>
+    <t>SouthAfrica,USR-ZAF,C.N,NO</t>
+  </si>
+  <si>
+    <t>Spain,USR-ESP,C.N,NO</t>
+  </si>
+  <si>
+    <t>Switzerland,@geneva_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Switzerland,@Switzerland_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Switzerland,HUGCH,C.N,NO</t>
+  </si>
+  <si>
+    <t>Switzerland,USR-CHE,C.N,NO</t>
+  </si>
+  <si>
+    <t>Turkey,@istanbul_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Turkey,KAP,C.N,NO</t>
+  </si>
+  <si>
+    <t>Turkey,USR-TUR,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@uk_online,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@ukequities1,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@ukequities2,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@ukequities3,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@UnitedKingdom_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,CIS,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,HUGIE,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,HUGUK,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,PIMS,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,RNZ,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,TEN,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,USR-GBR,C.N,NO</t>
+  </si>
+  <si>
+    <t>Others,HUGPT,C.N,NO</t>
+  </si>
+  <si>
+    <t>Others,HUGSP,C.N,NO</t>
+  </si>
+  <si>
+    <t>Others,HUGXX,C.N,NO</t>
+  </si>
+  <si>
+    <t>Others,USR,C.N,NO</t>
+  </si>
+  <si>
+    <t>Portugal,USR-PRT,C.N,NO</t>
+  </si>
+  <si>
+    <t>Russia,@Disclosure_Skrin,C.N,NO</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Disclosure_Skrin (Russia Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Spain,@madrid_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Spain,@Spain_Web,C.N,NO</t>
+  </si>
+  <si>
+    <t>Spain,CNMV,C.N,NO</t>
+  </si>
+  <si>
+    <t>Spain,CNMVWEB,C.N,NO</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @madrid_nr (Spain Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select CNMV (Spain Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select CNMV:WEB (SpainCountry) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select @Spain_Web (Spain Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select HUG:US (United States Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to select USR-USA (United States Country) feeds from Feed Filters and Verify Publish Functionality.</t>
+  </si>
+  <si>
+    <t>UnitedStates,HUGUS,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedStates,USR-USA,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,BWEMEA,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,PRNEMEA,C.N,NO</t>
+  </si>
+  <si>
+    <t>UnitedKingdom,@ukecon,C.N,NO</t>
+  </si>
+  <si>
+    <t>FW_UI_0302</t>
+  </si>
+  <si>
+    <t>Austria,@vienna_nr,C.N,NO</t>
   </si>
 </sst>
 </file>
@@ -1574,7 +2947,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1658,11 +3031,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1688,20 +3074,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1722,6 +3099,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1951,8 +3331,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F157" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A1:F157" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F309" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -2287,10 +3666,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:F309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A136" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C152" sqref="C152"/>
+    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D182" sqref="D182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2299,7 +3678,7 @@
     <col min="2" max="2" width="12.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="51" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="69.42578125" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2334,7 +3713,7 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="18"/>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
@@ -2800,7 +4179,7 @@
       <c r="C26" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="5" t="s">
         <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
@@ -2900,7 +4279,7 @@
       <c r="C31" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="5" t="s">
         <v>106</v>
       </c>
       <c r="E31" s="7" t="s">
@@ -2920,7 +4299,7 @@
       <c r="C32" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="5" t="s">
         <v>112</v>
       </c>
       <c r="E32" s="7" t="s">
@@ -2940,7 +4319,7 @@
       <c r="C33" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="5" t="s">
         <v>121</v>
       </c>
       <c r="E33" s="7" t="s">
@@ -2960,7 +4339,7 @@
       <c r="C34" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="5" t="s">
         <v>122</v>
       </c>
       <c r="E34" s="7" t="s">
@@ -2980,7 +4359,7 @@
       <c r="C35" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="5" t="s">
         <v>123</v>
       </c>
       <c r="E35" s="7" t="s">
@@ -2997,16 +4376,16 @@
       <c r="B36" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D36" s="11" t="s">
+      <c r="D36" s="5" t="s">
         <v>129</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="10" t="s">
+      <c r="F36" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -3017,16 +4396,16 @@
       <c r="B37" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="D37" s="5" t="s">
         <v>130</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F37" s="10" t="s">
+      <c r="F37" s="9" t="s">
         <v>127</v>
       </c>
     </row>
@@ -3040,7 +4419,7 @@
       <c r="C38" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="5" t="s">
         <v>135</v>
       </c>
       <c r="E38" s="7" t="s">
@@ -3060,13 +4439,13 @@
       <c r="C39" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="5" t="s">
         <v>140</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F39" s="10" t="s">
+      <c r="F39" s="9" t="s">
         <v>138</v>
       </c>
     </row>
@@ -3080,13 +4459,13 @@
       <c r="C40" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="5" t="s">
         <v>141</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F40" s="10" t="s">
+      <c r="F40" s="9" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3100,13 +4479,13 @@
       <c r="C41" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="5" t="s">
         <v>149</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F41" s="10" t="s">
+      <c r="F41" s="9" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3140,7 +4519,7 @@
       <c r="C43" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D43" s="11" t="s">
+      <c r="D43" s="5" t="s">
         <v>146</v>
       </c>
       <c r="E43" s="7" t="s">
@@ -3160,7 +4539,7 @@
       <c r="C44" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D44" s="5" t="s">
         <v>147</v>
       </c>
       <c r="E44" s="7" t="s">
@@ -3180,7 +4559,7 @@
       <c r="C45" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="5" t="s">
         <v>279</v>
       </c>
       <c r="E45" s="7" t="s">
@@ -3197,10 +4576,10 @@
       <c r="B46" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="5" t="s">
         <v>158</v>
       </c>
       <c r="E46" s="7" t="s">
@@ -3217,10 +4596,10 @@
       <c r="B47" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="5" t="s">
         <v>159</v>
       </c>
       <c r="E47" s="7" t="s">
@@ -3240,7 +4619,7 @@
       <c r="C48" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="7" t="s">
         <v>107</v>
       </c>
@@ -3258,7 +4637,7 @@
       <c r="C49" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="5" t="s">
         <v>270</v>
       </c>
       <c r="E49" s="7" t="s">
@@ -3278,7 +4657,7 @@
       <c r="C50" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D50" s="5" t="s">
         <v>271</v>
       </c>
       <c r="E50" s="7" t="s">
@@ -3298,7 +4677,7 @@
       <c r="C51" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="D51" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E51" s="7" t="s">
@@ -3318,7 +4697,7 @@
       <c r="C52" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D52" s="5" t="s">
         <v>273</v>
       </c>
       <c r="E52" s="7" t="s">
@@ -3338,7 +4717,7 @@
       <c r="C53" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E53" s="7" t="s">
@@ -3358,7 +4737,7 @@
       <c r="C54" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="5" t="s">
         <v>275</v>
       </c>
       <c r="E54" s="7" t="s">
@@ -3378,7 +4757,7 @@
       <c r="C55" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="5" t="s">
         <v>344</v>
       </c>
       <c r="E55" s="7" t="s">
@@ -3398,7 +4777,7 @@
       <c r="C56" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="5" t="s">
         <v>276</v>
       </c>
       <c r="E56" s="7" t="s">
@@ -3418,13 +4797,13 @@
       <c r="C57" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="5" t="s">
         <v>277</v>
       </c>
       <c r="E57" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="9" t="s">
         <v>184</v>
       </c>
     </row>
@@ -3438,13 +4817,13 @@
       <c r="C58" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="5" t="s">
         <v>278</v>
       </c>
       <c r="E58" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="9" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3458,13 +4837,13 @@
       <c r="C59" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="5" t="s">
         <v>276</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F59" s="10" t="s">
+      <c r="F59" s="9" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3478,13 +4857,13 @@
       <c r="C60" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="5" t="s">
         <v>279</v>
       </c>
       <c r="E60" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="9" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3498,7 +4877,7 @@
       <c r="C61" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="5" t="s">
         <v>268</v>
       </c>
       <c r="E61" s="7" t="s">
@@ -3518,13 +4897,13 @@
       <c r="C62" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D62" s="11" t="s">
+      <c r="D62" s="5" t="s">
         <v>280</v>
       </c>
       <c r="E62" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F62" s="10" t="s">
+      <c r="F62" s="9" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3538,7 +4917,7 @@
       <c r="C63" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="5" t="s">
         <v>229</v>
       </c>
       <c r="E63" s="7" t="s">
@@ -3558,7 +4937,7 @@
       <c r="C64" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="5" t="s">
         <v>228</v>
       </c>
       <c r="E64" s="7" t="s">
@@ -3578,7 +4957,7 @@
       <c r="C65" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="D65" s="5" t="s">
         <v>196</v>
       </c>
       <c r="E65" s="7" t="s">
@@ -3598,7 +4977,7 @@
       <c r="C66" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D66" s="5" t="s">
         <v>206</v>
       </c>
       <c r="E66" s="7" t="s">
@@ -3618,7 +4997,7 @@
       <c r="C67" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="5" t="s">
         <v>201</v>
       </c>
       <c r="E67" s="7" t="s">
@@ -3638,7 +5017,7 @@
       <c r="C68" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="D68" s="5" t="s">
         <v>222</v>
       </c>
       <c r="E68" s="7" t="s">
@@ -3658,7 +5037,7 @@
       <c r="C69" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D69" s="5" t="s">
         <v>224</v>
       </c>
       <c r="E69" s="7" t="s">
@@ -3678,7 +5057,7 @@
       <c r="C70" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="D70" s="5" t="s">
         <v>230</v>
       </c>
       <c r="E70" s="7" t="s">
@@ -3698,7 +5077,7 @@
       <c r="C71" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="D71" s="5" t="s">
         <v>219</v>
       </c>
       <c r="E71" s="7" t="s">
@@ -3718,7 +5097,7 @@
       <c r="C72" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="5" t="s">
         <v>220</v>
       </c>
       <c r="E72" s="7" t="s">
@@ -3738,7 +5117,7 @@
       <c r="C73" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="5" t="s">
         <v>221</v>
       </c>
       <c r="E73" s="7" t="s">
@@ -3758,7 +5137,7 @@
       <c r="C74" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="7" t="s">
+      <c r="D74" s="5" t="s">
         <v>223</v>
       </c>
       <c r="E74" s="7" t="s">
@@ -3778,7 +5157,7 @@
       <c r="C75" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="D75" s="5" t="s">
         <v>248</v>
       </c>
       <c r="E75" s="7" t="s">
@@ -3798,7 +5177,7 @@
       <c r="C76" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D76" s="7" t="s">
+      <c r="D76" s="5" t="s">
         <v>247</v>
       </c>
       <c r="E76" s="7" t="s">
@@ -3818,7 +5197,7 @@
       <c r="C77" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E77" s="7" t="s">
@@ -3838,7 +5217,7 @@
       <c r="C78" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="5" t="s">
         <v>244</v>
       </c>
       <c r="E78" s="7" t="s">
@@ -3858,7 +5237,7 @@
       <c r="C79" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E79" s="7" t="s">
@@ -3878,7 +5257,7 @@
       <c r="C80" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="5" t="s">
         <v>246</v>
       </c>
       <c r="E80" s="7" t="s">
@@ -3898,7 +5277,7 @@
       <c r="C81" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="D81" s="5" t="s">
         <v>261</v>
       </c>
       <c r="E81" s="7" t="s">
@@ -3918,7 +5297,7 @@
       <c r="C82" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="5" t="s">
         <v>262</v>
       </c>
       <c r="E82" s="7" t="s">
@@ -3938,7 +5317,7 @@
       <c r="C83" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D83" s="7" t="s">
+      <c r="D83" s="5" t="s">
         <v>263</v>
       </c>
       <c r="E83" s="7" t="s">
@@ -3958,7 +5337,7 @@
       <c r="C84" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="7" t="s">
+      <c r="D84" s="5" t="s">
         <v>264</v>
       </c>
       <c r="E84" s="7" t="s">
@@ -3978,7 +5357,7 @@
       <c r="C85" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="5" t="s">
         <v>265</v>
       </c>
       <c r="E85" s="7" t="s">
@@ -3998,7 +5377,7 @@
       <c r="C86" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="5" t="s">
         <v>266</v>
       </c>
       <c r="E86" s="7" t="s">
@@ -4018,13 +5397,13 @@
       <c r="C87" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="5" t="s">
         <v>283</v>
       </c>
       <c r="E87" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F87" s="10" t="s">
+      <c r="F87" s="9" t="s">
         <v>282</v>
       </c>
     </row>
@@ -4038,13 +5417,13 @@
       <c r="C88" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="D88" s="5" t="s">
         <v>319</v>
       </c>
       <c r="E88" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F88" s="10" t="s">
+      <c r="F88" s="9" t="s">
         <v>285</v>
       </c>
     </row>
@@ -4058,13 +5437,13 @@
       <c r="C89" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="5" t="s">
         <v>320</v>
       </c>
       <c r="E89" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F89" s="10" t="s">
+      <c r="F89" s="9" t="s">
         <v>286</v>
       </c>
     </row>
@@ -4078,13 +5457,13 @@
       <c r="C90" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D90" s="7" t="s">
+      <c r="D90" s="5" t="s">
         <v>321</v>
       </c>
       <c r="E90" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F90" s="10" t="s">
+      <c r="F90" s="9" t="s">
         <v>287</v>
       </c>
     </row>
@@ -4098,13 +5477,13 @@
       <c r="C91" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D91" s="7" t="s">
+      <c r="D91" s="5" t="s">
         <v>322</v>
       </c>
       <c r="E91" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F91" s="10" t="s">
+      <c r="F91" s="9" t="s">
         <v>288</v>
       </c>
     </row>
@@ -4118,13 +5497,13 @@
       <c r="C92" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D92" s="7" t="s">
+      <c r="D92" s="5" t="s">
         <v>323</v>
       </c>
       <c r="E92" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="F92" s="9" t="s">
         <v>289</v>
       </c>
     </row>
@@ -4138,13 +5517,13 @@
       <c r="C93" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D93" s="7" t="s">
+      <c r="D93" s="5" t="s">
         <v>324</v>
       </c>
       <c r="E93" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F93" s="10" t="s">
+      <c r="F93" s="9" t="s">
         <v>290</v>
       </c>
     </row>
@@ -4158,13 +5537,13 @@
       <c r="C94" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="5" t="s">
         <v>325</v>
       </c>
       <c r="E94" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F94" s="10" t="s">
+      <c r="F94" s="9" t="s">
         <v>291</v>
       </c>
     </row>
@@ -4178,13 +5557,13 @@
       <c r="C95" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="5" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F95" s="10" t="s">
+      <c r="F95" s="9" t="s">
         <v>292</v>
       </c>
     </row>
@@ -4198,13 +5577,13 @@
       <c r="C96" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="5" t="s">
         <v>327</v>
       </c>
       <c r="E96" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F96" s="10" t="s">
+      <c r="F96" s="9" t="s">
         <v>293</v>
       </c>
     </row>
@@ -4218,13 +5597,13 @@
       <c r="C97" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="5" t="s">
         <v>328</v>
       </c>
       <c r="E97" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F97" s="10" t="s">
+      <c r="F97" s="9" t="s">
         <v>294</v>
       </c>
     </row>
@@ -4238,13 +5617,13 @@
       <c r="C98" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="D98" s="5" t="s">
         <v>329</v>
       </c>
       <c r="E98" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F98" s="10" t="s">
+      <c r="F98" s="9" t="s">
         <v>295</v>
       </c>
     </row>
@@ -4258,13 +5637,13 @@
       <c r="C99" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="5" t="s">
         <v>330</v>
       </c>
       <c r="E99" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F99" s="10" t="s">
+      <c r="F99" s="9" t="s">
         <v>296</v>
       </c>
     </row>
@@ -4278,13 +5657,13 @@
       <c r="C100" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="D100" s="5" t="s">
         <v>331</v>
       </c>
       <c r="E100" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F100" s="10" t="s">
+      <c r="F100" s="9" t="s">
         <v>297</v>
       </c>
     </row>
@@ -4298,13 +5677,13 @@
       <c r="C101" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="5" t="s">
         <v>332</v>
       </c>
       <c r="E101" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="9" t="s">
         <v>298</v>
       </c>
     </row>
@@ -4318,13 +5697,13 @@
       <c r="C102" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="5" t="s">
         <v>333</v>
       </c>
       <c r="E102" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="9" t="s">
         <v>299</v>
       </c>
     </row>
@@ -4338,13 +5717,13 @@
       <c r="C103" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="5" t="s">
         <v>334</v>
       </c>
       <c r="E103" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F103" s="10" t="s">
+      <c r="F103" s="9" t="s">
         <v>300</v>
       </c>
     </row>
@@ -4358,13 +5737,13 @@
       <c r="C104" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="5" t="s">
         <v>335</v>
       </c>
       <c r="E104" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F104" s="10" t="s">
+      <c r="F104" s="9" t="s">
         <v>301</v>
       </c>
     </row>
@@ -4378,7 +5757,7 @@
       <c r="C105" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="5" t="s">
         <v>345</v>
       </c>
       <c r="E105" s="7" t="s">
@@ -4398,7 +5777,7 @@
       <c r="C106" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="5" t="s">
         <v>347</v>
       </c>
       <c r="E106" s="7" t="s">
@@ -4418,7 +5797,7 @@
       <c r="C107" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="5" t="s">
         <v>346</v>
       </c>
       <c r="E107" s="7" t="s">
@@ -4438,13 +5817,13 @@
       <c r="C108" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D108" s="7" t="s">
+      <c r="D108" s="5" t="s">
         <v>354</v>
       </c>
       <c r="E108" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F108" s="10" t="s">
+      <c r="F108" s="9" t="s">
         <v>348</v>
       </c>
     </row>
@@ -4464,7 +5843,7 @@
       <c r="E109" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F109" s="10" t="s">
+      <c r="F109" s="9" t="s">
         <v>349</v>
       </c>
     </row>
@@ -4484,7 +5863,7 @@
       <c r="E110" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F110" s="10" t="s">
+      <c r="F110" s="9" t="s">
         <v>350</v>
       </c>
     </row>
@@ -4504,7 +5883,7 @@
       <c r="E111" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F111" s="10" t="s">
+      <c r="F111" s="9" t="s">
         <v>351</v>
       </c>
     </row>
@@ -4518,7 +5897,7 @@
       <c r="C112" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D112" s="13" t="s">
+      <c r="D112" s="5" t="s">
         <v>373</v>
       </c>
       <c r="E112" s="5" t="s">
@@ -4538,7 +5917,7 @@
       <c r="C113" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D113" s="6" t="s">
+      <c r="D113" s="5" t="s">
         <v>369</v>
       </c>
       <c r="E113" s="5" t="s">
@@ -4558,7 +5937,7 @@
       <c r="C114" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D114" s="6" t="s">
+      <c r="D114" s="5" t="s">
         <v>370</v>
       </c>
       <c r="E114" s="5" t="s">
@@ -4578,7 +5957,7 @@
       <c r="C115" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="D115" s="6" t="s">
+      <c r="D115" s="5" t="s">
         <v>371</v>
       </c>
       <c r="E115" s="5" t="s">
@@ -4598,7 +5977,7 @@
       <c r="C116" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="D116" s="5" t="s">
         <v>372</v>
       </c>
       <c r="E116" s="5" t="s">
@@ -4618,7 +5997,7 @@
       <c r="C117" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="5" t="s">
         <v>374</v>
       </c>
       <c r="E117" s="5" t="s">
@@ -4638,7 +6017,7 @@
       <c r="C118" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="5" t="s">
         <v>383</v>
       </c>
       <c r="E118" s="7" t="s">
@@ -4798,7 +6177,7 @@
       <c r="C126" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="5" t="s">
         <v>403</v>
       </c>
       <c r="E126" s="7" t="s">
@@ -4838,7 +6217,7 @@
       <c r="C128" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D128" s="7" t="s">
+      <c r="D128" s="5" t="s">
         <v>420</v>
       </c>
       <c r="E128" s="7" t="s">
@@ -4878,7 +6257,7 @@
       <c r="C130" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="D130" s="7" t="s">
+      <c r="D130" s="5" t="s">
         <v>422</v>
       </c>
       <c r="E130" s="7" t="s">
@@ -4898,7 +6277,7 @@
       <c r="C131" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D131" s="7" t="s">
+      <c r="D131" s="5" t="s">
         <v>423</v>
       </c>
       <c r="E131" s="7" t="s">
@@ -4909,7 +6288,7 @@
       </c>
     </row>
     <row r="132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B132" s="7" t="s">
@@ -4918,7 +6297,7 @@
       <c r="C132" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D132" s="7" t="s">
+      <c r="D132" s="5" t="s">
         <v>429</v>
       </c>
       <c r="E132" s="7" t="s">
@@ -4938,7 +6317,7 @@
       <c r="C133" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D133" s="7" t="s">
+      <c r="D133" s="5" t="s">
         <v>430</v>
       </c>
       <c r="E133" s="7" t="s">
@@ -4949,7 +6328,7 @@
       </c>
     </row>
     <row r="134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="14" t="s">
+      <c r="A134" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B134" s="7" t="s">
@@ -4958,7 +6337,7 @@
       <c r="C134" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="D134" s="7" t="s">
+      <c r="D134" s="5" t="s">
         <v>431</v>
       </c>
       <c r="E134" s="7" t="s">
@@ -4969,7 +6348,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B135" s="7" t="s">
@@ -4989,7 +6368,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="14" t="s">
+      <c r="A136" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B136" s="7" t="s">
@@ -5009,7 +6388,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B137" s="7" t="s">
@@ -5029,7 +6408,7 @@
       </c>
     </row>
     <row r="138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="14" t="s">
+      <c r="A138" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B138" s="7" t="s">
@@ -5049,7 +6428,7 @@
       </c>
     </row>
     <row r="139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="14" t="s">
+      <c r="A139" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B139" s="7" t="s">
@@ -5069,7 +6448,7 @@
       </c>
     </row>
     <row r="140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="14" t="s">
+      <c r="A140" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B140" s="7" t="s">
@@ -5089,7 +6468,7 @@
       </c>
     </row>
     <row r="141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="14" t="s">
+      <c r="A141" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B141" s="7" t="s">
@@ -5109,7 +6488,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B142" s="7" t="s">
@@ -5129,7 +6508,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="14" t="s">
+      <c r="A143" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B143" s="7" t="s">
@@ -5149,7 +6528,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="14" t="s">
+      <c r="A144" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B144" s="7" t="s">
@@ -5169,7 +6548,7 @@
       </c>
     </row>
     <row r="145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B145" s="7" t="s">
@@ -5189,7 +6568,7 @@
       </c>
     </row>
     <row r="146" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="14" t="s">
+      <c r="A146" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B146" s="7" t="s">
@@ -5209,7 +6588,7 @@
       </c>
     </row>
     <row r="147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="14" t="s">
+      <c r="A147" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B147" s="7" t="s">
@@ -5229,7 +6608,7 @@
       </c>
     </row>
     <row r="148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B148" s="7" t="s">
@@ -5249,7 +6628,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B149" s="7" t="s">
@@ -5269,7 +6648,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B150" s="7" t="s">
@@ -5289,7 +6668,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B151" s="7" t="s">
@@ -5309,7 +6688,7 @@
       </c>
     </row>
     <row r="152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="15" t="s">
+      <c r="A152" s="12" t="s">
         <v>30</v>
       </c>
       <c r="B152" s="7" t="s">
@@ -5329,7 +6708,7 @@
       </c>
     </row>
     <row r="153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B153" s="7" t="s">
@@ -5349,27 +6728,27 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="B154" s="17" t="s">
+      <c r="A154" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="14" t="s">
         <v>474</v>
       </c>
-      <c r="C154" s="18" t="s">
+      <c r="C154" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="D154" s="18" t="s">
+      <c r="D154" s="15" t="s">
         <v>487</v>
       </c>
-      <c r="E154" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="F154" s="16" t="s">
+      <c r="E154" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="F154" s="13" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B155" s="7" t="s">
@@ -5389,7 +6768,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B156" s="7" t="s">
@@ -5409,16 +6788,16 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="15" t="s">
-        <v>402</v>
+      <c r="A157" s="12" t="s">
+        <v>30</v>
       </c>
       <c r="B157" s="7" t="s">
         <v>495</v>
       </c>
-      <c r="C157" s="19" t="s">
+      <c r="C157" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="D157" s="19" t="s">
+      <c r="D157" s="16" t="s">
         <v>496</v>
       </c>
       <c r="E157" s="7" t="s">
@@ -5426,6 +6805,3046 @@
       </c>
       <c r="F157" s="7" t="s">
         <v>494</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B158" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B159" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="C159" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D159" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="E159" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B160" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="C160" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D160" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="E160" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B161" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="C161" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D161" s="5" t="s">
+        <v>953</v>
+      </c>
+      <c r="E161" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B162" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="C162" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D162" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="E162" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B163" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="C163" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D163" s="5" t="s">
+        <v>798</v>
+      </c>
+      <c r="E163" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B164" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="C164" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D164" s="5" t="s">
+        <v>799</v>
+      </c>
+      <c r="E164" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A165" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B165" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="C165" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D165" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E165" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A166" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B166" s="7" t="s">
+        <v>653</v>
+      </c>
+      <c r="C166" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D166" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="E166" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A167" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D167" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="E167" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A168" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D168" s="5" t="s">
+        <v>804</v>
+      </c>
+      <c r="E168" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F168" s="6" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A169" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D169" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="E169" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F169" s="6" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A170" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D170" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="E170" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F170" s="6" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A171" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>807</v>
+      </c>
+      <c r="E171" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F171" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A172" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>659</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>808</v>
+      </c>
+      <c r="E172" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F172" s="6" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D173" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E173" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F173" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D174" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="E174" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F174" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D175" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="E175" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F175" s="6" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A176" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>663</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D176" s="5" t="s">
+        <v>813</v>
+      </c>
+      <c r="E176" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F176" s="6" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A177" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B177" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D177" s="5" t="s">
+        <v>812</v>
+      </c>
+      <c r="E177" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F177" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>665</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D178" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E178" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F178" s="6" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D179" s="5" t="s">
+        <v>803</v>
+      </c>
+      <c r="E179" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F179" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A180" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D180" s="5" t="s">
+        <v>818</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F180" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A181" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D181" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="E181" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F181" s="6" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A182" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>669</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D182" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="E182" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F182" s="6" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A183" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>670</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D183" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="E183" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F183" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A184" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D184" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="E184" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F184" s="6" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A185" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D185" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="E185" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F185" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A186" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D186" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="E186" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F186" s="6" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A187" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="E187" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F187" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A188" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="E188" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F188" s="6" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A189" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>676</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D189" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="E189" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F189" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A190" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>677</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D190" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="E190" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F190" s="6" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A191" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>678</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D191" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="E191" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F191" s="6" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D192" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="E192" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F192" s="6" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A193" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>680</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D193" s="5" t="s">
+        <v>817</v>
+      </c>
+      <c r="E193" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F193" s="6" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A194" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>681</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D194" s="5" t="s">
+        <v>823</v>
+      </c>
+      <c r="E194" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F194" s="6" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A195" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="E195" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F195" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A196" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="E196" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F196" s="6" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A197" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>684</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D197" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="E197" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F197" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A198" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="E198" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F198" s="6" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A199" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>686</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D199" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E199" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F199" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A200" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D200" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="E200" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F200" s="6" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A201" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D201" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="E201" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F201" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A202" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>689</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D202" s="5" t="s">
+        <v>837</v>
+      </c>
+      <c r="E202" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F202" s="6" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A203" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D203" s="5" t="s">
+        <v>838</v>
+      </c>
+      <c r="E203" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F203" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A204" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D204" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E204" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F204" s="6" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A205" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D205" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="E205" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F205" s="6" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A206" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>693</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D206" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="E206" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F206" s="6" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>694</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D207" s="5" t="s">
+        <v>842</v>
+      </c>
+      <c r="E207" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F207" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A208" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>843</v>
+      </c>
+      <c r="E208" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F208" s="6" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A209" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>696</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D209" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E209" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F209" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A210" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>697</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D210" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="E210" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F210" s="6" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A211" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D211" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="E211" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F211" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A212" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>699</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D212" s="5" t="s">
+        <v>847</v>
+      </c>
+      <c r="E212" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F212" s="6" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A213" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D213" s="5" t="s">
+        <v>848</v>
+      </c>
+      <c r="E213" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F213" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A214" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>701</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D214" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="E214" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F214" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A215" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>702</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D215" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E215" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F215" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A216" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D216" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E216" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F216" s="6" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A217" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>704</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D217" s="5" t="s">
+        <v>852</v>
+      </c>
+      <c r="E217" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F217" s="6" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A218" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D218" s="5" t="s">
+        <v>853</v>
+      </c>
+      <c r="E218" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F218" s="6" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A219" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B219" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="C219" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D219" s="5" t="s">
+        <v>854</v>
+      </c>
+      <c r="E219" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F219" s="6" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A220" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>707</v>
+      </c>
+      <c r="C220" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D220" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="E220" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F220" s="6" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A221" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B221" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="C221" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D221" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="E221" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F221" s="6" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B222" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="C222" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D222" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="E222" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F222" s="6" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A223" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B223" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C223" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D223" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="E223" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F223" s="6" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A224" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B224" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C224" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D224" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E224" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F224" s="6" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A225" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>712</v>
+      </c>
+      <c r="C225" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D225" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="E225" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F225" s="6" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A226" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B226" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C226" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D226" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="E226" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F226" s="6" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A227" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="C227" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D227" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="E227" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F227" s="6" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A228" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>715</v>
+      </c>
+      <c r="C228" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D228" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="E228" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F228" s="6" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A229" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C229" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D229" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="E229" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F229" s="6" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A230" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="C230" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D230" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="E230" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F230" s="6" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A231" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B231" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="C231" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D231" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="E231" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F231" s="6" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A232" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B232" s="7" t="s">
+        <v>719</v>
+      </c>
+      <c r="C232" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D232" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="E232" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F232" s="6" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A233" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B233" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C233" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D233" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="E233" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F233" s="6" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A234" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>721</v>
+      </c>
+      <c r="C234" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D234" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="E234" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F234" s="6" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A235" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>722</v>
+      </c>
+      <c r="C235" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D235" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="E235" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F235" s="6" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A236" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B236" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C236" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D236" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="E236" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F236" s="6" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A237" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B237" s="7" t="s">
+        <v>724</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D237" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="E237" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F237" s="6" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A238" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>725</v>
+      </c>
+      <c r="C238" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D238" s="5" t="s">
+        <v>873</v>
+      </c>
+      <c r="E238" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F238" s="6" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A239" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>726</v>
+      </c>
+      <c r="C239" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D239" s="5" t="s">
+        <v>874</v>
+      </c>
+      <c r="E239" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F239" s="6" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A240" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>727</v>
+      </c>
+      <c r="C240" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D240" s="5" t="s">
+        <v>875</v>
+      </c>
+      <c r="E240" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F240" s="6" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C241" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D241" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E241" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F241" s="6" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A242" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B242" s="7" t="s">
+        <v>729</v>
+      </c>
+      <c r="C242" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="E242" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F242" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A243" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B243" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="C243" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D243" s="5" t="s">
+        <v>878</v>
+      </c>
+      <c r="E243" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F243" s="6" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A244" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B244" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C244" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D244" s="5" t="s">
+        <v>879</v>
+      </c>
+      <c r="E244" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F244" s="6" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A245" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B245" s="7" t="s">
+        <v>732</v>
+      </c>
+      <c r="C245" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D245" s="5" t="s">
+        <v>880</v>
+      </c>
+      <c r="E245" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F245" s="6" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A246" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B246" s="7" t="s">
+        <v>733</v>
+      </c>
+      <c r="C246" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D246" s="5" t="s">
+        <v>881</v>
+      </c>
+      <c r="E246" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F246" s="6" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A247" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B247" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C247" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D247" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="E247" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F247" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A248" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B248" s="7" t="s">
+        <v>735</v>
+      </c>
+      <c r="C248" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D248" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="E248" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F248" s="6" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A249" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B249" s="7" t="s">
+        <v>736</v>
+      </c>
+      <c r="C249" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D249" s="5" t="s">
+        <v>884</v>
+      </c>
+      <c r="E249" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F249" s="6" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A250" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C250" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D250" s="5" t="s">
+        <v>885</v>
+      </c>
+      <c r="E250" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F250" s="6" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A251" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B251" s="7" t="s">
+        <v>738</v>
+      </c>
+      <c r="C251" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D251" s="5" t="s">
+        <v>886</v>
+      </c>
+      <c r="E251" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F251" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A252" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>739</v>
+      </c>
+      <c r="C252" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>887</v>
+      </c>
+      <c r="E252" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F252" s="6" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>740</v>
+      </c>
+      <c r="C253" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D253" s="5" t="s">
+        <v>888</v>
+      </c>
+      <c r="E253" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F253" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A254" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B254" s="7" t="s">
+        <v>741</v>
+      </c>
+      <c r="C254" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D254" s="5" t="s">
+        <v>889</v>
+      </c>
+      <c r="E254" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F254" s="6" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B255" s="7" t="s">
+        <v>742</v>
+      </c>
+      <c r="C255" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D255" s="5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E255" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F255" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B256" s="7" t="s">
+        <v>743</v>
+      </c>
+      <c r="C256" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D256" s="5" t="s">
+        <v>891</v>
+      </c>
+      <c r="E256" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F256" s="6" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A257" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>744</v>
+      </c>
+      <c r="C257" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D257" s="5" t="s">
+        <v>892</v>
+      </c>
+      <c r="E257" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F257" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B258" s="7" t="s">
+        <v>745</v>
+      </c>
+      <c r="C258" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D258" s="5" t="s">
+        <v>893</v>
+      </c>
+      <c r="E258" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F258" s="6" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>746</v>
+      </c>
+      <c r="C259" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D259" s="5" t="s">
+        <v>894</v>
+      </c>
+      <c r="E259" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F259" s="6" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>747</v>
+      </c>
+      <c r="C260" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D260" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="E260" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F260" s="6" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B261" s="7" t="s">
+        <v>748</v>
+      </c>
+      <c r="C261" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D261" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="E261" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F261" s="6" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A262" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>749</v>
+      </c>
+      <c r="C262" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D262" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E262" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F262" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A263" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B263" s="7" t="s">
+        <v>750</v>
+      </c>
+      <c r="C263" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D263" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="E263" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F263" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A264" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="C264" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D264" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="E264" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F264" s="6" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B265" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C265" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D265" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E265" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F265" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A266" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B266" s="7" t="s">
+        <v>753</v>
+      </c>
+      <c r="C266" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D266" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="E266" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F266" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A267" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C267" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D267" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E267" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F267" s="6" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A268" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B268" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="C268" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D268" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="E268" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F268" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A269" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B269" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="C269" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D269" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="E269" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F269" s="6" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A270" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>757</v>
+      </c>
+      <c r="C270" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D270" s="5" t="s">
+        <v>903</v>
+      </c>
+      <c r="E270" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F270" s="6" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A271" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B271" s="7" t="s">
+        <v>758</v>
+      </c>
+      <c r="C271" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D271" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="E271" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F271" s="6" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A272" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B272" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="C272" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D272" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="E272" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F272" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A273" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>760</v>
+      </c>
+      <c r="C273" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D273" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="E273" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F273" s="6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B274" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="C274" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D274" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="E274" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F274" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A275" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B275" s="7" t="s">
+        <v>762</v>
+      </c>
+      <c r="C275" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D275" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="E275" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F275" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A276" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B276" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="C276" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D276" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="E276" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F276" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A277" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B277" s="7" t="s">
+        <v>764</v>
+      </c>
+      <c r="C277" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D277" s="5" t="s">
+        <v>937</v>
+      </c>
+      <c r="E277" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F277" s="6" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A278" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B278" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="C278" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D278" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="E278" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F278" s="6" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A279" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B279" s="7" t="s">
+        <v>766</v>
+      </c>
+      <c r="C279" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D279" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="E279" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F279" s="6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A280" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B280" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="C280" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D280" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="E280" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F280" s="6" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A281" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B281" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="C281" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D281" s="5" t="s">
+        <v>910</v>
+      </c>
+      <c r="E281" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F281" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B282" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="C282" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D282" s="5" t="s">
+        <v>911</v>
+      </c>
+      <c r="E282" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F282" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B283" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="C283" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D283" s="5" t="s">
+        <v>912</v>
+      </c>
+      <c r="E283" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F283" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A284" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B284" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="C284" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D284" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="E284" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F284" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>772</v>
+      </c>
+      <c r="C285" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D285" s="5" t="s">
+        <v>914</v>
+      </c>
+      <c r="E285" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F285" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="C286" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D286" s="5" t="s">
+        <v>915</v>
+      </c>
+      <c r="E286" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F286" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A287" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B287" s="7" t="s">
+        <v>774</v>
+      </c>
+      <c r="C287" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D287" s="5" t="s">
+        <v>916</v>
+      </c>
+      <c r="E287" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F287" s="6" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A288" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B288" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="C288" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D288" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="E288" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F288" s="6" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A289" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>776</v>
+      </c>
+      <c r="C289" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D289" s="5" t="s">
+        <v>951</v>
+      </c>
+      <c r="E289" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F289" s="6" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A290" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B290" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="C290" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D290" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="E290" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F290" s="6" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B291" s="7" t="s">
+        <v>778</v>
+      </c>
+      <c r="C291" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D291" s="5" t="s">
+        <v>919</v>
+      </c>
+      <c r="E291" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F291" s="6" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A292" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="C292" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D292" s="5" t="s">
+        <v>920</v>
+      </c>
+      <c r="E292" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F292" s="6" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A293" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>780</v>
+      </c>
+      <c r="C293" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D293" s="5" t="s">
+        <v>921</v>
+      </c>
+      <c r="E293" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F293" s="6" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A294" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B294" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="C294" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D294" s="5" t="s">
+        <v>922</v>
+      </c>
+      <c r="E294" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F294" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A295" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>782</v>
+      </c>
+      <c r="C295" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D295" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="E295" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F295" s="6" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A296" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="C296" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D296" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E296" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F296" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A297" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>784</v>
+      </c>
+      <c r="C297" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D297" s="5" t="s">
+        <v>924</v>
+      </c>
+      <c r="E297" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F297" s="6" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A298" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B298" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="C298" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D298" s="5" t="s">
+        <v>925</v>
+      </c>
+      <c r="E298" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F298" s="6" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A299" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B299" s="7" t="s">
+        <v>786</v>
+      </c>
+      <c r="C299" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D299" s="5" t="s">
+        <v>926</v>
+      </c>
+      <c r="E299" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F299" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A300" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="C300" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D300" s="5" t="s">
+        <v>950</v>
+      </c>
+      <c r="E300" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F300" s="6" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A301" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="C301" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D301" s="5" t="s">
+        <v>927</v>
+      </c>
+      <c r="E301" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F301" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A302" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="C302" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D302" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="E302" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F302" s="6" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A303" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>790</v>
+      </c>
+      <c r="C303" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D303" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="E303" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F303" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A304" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B304" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="C304" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D304" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="E304" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F304" s="6" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A305" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B305" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="C305" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D305" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="E305" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F305" s="6" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A306" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B306" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="C306" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D306" s="5" t="s">
+        <v>930</v>
+      </c>
+      <c r="E306" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F306" s="6" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A307" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B307" s="7" t="s">
+        <v>794</v>
+      </c>
+      <c r="C307" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D307" s="5" t="s">
+        <v>931</v>
+      </c>
+      <c r="E307" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F307" s="6" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="C308" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D308" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="E308" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F308" s="6" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A309" s="11" t="s">
+        <v>402</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="C309" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="D309" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="E309" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F309" s="8" t="s">
+        <v>504</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E9763EA-BC94-4589-BBA1-7F13D3107EFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4074C31F-E47A-479B-9367-455CAF530005}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1846" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1840" uniqueCount="951">
   <si>
     <t>RunTest</t>
   </si>
@@ -1409,9 +1409,6 @@
     <t>Aim of the Script is to open Company List dropdown using shortcut ket (Alt+L) in Live Feeds</t>
   </si>
   <si>
-    <t>Aim of the Script is to open Company List dropdown using shortcut ket (Alt+L) in Full Search</t>
-  </si>
-  <si>
     <t>Aim of the Script is to open News Feeds dropdown using shortcut ket (Alt+F) in Live Feeds</t>
   </si>
   <si>
@@ -1499,9 +1496,6 @@
     <t>LIVEFEEDS,SHORTCUT,COMPANYLIST</t>
   </si>
   <si>
-    <t>FULLSEARCH,SHORTCUT,COMPANYLIST</t>
-  </si>
-  <si>
     <t>FULLSEARCH,SHORTCUT,PUBLISHHISTORY</t>
   </si>
   <si>
@@ -2459,9 +2453,6 @@
     <t>Benelux,@Luxembourg_Web,C.N,NO</t>
   </si>
   <si>
-    <t>Benelux,@Netherlanda_Web,C.N,NO</t>
-  </si>
-  <si>
     <t>Benelux,HUGBE,C.N,NO</t>
   </si>
   <si>
@@ -2894,10 +2885,10 @@
     <t>UnitedKingdom,@ukecon,C.N,NO</t>
   </si>
   <si>
-    <t>FW_UI_0302</t>
-  </si>
-  <si>
     <t>Austria,@vienna_nr,C.N,NO</t>
+  </si>
+  <si>
+    <t>Benelux,@Netherlands_Web,C.N,NO</t>
   </si>
 </sst>
 </file>
@@ -2927,7 +2918,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2937,12 +2928,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3048,7 +3033,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -3086,19 +3071,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3331,7 +3304,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F309" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F308" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -3666,10 +3639,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F309"/>
+  <dimension ref="A1:F308"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D182" sqref="D182"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A225" sqref="A225:A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3713,7 +3686,7 @@
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="5" t="s">
         <v>10</v>
       </c>
@@ -6472,13 +6445,13 @@
         <v>30</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E141" s="7" t="s">
         <v>107</v>
@@ -6492,13 +6465,13 @@
         <v>30</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E142" s="7" t="s">
         <v>107</v>
@@ -6512,13 +6485,13 @@
         <v>30</v>
       </c>
       <c r="B143" s="7" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E143" s="7" t="s">
         <v>107</v>
@@ -6532,13 +6505,13 @@
         <v>30</v>
       </c>
       <c r="B144" s="7" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E144" s="7" t="s">
         <v>107</v>
@@ -6552,13 +6525,13 @@
         <v>30</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E145" s="7" t="s">
         <v>107</v>
@@ -6572,13 +6545,13 @@
         <v>30</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E146" s="7" t="s">
         <v>107</v>
@@ -6592,13 +6565,13 @@
         <v>30</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E147" s="7" t="s">
         <v>107</v>
@@ -6612,13 +6585,13 @@
         <v>30</v>
       </c>
       <c r="B148" s="7" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E148" s="7" t="s">
         <v>107</v>
@@ -6632,13 +6605,13 @@
         <v>30</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E149" s="7" t="s">
         <v>107</v>
@@ -6652,13 +6625,13 @@
         <v>30</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E150" s="7" t="s">
         <v>107</v>
@@ -6672,13 +6645,13 @@
         <v>30</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E151" s="7" t="s">
         <v>107</v>
@@ -6692,13 +6665,13 @@
         <v>30</v>
       </c>
       <c r="B152" s="7" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E152" s="7" t="s">
         <v>107</v>
@@ -6712,13 +6685,13 @@
         <v>30</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E153" s="7" t="s">
         <v>107</v>
@@ -6728,22 +6701,22 @@
       </c>
     </row>
     <row r="154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B154" s="14" t="s">
-        <v>474</v>
-      </c>
-      <c r="C154" s="15" t="s">
-        <v>460</v>
-      </c>
-      <c r="D154" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="E154" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="F154" s="13" t="s">
+      <c r="A154" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D154" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E154" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F154" s="6" t="s">
         <v>457</v>
       </c>
     </row>
@@ -6752,250 +6725,250 @@
         <v>30</v>
       </c>
       <c r="B155" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D155" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E155" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A156" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B156" s="7" t="s">
         <v>475</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D155" s="5" t="s">
+      <c r="C156" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="E155" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F155" s="6" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B156" s="7" t="s">
-        <v>476</v>
-      </c>
-      <c r="C156" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="E156" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F156" s="7" t="s">
         <v>492</v>
       </c>
-      <c r="E156" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F156" s="8" t="s">
-        <v>459</v>
-      </c>
     </row>
     <row r="157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="12" t="s">
+      <c r="A157" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B157" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="C157" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D157" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="E157" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F157" s="8" t="s">
         <v>495</v>
-      </c>
-      <c r="C157" s="16" t="s">
-        <v>493</v>
-      </c>
-      <c r="D157" s="16" t="s">
-        <v>496</v>
-      </c>
-      <c r="E157" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F157" s="7" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B158" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="C158" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="D158" s="7" t="s">
+        <v>501</v>
+      </c>
+      <c r="E158" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F158" s="8" t="s">
         <v>498</v>
-      </c>
-      <c r="C158" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D158" s="7" t="s">
-        <v>502</v>
-      </c>
-      <c r="E158" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F158" s="8" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C159" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D159" s="7" t="s">
-        <v>503</v>
+        <v>497</v>
+      </c>
+      <c r="D159" s="5" t="s">
+        <v>794</v>
       </c>
       <c r="E159" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F159" s="8" t="s">
-        <v>500</v>
+      <c r="F159" s="6" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C160" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>796</v>
+        <v>949</v>
       </c>
       <c r="E160" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F160" s="6" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C161" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>953</v>
+        <v>795</v>
       </c>
       <c r="E161" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F161" s="6" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="C162" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E162" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F162" s="6" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="163" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B163" s="7" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C163" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E163" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F163" s="6" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C164" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E164" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F164" s="6" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B165" s="7" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C165" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="E165" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F165" s="6" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C166" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="E166" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F166" s="6" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="167" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B167" s="7" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C167" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D167" s="5" t="s">
         <v>802</v>
@@ -7004,1307 +6977,1307 @@
         <v>107</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="168" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B168" s="7" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="C168" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E168" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="169" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B169" s="7" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C169" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D169" s="5" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="E169" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="170" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B170" s="7" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C170" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>806</v>
+        <v>950</v>
       </c>
       <c r="E170" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F170" s="6" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="171" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C171" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D171" s="5" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="E171" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F171" s="6" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C172" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="E172" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F172" s="6" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="173" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B173" s="7" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C173" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="E173" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F173" s="6" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B174" s="7" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C174" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D174" s="5" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E174" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F174" s="6" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B175" s="7" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="C175" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D175" s="5" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="E175" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F175" s="6" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="176" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B176" s="7" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C176" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D176" s="5" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="E176" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F176" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B177" s="7" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="C177" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E177" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F177" s="6" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C178" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>814</v>
+        <v>801</v>
       </c>
       <c r="E178" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F178" s="6" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B179" s="7" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C179" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D179" s="5" t="s">
-        <v>803</v>
+        <v>815</v>
       </c>
       <c r="E179" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F179" s="6" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B180" s="7" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C180" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D180" s="5" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E180" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F180" s="6" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B181" s="7" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="C181" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D181" s="5" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
       <c r="E181" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F181" s="6" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B182" s="7" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C182" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D182" s="5" t="s">
-        <v>815</v>
+        <v>821</v>
       </c>
       <c r="E182" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F182" s="6" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B183" s="7" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C183" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D183" s="5" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="E183" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B184" s="7" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C184" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D184" s="5" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="E184" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B185" s="7" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="C185" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D185" s="5" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="E185" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B186" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C186" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D186" s="5" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="E186" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F186" s="6" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B187" s="7" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="C187" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D187" s="5" t="s">
-        <v>828</v>
+        <v>816</v>
       </c>
       <c r="E187" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F187" s="6" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B188" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C188" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D188" s="5" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
       <c r="E188" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F188" s="6" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B189" s="7" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C189" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D189" s="5" t="s">
-        <v>829</v>
+        <v>818</v>
       </c>
       <c r="E189" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F189" s="6" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="190" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B190" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C190" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D190" s="5" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="E190" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F190" s="6" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B191" s="7" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C191" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D191" s="5" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="E191" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F191" s="6" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C192" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D192" s="5" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="E192" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F192" s="6" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="C193" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D193" s="5" t="s">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="E193" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F193" s="6" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="194" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C194" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D194" s="5" t="s">
-        <v>823</v>
+        <v>827</v>
       </c>
       <c r="E194" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F194" s="6" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B195" s="7" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C195" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D195" s="5" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="E195" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F195" s="6" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="196" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B196" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C196" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D196" s="5" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="E196" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F196" s="6" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="197" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B197" s="7" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C197" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D197" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E197" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F197" s="6" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B198" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C198" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D198" s="5" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="E198" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F198" s="6" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="199" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B199" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="C199" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D199" s="5" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E199" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F199" s="6" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="200" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B200" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C200" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D200" s="5" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="E200" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F200" s="6" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="201" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B201" s="7" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C201" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D201" s="5" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E201" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F201" s="6" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B202" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C202" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D202" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="E202" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F202" s="6" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="203" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B203" s="7" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C203" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D203" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E203" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F203" s="6" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B204" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C204" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D204" s="5" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="E204" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F204" s="6" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B205" s="7" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="C205" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D205" s="5" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="E205" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F205" s="6" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="206" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B206" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C206" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D206" s="5" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E206" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F206" s="6" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="207" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="C207" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D207" s="5" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E207" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F207" s="6" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="208" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C208" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D208" s="5" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="E208" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F208" s="6" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="209" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="C209" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D209" s="5" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E209" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F209" s="6" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="210" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B210" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C210" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D210" s="5" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="E210" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F210" s="6" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="211" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B211" s="7" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C211" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D211" s="5" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="E211" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F211" s="6" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="212" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C212" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D212" s="5" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="E212" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F212" s="6" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="213" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C213" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D213" s="5" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E213" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F213" s="6" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="214" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C214" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D214" s="5" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="E214" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F214" s="6" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B215" s="7" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="C215" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D215" s="5" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="E215" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F215" s="6" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="216" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B216" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C216" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D216" s="5" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="E216" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F216" s="6" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="217" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C217" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D217" s="5" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E217" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F217" s="6" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="218" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C218" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D218" s="5" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E218" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F218" s="6" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B219" s="7" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="C219" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D219" s="5" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E219" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F219" s="6" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C220" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D220" s="5" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E220" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F220" s="6" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="221" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B221" s="7" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="C221" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D221" s="5" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="E221" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F221" s="6" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="222" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B222" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C222" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D222" s="5" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="E222" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F222" s="6" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="223" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B223" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C223" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D223" s="5" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E223" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F223" s="6" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="224" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B224" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C224" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D224" s="5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="E224" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F224" s="6" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="C225" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D225" s="5" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E225" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F225" s="6" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B226" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C226" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D226" s="5" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E226" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F226" s="6" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C227" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D227" s="5" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="E227" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F227" s="6" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="228" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C228" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D228" s="5" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E228" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F228" s="6" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="229" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C229" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D229" s="5" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="E229" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F229" s="6" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="230" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="C230" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D230" s="5" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E230" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F230" s="6" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B231" s="7" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C231" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D231" s="5" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E231" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F231" s="6" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="232" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="11" t="s">
-        <v>402</v>
+        <v>30</v>
       </c>
       <c r="B232" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C232" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D232" s="5" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="E232" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F232" s="6" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="233" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8312,19 +8285,19 @@
         <v>402</v>
       </c>
       <c r="B233" s="7" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C233" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D233" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E233" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F233" s="6" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="234" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8332,19 +8305,19 @@
         <v>402</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="C234" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D234" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E234" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F234" s="6" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="235" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8352,19 +8325,19 @@
         <v>402</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C235" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D235" s="5" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E235" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F235" s="6" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="236" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8372,19 +8345,19 @@
         <v>402</v>
       </c>
       <c r="B236" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C236" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D236" s="5" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E236" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F236" s="6" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="237" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8392,19 +8365,19 @@
         <v>402</v>
       </c>
       <c r="B237" s="7" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C237" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D237" s="5" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E237" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F237" s="6" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8412,19 +8385,19 @@
         <v>402</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="C238" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D238" s="5" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E238" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F238" s="6" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="239" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8432,19 +8405,19 @@
         <v>402</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C239" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D239" s="5" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E239" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F239" s="6" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="240" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8452,19 +8425,19 @@
         <v>402</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C240" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D240" s="5" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E240" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F240" s="6" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="241" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8472,19 +8445,19 @@
         <v>402</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C241" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D241" s="5" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E241" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F241" s="6" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8492,19 +8465,19 @@
         <v>402</v>
       </c>
       <c r="B242" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="C242" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D242" s="5" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E242" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F242" s="6" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8512,19 +8485,19 @@
         <v>402</v>
       </c>
       <c r="B243" s="7" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C243" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D243" s="5" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E243" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F243" s="6" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="244" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8532,19 +8505,19 @@
         <v>402</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C244" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D244" s="5" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E244" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F244" s="6" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="245" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8552,19 +8525,19 @@
         <v>402</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D245" s="5" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="E245" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F245" s="6" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="246" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8572,19 +8545,19 @@
         <v>402</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D246" s="5" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="E246" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F246" s="6" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="247" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8592,19 +8565,19 @@
         <v>402</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D247" s="5" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="E247" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F247" s="6" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8612,19 +8585,19 @@
         <v>402</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D248" s="5" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="E248" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F248" s="6" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="249" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8632,19 +8605,19 @@
         <v>402</v>
       </c>
       <c r="B249" s="7" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C249" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D249" s="5" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="E249" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F249" s="6" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="250" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8652,19 +8625,19 @@
         <v>402</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="C250" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D250" s="5" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="E250" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F250" s="6" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="251" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8672,19 +8645,19 @@
         <v>402</v>
       </c>
       <c r="B251" s="7" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C251" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D251" s="5" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="E251" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F251" s="6" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="252" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8692,19 +8665,19 @@
         <v>402</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="C252" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D252" s="5" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="E252" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F252" s="6" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="253" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8712,19 +8685,19 @@
         <v>402</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C253" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D253" s="5" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="E253" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F253" s="6" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="254" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8732,19 +8705,19 @@
         <v>402</v>
       </c>
       <c r="B254" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="C254" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D254" s="5" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="E254" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F254" s="6" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="255" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8752,19 +8725,19 @@
         <v>402</v>
       </c>
       <c r="B255" s="7" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C255" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D255" s="5" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="E255" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F255" s="6" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="256" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8772,19 +8745,19 @@
         <v>402</v>
       </c>
       <c r="B256" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C256" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D256" s="5" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="E256" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F256" s="6" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="257" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8792,19 +8765,19 @@
         <v>402</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C257" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D257" s="5" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="E257" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F257" s="6" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="258" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8812,19 +8785,19 @@
         <v>402</v>
       </c>
       <c r="B258" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="C258" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D258" s="5" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="E258" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F258" s="6" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="259" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8832,19 +8805,19 @@
         <v>402</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C259" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D259" s="5" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="E259" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F259" s="6" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="260" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8852,19 +8825,19 @@
         <v>402</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="C260" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D260" s="5" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="E260" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F260" s="6" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="261" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8872,19 +8845,19 @@
         <v>402</v>
       </c>
       <c r="B261" s="7" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C261" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D261" s="5" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="E261" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F261" s="6" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8892,19 +8865,19 @@
         <v>402</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="C262" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D262" s="5" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="E262" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F262" s="6" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="263" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8912,19 +8885,19 @@
         <v>402</v>
       </c>
       <c r="B263" s="7" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C263" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D263" s="5" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E263" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F263" s="6" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8932,19 +8905,19 @@
         <v>402</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C264" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D264" s="5" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E264" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F264" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="265" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8952,19 +8925,19 @@
         <v>402</v>
       </c>
       <c r="B265" s="7" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C265" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D265" s="5" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E265" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F265" s="6" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="266" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8972,19 +8945,19 @@
         <v>402</v>
       </c>
       <c r="B266" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C266" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D266" s="5" t="s">
-        <v>901</v>
+        <v>931</v>
       </c>
       <c r="E266" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F266" s="6" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -8992,19 +8965,19 @@
         <v>402</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C267" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D267" s="5" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="E267" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F267" s="6" t="s">
-        <v>539</v>
+        <v>933</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9012,19 +8985,19 @@
         <v>402</v>
       </c>
       <c r="B268" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="C268" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D268" s="5" t="s">
-        <v>935</v>
+        <v>899</v>
       </c>
       <c r="E268" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F268" s="6" t="s">
-        <v>936</v>
+        <v>536</v>
       </c>
     </row>
     <row r="269" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9032,19 +9005,19 @@
         <v>402</v>
       </c>
       <c r="B269" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C269" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D269" s="5" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="E269" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F269" s="6" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="270" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9052,19 +9025,19 @@
         <v>402</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="C270" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D270" s="5" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="E270" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F270" s="6" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="271" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9072,19 +9045,19 @@
         <v>402</v>
       </c>
       <c r="B271" s="7" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C271" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D271" s="5" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="E271" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F271" s="6" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9092,19 +9065,19 @@
         <v>402</v>
       </c>
       <c r="B272" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="C272" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D272" s="5" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="E272" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F272" s="6" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="273" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9112,19 +9085,19 @@
         <v>402</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C273" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D273" s="5" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="E273" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F273" s="6" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="274" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9132,19 +9105,19 @@
         <v>402</v>
       </c>
       <c r="B274" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="C274" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D274" s="5" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="E274" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F274" s="6" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="275" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9152,19 +9125,19 @@
         <v>402</v>
       </c>
       <c r="B275" s="7" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C275" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D275" s="5" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E275" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F275" s="6" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="276" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9172,19 +9145,19 @@
         <v>402</v>
       </c>
       <c r="B276" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="C276" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D276" s="5" t="s">
-        <v>909</v>
+        <v>934</v>
       </c>
       <c r="E276" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F276" s="6" t="s">
-        <v>531</v>
+        <v>938</v>
       </c>
     </row>
     <row r="277" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9192,13 +9165,13 @@
         <v>402</v>
       </c>
       <c r="B277" s="7" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C277" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D277" s="5" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="E277" s="7" t="s">
         <v>107</v>
@@ -9212,19 +9185,19 @@
         <v>402</v>
       </c>
       <c r="B278" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C278" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D278" s="5" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="E278" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F278" s="6" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9232,19 +9205,19 @@
         <v>402</v>
       </c>
       <c r="B279" s="7" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C279" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D279" s="5" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E279" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F279" s="6" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
     </row>
     <row r="280" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9252,19 +9225,19 @@
         <v>402</v>
       </c>
       <c r="B280" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C280" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D280" s="5" t="s">
-        <v>940</v>
+        <v>907</v>
       </c>
       <c r="E280" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F280" s="6" t="s">
-        <v>943</v>
+        <v>528</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9272,19 +9245,19 @@
         <v>402</v>
       </c>
       <c r="B281" s="7" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C281" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D281" s="5" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="E281" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F281" s="6" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9292,19 +9265,19 @@
         <v>402</v>
       </c>
       <c r="B282" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C282" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D282" s="5" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E282" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F282" s="6" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9312,19 +9285,19 @@
         <v>402</v>
       </c>
       <c r="B283" s="7" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C283" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D283" s="5" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E283" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F283" s="6" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="284" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9332,19 +9305,19 @@
         <v>402</v>
       </c>
       <c r="B284" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="C284" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D284" s="5" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E284" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F284" s="6" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9352,19 +9325,19 @@
         <v>402</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C285" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D285" s="5" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E285" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F285" s="6" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="286" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9372,19 +9345,19 @@
         <v>402</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="C286" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D286" s="5" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E286" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F286" s="6" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="287" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9392,19 +9365,19 @@
         <v>402</v>
       </c>
       <c r="B287" s="7" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C287" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D287" s="5" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="E287" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F287" s="6" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="288" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9412,19 +9385,19 @@
         <v>402</v>
       </c>
       <c r="B288" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="C288" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D288" s="5" t="s">
-        <v>917</v>
+        <v>948</v>
       </c>
       <c r="E288" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F288" s="6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="289" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9432,19 +9405,19 @@
         <v>402</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C289" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D289" s="5" t="s">
-        <v>951</v>
+        <v>915</v>
       </c>
       <c r="E289" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F289" s="6" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="290" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9452,19 +9425,19 @@
         <v>402</v>
       </c>
       <c r="B290" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="C290" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D290" s="5" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="E290" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F290" s="6" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="291" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9472,19 +9445,19 @@
         <v>402</v>
       </c>
       <c r="B291" s="7" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C291" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D291" s="5" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E291" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F291" s="6" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="292" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9492,19 +9465,19 @@
         <v>402</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C292" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D292" s="5" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="E292" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F292" s="6" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="293" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9512,19 +9485,19 @@
         <v>402</v>
       </c>
       <c r="B293" s="7" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C293" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D293" s="5" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E293" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F293" s="6" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="294" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9532,19 +9505,19 @@
         <v>402</v>
       </c>
       <c r="B294" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="C294" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D294" s="5" t="s">
-        <v>922</v>
+        <v>946</v>
       </c>
       <c r="E294" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F294" s="6" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="295" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9552,19 +9525,19 @@
         <v>402</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C295" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D295" s="5" t="s">
-        <v>949</v>
+        <v>920</v>
       </c>
       <c r="E295" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F295" s="6" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="296" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9572,19 +9545,19 @@
         <v>402</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C296" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D296" s="5" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="E296" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F296" s="6" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="297" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9592,19 +9565,19 @@
         <v>402</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C297" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D297" s="5" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E297" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F297" s="6" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="298" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9612,19 +9585,19 @@
         <v>402</v>
       </c>
       <c r="B298" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C298" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D298" s="5" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="E298" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F298" s="6" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="299" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9632,19 +9605,19 @@
         <v>402</v>
       </c>
       <c r="B299" s="7" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C299" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D299" s="5" t="s">
-        <v>926</v>
+        <v>947</v>
       </c>
       <c r="E299" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F299" s="6" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="300" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9652,19 +9625,19 @@
         <v>402</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C300" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D300" s="5" t="s">
-        <v>950</v>
+        <v>924</v>
       </c>
       <c r="E300" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F300" s="6" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="301" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9672,19 +9645,19 @@
         <v>402</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C301" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D301" s="5" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="E301" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F301" s="6" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="302" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9692,19 +9665,19 @@
         <v>402</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C302" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D302" s="5" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="E302" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F302" s="6" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="303" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9712,19 +9685,19 @@
         <v>402</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C303" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D303" s="5" t="s">
-        <v>929</v>
+        <v>944</v>
       </c>
       <c r="E303" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F303" s="6" t="s">
-        <v>508</v>
+        <v>942</v>
       </c>
     </row>
     <row r="304" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9732,19 +9705,19 @@
         <v>402</v>
       </c>
       <c r="B304" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C304" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D304" s="5" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="E304" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F304" s="6" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
     </row>
     <row r="305" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9752,19 +9725,19 @@
         <v>402</v>
       </c>
       <c r="B305" s="7" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C305" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D305" s="5" t="s">
-        <v>948</v>
+        <v>927</v>
       </c>
       <c r="E305" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F305" s="6" t="s">
-        <v>946</v>
+        <v>505</v>
       </c>
     </row>
     <row r="306" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9772,19 +9745,19 @@
         <v>402</v>
       </c>
       <c r="B306" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C306" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D306" s="5" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="E306" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F306" s="6" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9792,19 +9765,19 @@
         <v>402</v>
       </c>
       <c r="B307" s="7" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C307" s="7" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D307" s="5" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="E307" s="7" t="s">
         <v>107</v>
       </c>
       <c r="F307" s="6" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="308" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -9812,39 +9785,19 @@
         <v>402</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C308" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D308" s="5" t="s">
-        <v>932</v>
+        <v>497</v>
+      </c>
+      <c r="D308" s="7" t="s">
+        <v>930</v>
       </c>
       <c r="E308" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F308" s="6" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="309" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A309" s="11" t="s">
-        <v>402</v>
-      </c>
-      <c r="B309" s="7" t="s">
-        <v>952</v>
-      </c>
-      <c r="C309" s="7" t="s">
-        <v>499</v>
-      </c>
-      <c r="D309" s="7" t="s">
-        <v>933</v>
-      </c>
-      <c r="E309" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F309" s="8" t="s">
-        <v>504</v>
+      <c r="F308" s="8" t="s">
+        <v>502</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45F4FBDB-47AA-4937-BF07-F7E11ED559C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9935E8BE-8216-4BAE-825E-CCD5C97123B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4279" uniqueCount="2167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4579" uniqueCount="2305">
   <si>
     <t>RunTest</t>
   </si>
@@ -6538,6 +6538,420 @@
   </si>
   <si>
     <t>Aim of the Script is to open Publish History window through More Actions buttons in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,MOREACTION,FASTFACTS</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,SHORTCUT,FASTFACTS</t>
+  </si>
+  <si>
+    <t>FW_UI_0714</t>
+  </si>
+  <si>
+    <t>FW_UI_0715</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Fast Facts window through More Actions buttons in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Fast Facts Window using shortcut key (Alt+J) in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,SHORTCUT,TEMPLATE</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,MOREACTION,TEMPLATE</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,MOREACTION,HEADLINE</t>
+  </si>
+  <si>
+    <t>FW_UI_0716</t>
+  </si>
+  <si>
+    <t>FW_UI_0717</t>
+  </si>
+  <si>
+    <t>FW_UI_0718</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Headline Activity window through More Actions buttons in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Templates window through More Actions buttons in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Templates window using shortcut ket (Alt+T) in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open Blank Alert Editor (BAE) window through More Actions buttons in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to open BAE Window using shortcut key (Shift+F2) in Live Feeds using Autolaunch</t>
+  </si>
+  <si>
+    <t>FW_UI_0719</t>
+  </si>
+  <si>
+    <t>FW_UI_0720</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,MOREACTION,BAE</t>
+  </si>
+  <si>
+    <t>AUTOLAUNCHON,LIVEFEEDS,SHORTCUTBAE,BAE</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Publish first alert from AE when FW tab auto launch ON (click on publish button)</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whetherPublish first alert from AE when FW tab auto launch ON (using shortcut key)</t>
+  </si>
+  <si>
+    <t>FW_UI_0721</t>
+  </si>
+  <si>
+    <t>FW_UI_0722</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Publish additional alert from AE when FW tab auto launch ON (using shortcut key)</t>
+  </si>
+  <si>
+    <t>FW_UI_0723</t>
+  </si>
+  <si>
+    <t>On,TWOPUBLISHSHORTCUT</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Publish first alert from FP AE when FW tab auto launch ON (click on publish button)</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether Publish additional alert from FP AE when FW tab auto launch ON (using shortcut key)</t>
+  </si>
+  <si>
+    <t>FW_UI_0724</t>
+  </si>
+  <si>
+    <t>FW_UI_0725</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify products can be added into AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>FW_UI_0726</t>
+  </si>
+  <si>
+    <t>ProductsAUTOLAUNCH</t>
+  </si>
+  <si>
+    <t>FW_UI_0727</t>
+  </si>
+  <si>
+    <t>TopicsAUTOLAUNCH,test123,Remove</t>
+  </si>
+  <si>
+    <t>TopicsAUTOLAUNCH,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>FW_UI_0728</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify topics can be removed from AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify RIC can be added into AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify RIC can be removed from AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>RICSAUTOLAUNCH,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>RICSAUTOLAUNCH,test123,Remove</t>
+  </si>
+  <si>
+    <t>FW_UI_0729</t>
+  </si>
+  <si>
+    <t>FW_UI_0730</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify named items can be added into AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify named items can be removed from AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>FW_UI_0731</t>
+  </si>
+  <si>
+    <t>FW_UI_0732</t>
+  </si>
+  <si>
+    <t>NamedItemsAUTOLAUNCH,test123,Alphanumeric</t>
+  </si>
+  <si>
+    <t>NamedItemsAUTOLAUNCH,test123,Remove</t>
+  </si>
+  <si>
+    <t>FW_UI_0733</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify whether USN filed is taking 9 charcters or not in alert editor when auto launch ON</t>
+  </si>
+  <si>
+    <t>YES,VERIFYUSN,Test PublishAUTOLAUNCH,123456789</t>
+  </si>
+  <si>
+    <t>FW_UI_0734</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Chinese as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Czech as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Danish as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Dutch as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select English(US) as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select English(UK) as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select French as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select German as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Greek as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Italian as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Korean as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Norwegian as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Polish as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Portuguese(Brazil)  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Portuguese  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Russian  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Spanish  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Swedish  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Swiss German  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Thai German  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Turkish  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Select Vietnamese  as default language when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>FW_UI_0735</t>
+  </si>
+  <si>
+    <t>FW_UI_0736</t>
+  </si>
+  <si>
+    <t>FW_UI_0737</t>
+  </si>
+  <si>
+    <t>FW_UI_0738</t>
+  </si>
+  <si>
+    <t>FW_UI_0739</t>
+  </si>
+  <si>
+    <t>FW_UI_0740</t>
+  </si>
+  <si>
+    <t>FW_UI_0741</t>
+  </si>
+  <si>
+    <t>FW_UI_0742</t>
+  </si>
+  <si>
+    <t>FW_UI_0743</t>
+  </si>
+  <si>
+    <t>FW_UI_0744</t>
+  </si>
+  <si>
+    <t>FW_UI_0745</t>
+  </si>
+  <si>
+    <t>FW_UI_0746</t>
+  </si>
+  <si>
+    <t>FW_UI_0747</t>
+  </si>
+  <si>
+    <t>FW_UI_0748</t>
+  </si>
+  <si>
+    <t>FW_UI_0749</t>
+  </si>
+  <si>
+    <t>FW_UI_0750</t>
+  </si>
+  <si>
+    <t>FW_UI_0751</t>
+  </si>
+  <si>
+    <t>FW_UI_0752</t>
+  </si>
+  <si>
+    <t>FW_UI_0753</t>
+  </si>
+  <si>
+    <t>FW_UI_0754</t>
+  </si>
+  <si>
+    <t>FW_UI_0755</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEChinese</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGECzech</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEDanish</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEDutch</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEEnglishUS</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEEnglishUK</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEFrench</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEGerman</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEGreek</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEItalian</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEKorean</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGENorwegian</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEPolish</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEPortugueseBrazil</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEPortuguese</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGERussian</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGESpanish</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGESwedish</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGESwissGerman</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEThai</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGETurkish</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEVietnamese</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEArabic</t>
+  </si>
+  <si>
+    <t>YES,VERIFYLANGUAGEBulgarian</t>
+  </si>
+  <si>
+    <t>FW_UI_0756</t>
+  </si>
+  <si>
+    <t>FW_UI_0757</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify products can be added into FP AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify products can be removed from FP AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>FW_UI_0758</t>
+  </si>
+  <si>
+    <t>FW_UI_0759</t>
+  </si>
+  <si>
+    <t>ProductsAUTOLAUNCHREMOVE</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to Verify topics can be added into FP AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>TopicsAUTOLAUNCH</t>
+  </si>
+  <si>
+    <t>FW_UI_0760</t>
+  </si>
+  <si>
+    <t>FW_UI_0761</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify RIC can be added into FP AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>Aim of the Script  is to verify Verify RIC can be removed from FP AE when FW tab auto launch ON</t>
+  </si>
+  <si>
+    <t>FW_UI_0762</t>
+  </si>
+  <si>
+    <t>FW_UI_0763</t>
   </si>
 </sst>
 </file>
@@ -6637,13 +7051,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6652,7 +7063,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6661,7 +7072,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -6670,8 +7081,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -6959,7 +7373,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F714" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F764" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -7294,10 +7708,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F714"/>
+  <dimension ref="A1:F764"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A711" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F713" sqref="F713"/>
+    <sheetView tabSelected="1" topLeftCell="A753" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E762" sqref="E762"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7307,7 +7721,7 @@
     <col min="3" max="3" width="26.85546875" style="3" customWidth="1"/>
     <col min="4" max="4" width="38.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="25.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="108.7109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="104.85546875" style="3" customWidth="1"/>
     <col min="7" max="7" width="109" style="2" customWidth="1"/>
     <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -7893,7 +8307,7 @@
       <c r="B30" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D30" s="4" t="s">
@@ -7913,7 +8327,7 @@
       <c r="B31" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D31" s="4" t="s">
@@ -7936,7 +8350,7 @@
       <c r="C32" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="6" t="s">
         <v>937</v>
       </c>
       <c r="E32" s="4" t="s">
@@ -7956,7 +8370,7 @@
       <c r="C33" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="6" t="s">
         <v>938</v>
       </c>
       <c r="E33" s="4" t="s">
@@ -7976,7 +8390,7 @@
       <c r="C34" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="6" t="s">
         <v>939</v>
       </c>
       <c r="E34" s="4" t="s">
@@ -8093,7 +8507,7 @@
       <c r="B40" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D40" s="4" t="s">
@@ -8113,7 +8527,7 @@
       <c r="B41" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C41" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D41" s="4" t="s">
@@ -8920,7 +9334,7 @@
       <c r="E81" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8940,7 +9354,7 @@
       <c r="E82" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="4" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8960,7 +9374,7 @@
       <c r="E83" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="4" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8980,7 +9394,7 @@
       <c r="E84" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="4" t="s">
         <v>266</v>
       </c>
     </row>
@@ -9000,7 +9414,7 @@
       <c r="E85" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="4" t="s">
         <v>267</v>
       </c>
     </row>
@@ -9020,7 +9434,7 @@
       <c r="E86" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="4" t="s">
         <v>268</v>
       </c>
     </row>
@@ -9040,7 +9454,7 @@
       <c r="E87" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>269</v>
       </c>
     </row>
@@ -9060,7 +9474,7 @@
       <c r="E88" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>270</v>
       </c>
     </row>
@@ -9080,7 +9494,7 @@
       <c r="E89" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="4" t="s">
         <v>271</v>
       </c>
     </row>
@@ -9100,7 +9514,7 @@
       <c r="E90" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>272</v>
       </c>
     </row>
@@ -9120,7 +9534,7 @@
       <c r="E91" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="4" t="s">
         <v>273</v>
       </c>
     </row>
@@ -9140,7 +9554,7 @@
       <c r="E92" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="4" t="s">
         <v>274</v>
       </c>
     </row>
@@ -9160,7 +9574,7 @@
       <c r="E93" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="4" t="s">
         <v>275</v>
       </c>
     </row>
@@ -9180,7 +9594,7 @@
       <c r="E94" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="4" t="s">
         <v>276</v>
       </c>
     </row>
@@ -9200,7 +9614,7 @@
       <c r="E95" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>277</v>
       </c>
     </row>
@@ -9220,7 +9634,7 @@
       <c r="E96" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="4" t="s">
         <v>278</v>
       </c>
     </row>
@@ -9240,7 +9654,7 @@
       <c r="E97" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="4" t="s">
         <v>279</v>
       </c>
     </row>
@@ -9260,7 +9674,7 @@
       <c r="E98" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="4" t="s">
         <v>280</v>
       </c>
     </row>
@@ -9340,7 +9754,7 @@
       <c r="E102" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="4" t="s">
         <v>310</v>
       </c>
     </row>
@@ -9360,7 +9774,7 @@
       <c r="E103" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F103" s="5" t="s">
+      <c r="F103" s="4" t="s">
         <v>311</v>
       </c>
     </row>
@@ -9380,7 +9794,7 @@
       <c r="E104" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F104" s="5" t="s">
+      <c r="F104" s="4" t="s">
         <v>312</v>
       </c>
     </row>
@@ -9400,7 +9814,7 @@
       <c r="E105" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F105" s="5" t="s">
+      <c r="F105" s="4" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9474,7 +9888,7 @@
       <c r="C109" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D109" s="10" t="s">
+      <c r="D109" s="9" t="s">
         <v>1517</v>
       </c>
       <c r="E109" s="4" t="s">
@@ -9494,7 +9908,7 @@
       <c r="C110" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D110" s="10" t="s">
+      <c r="D110" s="9" t="s">
         <v>1516</v>
       </c>
       <c r="E110" s="4" t="s">
@@ -10291,10 +10705,10 @@
       <c r="B150" s="4" t="s">
         <v>434</v>
       </c>
-      <c r="C150" s="7" t="s">
+      <c r="C150" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="D150" s="7" t="s">
+      <c r="D150" s="6" t="s">
         <v>438</v>
       </c>
       <c r="E150" s="4" t="s">
@@ -13960,7 +14374,7 @@
       <c r="E333" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F333" s="5" t="s">
+      <c r="F333" s="4" t="s">
         <v>975</v>
       </c>
     </row>
@@ -13980,7 +14394,7 @@
       <c r="E334" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F334" s="5" t="s">
+      <c r="F334" s="4" t="s">
         <v>965</v>
       </c>
     </row>
@@ -14000,7 +14414,7 @@
       <c r="E335" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F335" s="5" t="s">
+      <c r="F335" s="4" t="s">
         <v>966</v>
       </c>
     </row>
@@ -14020,7 +14434,7 @@
       <c r="E336" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F336" s="5" t="s">
+      <c r="F336" s="4" t="s">
         <v>967</v>
       </c>
     </row>
@@ -14454,7 +14868,7 @@
       <c r="C358" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D358" s="7" t="s">
+      <c r="D358" s="6" t="s">
         <v>1043</v>
       </c>
       <c r="E358" s="4" t="s">
@@ -14520,7 +14934,7 @@
       <c r="E361" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F361" s="5" t="s">
+      <c r="F361" s="4" t="s">
         <v>1097</v>
       </c>
     </row>
@@ -14540,7 +14954,7 @@
       <c r="E362" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F362" s="5" t="s">
+      <c r="F362" s="4" t="s">
         <v>1098</v>
       </c>
     </row>
@@ -14560,7 +14974,7 @@
       <c r="E363" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F363" s="5" t="s">
+      <c r="F363" s="4" t="s">
         <v>1101</v>
       </c>
     </row>
@@ -14574,13 +14988,13 @@
       <c r="C364" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D364" s="5" t="s">
+      <c r="D364" s="4" t="s">
         <v>1099</v>
       </c>
       <c r="E364" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F364" s="5" t="s">
+      <c r="F364" s="4" t="s">
         <v>1103</v>
       </c>
     </row>
@@ -14594,13 +15008,13 @@
       <c r="C365" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D365" s="5" t="s">
+      <c r="D365" s="4" t="s">
         <v>1105</v>
       </c>
       <c r="E365" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F365" s="5" t="s">
+      <c r="F365" s="4" t="s">
         <v>1104</v>
       </c>
     </row>
@@ -14614,13 +15028,13 @@
       <c r="C366" s="4" t="s">
         <v>995</v>
       </c>
-      <c r="D366" s="5" t="s">
+      <c r="D366" s="4" t="s">
         <v>1102</v>
       </c>
       <c r="E366" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F366" s="5" t="s">
+      <c r="F366" s="4" t="s">
         <v>1106</v>
       </c>
     </row>
@@ -14640,7 +15054,7 @@
       <c r="E367" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F367" s="5" t="s">
+      <c r="F367" s="4" t="s">
         <v>1107</v>
       </c>
     </row>
@@ -14660,7 +15074,7 @@
       <c r="E368" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F368" s="5" t="s">
+      <c r="F368" s="4" t="s">
         <v>1109</v>
       </c>
     </row>
@@ -14680,7 +15094,7 @@
       <c r="E369" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F369" s="5" t="s">
+      <c r="F369" s="4" t="s">
         <v>1112</v>
       </c>
     </row>
@@ -14700,7 +15114,7 @@
       <c r="E370" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F370" s="5" t="s">
+      <c r="F370" s="4" t="s">
         <v>1113</v>
       </c>
     </row>
@@ -14714,13 +15128,13 @@
       <c r="C371" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D371" s="11" t="s">
+      <c r="D371" s="10" t="s">
         <v>1325</v>
       </c>
       <c r="E371" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F371" s="5" t="s">
+      <c r="F371" s="4" t="s">
         <v>1116</v>
       </c>
     </row>
@@ -14734,13 +15148,13 @@
       <c r="C372" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D372" s="11" t="s">
+      <c r="D372" s="10" t="s">
         <v>1326</v>
       </c>
       <c r="E372" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F372" s="5" t="s">
+      <c r="F372" s="4" t="s">
         <v>1117</v>
       </c>
     </row>
@@ -14754,13 +15168,13 @@
       <c r="C373" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D373" s="11" t="s">
+      <c r="D373" s="10" t="s">
         <v>1327</v>
       </c>
       <c r="E373" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F373" s="5" t="s">
+      <c r="F373" s="4" t="s">
         <v>1118</v>
       </c>
     </row>
@@ -14774,13 +15188,13 @@
       <c r="C374" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D374" s="11" t="s">
+      <c r="D374" s="10" t="s">
         <v>1328</v>
       </c>
       <c r="E374" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F374" s="5" t="s">
+      <c r="F374" s="4" t="s">
         <v>1119</v>
       </c>
     </row>
@@ -14794,13 +15208,13 @@
       <c r="C375" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D375" s="11" t="s">
+      <c r="D375" s="10" t="s">
         <v>1329</v>
       </c>
       <c r="E375" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F375" s="5" t="s">
+      <c r="F375" s="4" t="s">
         <v>1120</v>
       </c>
     </row>
@@ -14814,13 +15228,13 @@
       <c r="C376" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D376" s="11" t="s">
+      <c r="D376" s="10" t="s">
         <v>1330</v>
       </c>
       <c r="E376" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F376" s="5" t="s">
+      <c r="F376" s="4" t="s">
         <v>1121</v>
       </c>
     </row>
@@ -14834,13 +15248,13 @@
       <c r="C377" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D377" s="11" t="s">
+      <c r="D377" s="10" t="s">
         <v>1331</v>
       </c>
       <c r="E377" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F377" s="5" t="s">
+      <c r="F377" s="4" t="s">
         <v>1122</v>
       </c>
     </row>
@@ -14854,13 +15268,13 @@
       <c r="C378" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D378" s="11" t="s">
+      <c r="D378" s="10" t="s">
         <v>1332</v>
       </c>
       <c r="E378" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F378" s="5" t="s">
+      <c r="F378" s="4" t="s">
         <v>1123</v>
       </c>
     </row>
@@ -14874,13 +15288,13 @@
       <c r="C379" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D379" s="11" t="s">
+      <c r="D379" s="10" t="s">
         <v>1440</v>
       </c>
       <c r="E379" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F379" s="5" t="s">
+      <c r="F379" s="4" t="s">
         <v>1124</v>
       </c>
     </row>
@@ -14894,13 +15308,13 @@
       <c r="C380" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D380" s="11" t="s">
+      <c r="D380" s="10" t="s">
         <v>1441</v>
       </c>
       <c r="E380" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F380" s="5" t="s">
+      <c r="F380" s="4" t="s">
         <v>1125</v>
       </c>
     </row>
@@ -14914,13 +15328,13 @@
       <c r="C381" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D381" s="11" t="s">
+      <c r="D381" s="10" t="s">
         <v>1442</v>
       </c>
       <c r="E381" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F381" s="5" t="s">
+      <c r="F381" s="4" t="s">
         <v>1126</v>
       </c>
     </row>
@@ -14934,13 +15348,13 @@
       <c r="C382" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D382" s="11" t="s">
+      <c r="D382" s="10" t="s">
         <v>1443</v>
       </c>
       <c r="E382" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F382" s="5" t="s">
+      <c r="F382" s="4" t="s">
         <v>1127</v>
       </c>
     </row>
@@ -14954,13 +15368,13 @@
       <c r="C383" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D383" s="11" t="s">
+      <c r="D383" s="10" t="s">
         <v>1444</v>
       </c>
       <c r="E383" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F383" s="5" t="s">
+      <c r="F383" s="4" t="s">
         <v>1128</v>
       </c>
     </row>
@@ -14974,13 +15388,13 @@
       <c r="C384" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D384" s="11" t="s">
+      <c r="D384" s="10" t="s">
         <v>1333</v>
       </c>
       <c r="E384" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F384" s="5" t="s">
+      <c r="F384" s="4" t="s">
         <v>1129</v>
       </c>
     </row>
@@ -14994,13 +15408,13 @@
       <c r="C385" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D385" s="11" t="s">
+      <c r="D385" s="10" t="s">
         <v>1424</v>
       </c>
       <c r="E385" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F385" s="5" t="s">
+      <c r="F385" s="4" t="s">
         <v>1130</v>
       </c>
     </row>
@@ -15014,13 +15428,13 @@
       <c r="C386" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D386" s="11" t="s">
+      <c r="D386" s="10" t="s">
         <v>1334</v>
       </c>
       <c r="E386" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F386" s="5" t="s">
+      <c r="F386" s="4" t="s">
         <v>1131</v>
       </c>
     </row>
@@ -15034,13 +15448,13 @@
       <c r="C387" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D387" s="11" t="s">
+      <c r="D387" s="10" t="s">
         <v>1335</v>
       </c>
       <c r="E387" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F387" s="5" t="s">
+      <c r="F387" s="4" t="s">
         <v>1132</v>
       </c>
     </row>
@@ -15054,13 +15468,13 @@
       <c r="C388" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D388" s="11" t="s">
+      <c r="D388" s="10" t="s">
         <v>1336</v>
       </c>
       <c r="E388" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F388" s="5" t="s">
+      <c r="F388" s="4" t="s">
         <v>1133</v>
       </c>
     </row>
@@ -15074,13 +15488,13 @@
       <c r="C389" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D389" s="11" t="s">
+      <c r="D389" s="10" t="s">
         <v>1337</v>
       </c>
       <c r="E389" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F389" s="5" t="s">
+      <c r="F389" s="4" t="s">
         <v>1134</v>
       </c>
     </row>
@@ -15094,13 +15508,13 @@
       <c r="C390" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D390" s="11" t="s">
+      <c r="D390" s="10" t="s">
         <v>1338</v>
       </c>
       <c r="E390" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F390" s="5" t="s">
+      <c r="F390" s="4" t="s">
         <v>1135</v>
       </c>
     </row>
@@ -15114,13 +15528,13 @@
       <c r="C391" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D391" s="11" t="s">
+      <c r="D391" s="10" t="s">
         <v>1445</v>
       </c>
       <c r="E391" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F391" s="5" t="s">
+      <c r="F391" s="4" t="s">
         <v>1136</v>
       </c>
     </row>
@@ -15134,13 +15548,13 @@
       <c r="C392" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D392" s="11" t="s">
+      <c r="D392" s="10" t="s">
         <v>1339</v>
       </c>
       <c r="E392" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F392" s="5" t="s">
+      <c r="F392" s="4" t="s">
         <v>1137</v>
       </c>
     </row>
@@ -15154,13 +15568,13 @@
       <c r="C393" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D393" s="11" t="s">
+      <c r="D393" s="10" t="s">
         <v>1043</v>
       </c>
       <c r="E393" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F393" s="5" t="s">
+      <c r="F393" s="4" t="s">
         <v>1138</v>
       </c>
     </row>
@@ -15174,13 +15588,13 @@
       <c r="C394" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D394" s="11" t="s">
+      <c r="D394" s="10" t="s">
         <v>1437</v>
       </c>
       <c r="E394" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F394" s="5" t="s">
+      <c r="F394" s="4" t="s">
         <v>1139</v>
       </c>
     </row>
@@ -15194,13 +15608,13 @@
       <c r="C395" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D395" s="11" t="s">
+      <c r="D395" s="10" t="s">
         <v>1438</v>
       </c>
       <c r="E395" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F395" s="5" t="s">
+      <c r="F395" s="4" t="s">
         <v>1140</v>
       </c>
     </row>
@@ -15214,13 +15628,13 @@
       <c r="C396" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D396" s="11" t="s">
+      <c r="D396" s="10" t="s">
         <v>1425</v>
       </c>
       <c r="E396" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F396" s="5" t="s">
+      <c r="F396" s="4" t="s">
         <v>1141</v>
       </c>
     </row>
@@ -15234,13 +15648,13 @@
       <c r="C397" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D397" s="11" t="s">
+      <c r="D397" s="10" t="s">
         <v>1426</v>
       </c>
       <c r="E397" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F397" s="5" t="s">
+      <c r="F397" s="4" t="s">
         <v>1142</v>
       </c>
     </row>
@@ -15254,13 +15668,13 @@
       <c r="C398" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D398" s="11" t="s">
+      <c r="D398" s="10" t="s">
         <v>1446</v>
       </c>
       <c r="E398" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F398" s="5" t="s">
+      <c r="F398" s="4" t="s">
         <v>1143</v>
       </c>
     </row>
@@ -15274,13 +15688,13 @@
       <c r="C399" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D399" s="11" t="s">
+      <c r="D399" s="10" t="s">
         <v>1427</v>
       </c>
       <c r="E399" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F399" s="5" t="s">
+      <c r="F399" s="4" t="s">
         <v>1144</v>
       </c>
     </row>
@@ -15294,13 +15708,13 @@
       <c r="C400" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D400" s="11" t="s">
+      <c r="D400" s="10" t="s">
         <v>1428</v>
       </c>
       <c r="E400" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F400" s="5" t="s">
+      <c r="F400" s="4" t="s">
         <v>1145</v>
       </c>
     </row>
@@ -15314,13 +15728,13 @@
       <c r="C401" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D401" s="11" t="s">
+      <c r="D401" s="10" t="s">
         <v>1439</v>
       </c>
       <c r="E401" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F401" s="5" t="s">
+      <c r="F401" s="4" t="s">
         <v>1146</v>
       </c>
     </row>
@@ -15334,13 +15748,13 @@
       <c r="C402" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D402" s="11" t="s">
+      <c r="D402" s="10" t="s">
         <v>1340</v>
       </c>
       <c r="E402" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F402" s="5" t="s">
+      <c r="F402" s="4" t="s">
         <v>1147</v>
       </c>
     </row>
@@ -15354,13 +15768,13 @@
       <c r="C403" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D403" s="11" t="s">
+      <c r="D403" s="10" t="s">
         <v>1341</v>
       </c>
       <c r="E403" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F403" s="5" t="s">
+      <c r="F403" s="4" t="s">
         <v>1148</v>
       </c>
     </row>
@@ -15374,13 +15788,13 @@
       <c r="C404" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D404" s="11" t="s">
+      <c r="D404" s="10" t="s">
         <v>1342</v>
       </c>
       <c r="E404" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F404" s="5" t="s">
+      <c r="F404" s="4" t="s">
         <v>1149</v>
       </c>
     </row>
@@ -15394,13 +15808,13 @@
       <c r="C405" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D405" s="11" t="s">
+      <c r="D405" s="10" t="s">
         <v>1343</v>
       </c>
       <c r="E405" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F405" s="5" t="s">
+      <c r="F405" s="4" t="s">
         <v>1150</v>
       </c>
     </row>
@@ -15414,13 +15828,13 @@
       <c r="C406" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D406" s="11" t="s">
+      <c r="D406" s="10" t="s">
         <v>1344</v>
       </c>
       <c r="E406" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F406" s="5" t="s">
+      <c r="F406" s="4" t="s">
         <v>1151</v>
       </c>
     </row>
@@ -15434,13 +15848,13 @@
       <c r="C407" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D407" s="11" t="s">
+      <c r="D407" s="10" t="s">
         <v>1345</v>
       </c>
       <c r="E407" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F407" s="5" t="s">
+      <c r="F407" s="4" t="s">
         <v>1152</v>
       </c>
     </row>
@@ -15454,13 +15868,13 @@
       <c r="C408" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D408" s="11" t="s">
+      <c r="D408" s="10" t="s">
         <v>1346</v>
       </c>
       <c r="E408" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F408" s="5" t="s">
+      <c r="F408" s="4" t="s">
         <v>1153</v>
       </c>
     </row>
@@ -15474,13 +15888,13 @@
       <c r="C409" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D409" s="11" t="s">
+      <c r="D409" s="10" t="s">
         <v>1347</v>
       </c>
       <c r="E409" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F409" s="5" t="s">
+      <c r="F409" s="4" t="s">
         <v>1154</v>
       </c>
     </row>
@@ -15494,13 +15908,13 @@
       <c r="C410" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D410" s="11" t="s">
+      <c r="D410" s="10" t="s">
         <v>1348</v>
       </c>
       <c r="E410" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F410" s="5" t="s">
+      <c r="F410" s="4" t="s">
         <v>1155</v>
       </c>
     </row>
@@ -15514,13 +15928,13 @@
       <c r="C411" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D411" s="11" t="s">
+      <c r="D411" s="10" t="s">
         <v>1349</v>
       </c>
       <c r="E411" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F411" s="5" t="s">
+      <c r="F411" s="4" t="s">
         <v>1156</v>
       </c>
     </row>
@@ -15534,13 +15948,13 @@
       <c r="C412" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D412" s="11" t="s">
+      <c r="D412" s="10" t="s">
         <v>1350</v>
       </c>
       <c r="E412" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F412" s="5" t="s">
+      <c r="F412" s="4" t="s">
         <v>1157</v>
       </c>
     </row>
@@ -15554,13 +15968,13 @@
       <c r="C413" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D413" s="11" t="s">
+      <c r="D413" s="10" t="s">
         <v>1351</v>
       </c>
       <c r="E413" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F413" s="5" t="s">
+      <c r="F413" s="4" t="s">
         <v>1158</v>
       </c>
     </row>
@@ -15574,13 +15988,13 @@
       <c r="C414" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D414" s="11" t="s">
+      <c r="D414" s="10" t="s">
         <v>1352</v>
       </c>
       <c r="E414" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F414" s="5" t="s">
+      <c r="F414" s="4" t="s">
         <v>1159</v>
       </c>
     </row>
@@ -15594,13 +16008,13 @@
       <c r="C415" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D415" s="11" t="s">
+      <c r="D415" s="10" t="s">
         <v>1353</v>
       </c>
       <c r="E415" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F415" s="5" t="s">
+      <c r="F415" s="4" t="s">
         <v>1160</v>
       </c>
     </row>
@@ -15614,13 +16028,13 @@
       <c r="C416" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D416" s="11" t="s">
+      <c r="D416" s="10" t="s">
         <v>1354</v>
       </c>
       <c r="E416" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F416" s="5" t="s">
+      <c r="F416" s="4" t="s">
         <v>1161</v>
       </c>
     </row>
@@ -15634,13 +16048,13 @@
       <c r="C417" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D417" s="11" t="s">
+      <c r="D417" s="10" t="s">
         <v>1355</v>
       </c>
       <c r="E417" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F417" s="5" t="s">
+      <c r="F417" s="4" t="s">
         <v>1162</v>
       </c>
     </row>
@@ -15654,13 +16068,13 @@
       <c r="C418" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D418" s="11" t="s">
+      <c r="D418" s="10" t="s">
         <v>1356</v>
       </c>
       <c r="E418" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F418" s="5" t="s">
+      <c r="F418" s="4" t="s">
         <v>1163</v>
       </c>
     </row>
@@ -15674,13 +16088,13 @@
       <c r="C419" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D419" s="11" t="s">
+      <c r="D419" s="10" t="s">
         <v>1357</v>
       </c>
       <c r="E419" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F419" s="5" t="s">
+      <c r="F419" s="4" t="s">
         <v>1164</v>
       </c>
     </row>
@@ -15694,13 +16108,13 @@
       <c r="C420" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D420" s="11" t="s">
+      <c r="D420" s="10" t="s">
         <v>1358</v>
       </c>
       <c r="E420" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F420" s="5" t="s">
+      <c r="F420" s="4" t="s">
         <v>1165</v>
       </c>
     </row>
@@ -15714,13 +16128,13 @@
       <c r="C421" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D421" s="11" t="s">
+      <c r="D421" s="10" t="s">
         <v>1359</v>
       </c>
       <c r="E421" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F421" s="5" t="s">
+      <c r="F421" s="4" t="s">
         <v>1166</v>
       </c>
     </row>
@@ -15734,13 +16148,13 @@
       <c r="C422" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D422" s="11" t="s">
+      <c r="D422" s="10" t="s">
         <v>1360</v>
       </c>
       <c r="E422" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F422" s="5" t="s">
+      <c r="F422" s="4" t="s">
         <v>1167</v>
       </c>
     </row>
@@ -15754,13 +16168,13 @@
       <c r="C423" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D423" s="11" t="s">
+      <c r="D423" s="10" t="s">
         <v>1361</v>
       </c>
       <c r="E423" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F423" s="5" t="s">
+      <c r="F423" s="4" t="s">
         <v>1168</v>
       </c>
     </row>
@@ -15774,13 +16188,13 @@
       <c r="C424" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D424" s="11" t="s">
+      <c r="D424" s="10" t="s">
         <v>1362</v>
       </c>
       <c r="E424" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F424" s="5" t="s">
+      <c r="F424" s="4" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -15794,13 +16208,13 @@
       <c r="C425" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D425" s="11" t="s">
+      <c r="D425" s="10" t="s">
         <v>1363</v>
       </c>
       <c r="E425" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F425" s="5" t="s">
+      <c r="F425" s="4" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -15814,13 +16228,13 @@
       <c r="C426" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D426" s="11" t="s">
+      <c r="D426" s="10" t="s">
         <v>1364</v>
       </c>
       <c r="E426" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F426" s="5" t="s">
+      <c r="F426" s="4" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -15834,13 +16248,13 @@
       <c r="C427" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D427" s="11" t="s">
+      <c r="D427" s="10" t="s">
         <v>1365</v>
       </c>
       <c r="E427" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F427" s="5" t="s">
+      <c r="F427" s="4" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -15854,13 +16268,13 @@
       <c r="C428" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D428" s="11" t="s">
+      <c r="D428" s="10" t="s">
         <v>1366</v>
       </c>
       <c r="E428" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F428" s="5" t="s">
+      <c r="F428" s="4" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -15874,13 +16288,13 @@
       <c r="C429" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D429" s="11" t="s">
+      <c r="D429" s="10" t="s">
         <v>1367</v>
       </c>
       <c r="E429" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F429" s="5" t="s">
+      <c r="F429" s="4" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -15894,13 +16308,13 @@
       <c r="C430" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D430" s="11" t="s">
+      <c r="D430" s="10" t="s">
         <v>1368</v>
       </c>
       <c r="E430" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F430" s="5" t="s">
+      <c r="F430" s="4" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -15914,13 +16328,13 @@
       <c r="C431" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D431" s="11" t="s">
+      <c r="D431" s="10" t="s">
         <v>1369</v>
       </c>
       <c r="E431" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F431" s="5" t="s">
+      <c r="F431" s="4" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -15934,13 +16348,13 @@
       <c r="C432" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D432" s="11" t="s">
+      <c r="D432" s="10" t="s">
         <v>1370</v>
       </c>
       <c r="E432" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F432" s="5" t="s">
+      <c r="F432" s="4" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -15954,13 +16368,13 @@
       <c r="C433" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D433" s="11" t="s">
+      <c r="D433" s="10" t="s">
         <v>1371</v>
       </c>
       <c r="E433" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F433" s="5" t="s">
+      <c r="F433" s="4" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -15974,13 +16388,13 @@
       <c r="C434" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D434" s="11" t="s">
+      <c r="D434" s="10" t="s">
         <v>1372</v>
       </c>
       <c r="E434" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F434" s="5" t="s">
+      <c r="F434" s="4" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -15994,13 +16408,13 @@
       <c r="C435" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D435" s="11" t="s">
+      <c r="D435" s="10" t="s">
         <v>1373</v>
       </c>
       <c r="E435" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F435" s="5" t="s">
+      <c r="F435" s="4" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -16014,13 +16428,13 @@
       <c r="C436" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D436" s="11" t="s">
+      <c r="D436" s="10" t="s">
         <v>1374</v>
       </c>
       <c r="E436" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F436" s="5" t="s">
+      <c r="F436" s="4" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -16034,13 +16448,13 @@
       <c r="C437" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D437" s="11" t="s">
+      <c r="D437" s="10" t="s">
         <v>1375</v>
       </c>
       <c r="E437" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F437" s="5" t="s">
+      <c r="F437" s="4" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -16054,13 +16468,13 @@
       <c r="C438" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D438" s="11" t="s">
+      <c r="D438" s="10" t="s">
         <v>1376</v>
       </c>
       <c r="E438" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F438" s="5" t="s">
+      <c r="F438" s="4" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -16074,13 +16488,13 @@
       <c r="C439" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D439" s="11" t="s">
+      <c r="D439" s="10" t="s">
         <v>1377</v>
       </c>
       <c r="E439" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F439" s="5" t="s">
+      <c r="F439" s="4" t="s">
         <v>1184</v>
       </c>
     </row>
@@ -16094,13 +16508,13 @@
       <c r="C440" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D440" s="11" t="s">
+      <c r="D440" s="10" t="s">
         <v>1378</v>
       </c>
       <c r="E440" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F440" s="5" t="s">
+      <c r="F440" s="4" t="s">
         <v>1185</v>
       </c>
     </row>
@@ -16114,13 +16528,13 @@
       <c r="C441" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D441" s="11" t="s">
+      <c r="D441" s="10" t="s">
         <v>1379</v>
       </c>
       <c r="E441" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F441" s="5" t="s">
+      <c r="F441" s="4" t="s">
         <v>1186</v>
       </c>
     </row>
@@ -16134,13 +16548,13 @@
       <c r="C442" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D442" s="11" t="s">
+      <c r="D442" s="10" t="s">
         <v>1380</v>
       </c>
       <c r="E442" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F442" s="5" t="s">
+      <c r="F442" s="4" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -16154,13 +16568,13 @@
       <c r="C443" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D443" s="11" t="s">
+      <c r="D443" s="10" t="s">
         <v>1381</v>
       </c>
       <c r="E443" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F443" s="5" t="s">
+      <c r="F443" s="4" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -16174,13 +16588,13 @@
       <c r="C444" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D444" s="11" t="s">
+      <c r="D444" s="10" t="s">
         <v>1382</v>
       </c>
       <c r="E444" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F444" s="5" t="s">
+      <c r="F444" s="4" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -16194,13 +16608,13 @@
       <c r="C445" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D445" s="11" t="s">
+      <c r="D445" s="10" t="s">
         <v>1383</v>
       </c>
       <c r="E445" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F445" s="5" t="s">
+      <c r="F445" s="4" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -16214,13 +16628,13 @@
       <c r="C446" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D446" s="11" t="s">
+      <c r="D446" s="10" t="s">
         <v>1384</v>
       </c>
       <c r="E446" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F446" s="5" t="s">
+      <c r="F446" s="4" t="s">
         <v>1191</v>
       </c>
     </row>
@@ -16234,13 +16648,13 @@
       <c r="C447" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D447" s="11" t="s">
+      <c r="D447" s="10" t="s">
         <v>1385</v>
       </c>
       <c r="E447" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F447" s="5" t="s">
+      <c r="F447" s="4" t="s">
         <v>1192</v>
       </c>
     </row>
@@ -16254,13 +16668,13 @@
       <c r="C448" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D448" s="11" t="s">
+      <c r="D448" s="10" t="s">
         <v>1386</v>
       </c>
       <c r="E448" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F448" s="5" t="s">
+      <c r="F448" s="4" t="s">
         <v>1193</v>
       </c>
     </row>
@@ -16274,13 +16688,13 @@
       <c r="C449" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D449" s="11" t="s">
+      <c r="D449" s="10" t="s">
         <v>1387</v>
       </c>
       <c r="E449" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F449" s="5" t="s">
+      <c r="F449" s="4" t="s">
         <v>1194</v>
       </c>
     </row>
@@ -16294,13 +16708,13 @@
       <c r="C450" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D450" s="11" t="s">
+      <c r="D450" s="10" t="s">
         <v>1388</v>
       </c>
       <c r="E450" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F450" s="5" t="s">
+      <c r="F450" s="4" t="s">
         <v>1195</v>
       </c>
     </row>
@@ -16314,13 +16728,13 @@
       <c r="C451" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D451" s="11" t="s">
+      <c r="D451" s="10" t="s">
         <v>1389</v>
       </c>
       <c r="E451" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F451" s="5" t="s">
+      <c r="F451" s="4" t="s">
         <v>1196</v>
       </c>
     </row>
@@ -16334,13 +16748,13 @@
       <c r="C452" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D452" s="11" t="s">
+      <c r="D452" s="10" t="s">
         <v>1390</v>
       </c>
       <c r="E452" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F452" s="5" t="s">
+      <c r="F452" s="4" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -16354,13 +16768,13 @@
       <c r="C453" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D453" s="11" t="s">
+      <c r="D453" s="10" t="s">
         <v>1391</v>
       </c>
       <c r="E453" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F453" s="5" t="s">
+      <c r="F453" s="4" t="s">
         <v>1198</v>
       </c>
     </row>
@@ -16374,13 +16788,13 @@
       <c r="C454" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D454" s="11" t="s">
+      <c r="D454" s="10" t="s">
         <v>1392</v>
       </c>
       <c r="E454" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F454" s="5" t="s">
+      <c r="F454" s="4" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -16394,13 +16808,13 @@
       <c r="C455" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D455" s="11" t="s">
+      <c r="D455" s="10" t="s">
         <v>1393</v>
       </c>
       <c r="E455" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F455" s="5" t="s">
+      <c r="F455" s="4" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -16414,13 +16828,13 @@
       <c r="C456" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D456" s="11" t="s">
+      <c r="D456" s="10" t="s">
         <v>1394</v>
       </c>
       <c r="E456" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F456" s="5" t="s">
+      <c r="F456" s="4" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -16434,13 +16848,13 @@
       <c r="C457" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D457" s="11" t="s">
+      <c r="D457" s="10" t="s">
         <v>1395</v>
       </c>
       <c r="E457" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F457" s="5" t="s">
+      <c r="F457" s="4" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -16454,13 +16868,13 @@
       <c r="C458" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D458" s="11" t="s">
+      <c r="D458" s="10" t="s">
         <v>1396</v>
       </c>
       <c r="E458" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F458" s="5" t="s">
+      <c r="F458" s="4" t="s">
         <v>1203</v>
       </c>
     </row>
@@ -16474,13 +16888,13 @@
       <c r="C459" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D459" s="11" t="s">
+      <c r="D459" s="10" t="s">
         <v>1397</v>
       </c>
       <c r="E459" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F459" s="5" t="s">
+      <c r="F459" s="4" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -16494,13 +16908,13 @@
       <c r="C460" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D460" s="11" t="s">
+      <c r="D460" s="10" t="s">
         <v>1398</v>
       </c>
       <c r="E460" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F460" s="5" t="s">
+      <c r="F460" s="4" t="s">
         <v>1205</v>
       </c>
     </row>
@@ -16514,13 +16928,13 @@
       <c r="C461" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D461" s="11" t="s">
+      <c r="D461" s="10" t="s">
         <v>1399</v>
       </c>
       <c r="E461" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F461" s="5" t="s">
+      <c r="F461" s="4" t="s">
         <v>1206</v>
       </c>
     </row>
@@ -16534,13 +16948,13 @@
       <c r="C462" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D462" s="11" t="s">
+      <c r="D462" s="10" t="s">
         <v>1400</v>
       </c>
       <c r="E462" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F462" s="5" t="s">
+      <c r="F462" s="4" t="s">
         <v>1207</v>
       </c>
     </row>
@@ -16554,13 +16968,13 @@
       <c r="C463" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D463" s="11" t="s">
+      <c r="D463" s="10" t="s">
         <v>1401</v>
       </c>
       <c r="E463" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F463" s="5" t="s">
+      <c r="F463" s="4" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -16574,13 +16988,13 @@
       <c r="C464" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D464" s="11" t="s">
+      <c r="D464" s="10" t="s">
         <v>1402</v>
       </c>
       <c r="E464" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F464" s="5" t="s">
+      <c r="F464" s="4" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -16594,13 +17008,13 @@
       <c r="C465" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D465" s="11" t="s">
+      <c r="D465" s="10" t="s">
         <v>1403</v>
       </c>
       <c r="E465" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F465" s="5" t="s">
+      <c r="F465" s="4" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -16614,13 +17028,13 @@
       <c r="C466" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D466" s="11" t="s">
+      <c r="D466" s="10" t="s">
         <v>1404</v>
       </c>
       <c r="E466" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F466" s="5" t="s">
+      <c r="F466" s="4" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -16634,13 +17048,13 @@
       <c r="C467" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D467" s="11" t="s">
+      <c r="D467" s="10" t="s">
         <v>1405</v>
       </c>
       <c r="E467" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F467" s="5" t="s">
+      <c r="F467" s="4" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -16654,13 +17068,13 @@
       <c r="C468" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D468" s="11" t="s">
+      <c r="D468" s="10" t="s">
         <v>1406</v>
       </c>
       <c r="E468" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F468" s="5" t="s">
+      <c r="F468" s="4" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -16674,7 +17088,7 @@
       <c r="C469" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D469" s="11" t="s">
+      <c r="D469" s="10" t="s">
         <v>1407</v>
       </c>
       <c r="E469" s="4" t="s">
@@ -16694,13 +17108,13 @@
       <c r="C470" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D470" s="11" t="s">
+      <c r="D470" s="10" t="s">
         <v>1429</v>
       </c>
       <c r="E470" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F470" s="5" t="s">
+      <c r="F470" s="4" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -16714,13 +17128,13 @@
       <c r="C471" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D471" s="11" t="s">
+      <c r="D471" s="10" t="s">
         <v>1408</v>
       </c>
       <c r="E471" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F471" s="5" t="s">
+      <c r="F471" s="4" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -16734,13 +17148,13 @@
       <c r="C472" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D472" s="11" t="s">
+      <c r="D472" s="10" t="s">
         <v>1409</v>
       </c>
       <c r="E472" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F472" s="5" t="s">
+      <c r="F472" s="4" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -16754,13 +17168,13 @@
       <c r="C473" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D473" s="11" t="s">
+      <c r="D473" s="10" t="s">
         <v>1410</v>
       </c>
       <c r="E473" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F473" s="5" t="s">
+      <c r="F473" s="4" t="s">
         <v>1218</v>
       </c>
     </row>
@@ -16774,13 +17188,13 @@
       <c r="C474" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D474" s="11" t="s">
+      <c r="D474" s="10" t="s">
         <v>1411</v>
       </c>
       <c r="E474" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F474" s="5" t="s">
+      <c r="F474" s="4" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -16794,13 +17208,13 @@
       <c r="C475" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D475" s="11" t="s">
+      <c r="D475" s="10" t="s">
         <v>1412</v>
       </c>
       <c r="E475" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F475" s="5" t="s">
+      <c r="F475" s="4" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -16814,13 +17228,13 @@
       <c r="C476" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D476" s="11" t="s">
+      <c r="D476" s="10" t="s">
         <v>1430</v>
       </c>
       <c r="E476" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F476" s="5" t="s">
+      <c r="F476" s="4" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -16834,13 +17248,13 @@
       <c r="C477" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D477" s="11" t="s">
+      <c r="D477" s="10" t="s">
         <v>1431</v>
       </c>
       <c r="E477" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F477" s="5" t="s">
+      <c r="F477" s="4" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -16854,13 +17268,13 @@
       <c r="C478" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D478" s="11" t="s">
+      <c r="D478" s="10" t="s">
         <v>1432</v>
       </c>
       <c r="E478" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F478" s="5" t="s">
+      <c r="F478" s="4" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16874,13 +17288,13 @@
       <c r="C479" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D479" s="11" t="s">
+      <c r="D479" s="10" t="s">
         <v>1433</v>
       </c>
       <c r="E479" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F479" s="5" t="s">
+      <c r="F479" s="4" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -16894,13 +17308,13 @@
       <c r="C480" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D480" s="11" t="s">
+      <c r="D480" s="10" t="s">
         <v>1434</v>
       </c>
       <c r="E480" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F480" s="5" t="s">
+      <c r="F480" s="4" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -16914,13 +17328,13 @@
       <c r="C481" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D481" s="11" t="s">
+      <c r="D481" s="10" t="s">
         <v>1435</v>
       </c>
       <c r="E481" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F481" s="5" t="s">
+      <c r="F481" s="4" t="s">
         <v>1226</v>
       </c>
     </row>
@@ -16934,13 +17348,13 @@
       <c r="C482" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D482" s="11" t="s">
+      <c r="D482" s="10" t="s">
         <v>1436</v>
       </c>
       <c r="E482" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F482" s="5" t="s">
+      <c r="F482" s="4" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -16954,13 +17368,13 @@
       <c r="C483" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D483" s="11" t="s">
+      <c r="D483" s="10" t="s">
         <v>1413</v>
       </c>
       <c r="E483" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F483" s="5" t="s">
+      <c r="F483" s="4" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -16974,13 +17388,13 @@
       <c r="C484" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D484" s="11" t="s">
+      <c r="D484" s="10" t="s">
         <v>1414</v>
       </c>
       <c r="E484" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F484" s="5" t="s">
+      <c r="F484" s="4" t="s">
         <v>1229</v>
       </c>
     </row>
@@ -16994,13 +17408,13 @@
       <c r="C485" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D485" s="11" t="s">
+      <c r="D485" s="10" t="s">
         <v>1415</v>
       </c>
       <c r="E485" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F485" s="5" t="s">
+      <c r="F485" s="4" t="s">
         <v>1230</v>
       </c>
     </row>
@@ -17014,13 +17428,13 @@
       <c r="C486" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D486" s="11" t="s">
+      <c r="D486" s="10" t="s">
         <v>1416</v>
       </c>
       <c r="E486" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F486" s="5" t="s">
+      <c r="F486" s="4" t="s">
         <v>1231</v>
       </c>
     </row>
@@ -17034,13 +17448,13 @@
       <c r="C487" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D487" s="11" t="s">
+      <c r="D487" s="10" t="s">
         <v>1417</v>
       </c>
       <c r="E487" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F487" s="5" t="s">
+      <c r="F487" s="4" t="s">
         <v>1232</v>
       </c>
     </row>
@@ -17054,13 +17468,13 @@
       <c r="C488" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D488" s="11" t="s">
+      <c r="D488" s="10" t="s">
         <v>1418</v>
       </c>
       <c r="E488" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F488" s="5" t="s">
+      <c r="F488" s="4" t="s">
         <v>1233</v>
       </c>
     </row>
@@ -17074,13 +17488,13 @@
       <c r="C489" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D489" s="11" t="s">
+      <c r="D489" s="10" t="s">
         <v>1419</v>
       </c>
       <c r="E489" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F489" s="5" t="s">
+      <c r="F489" s="4" t="s">
         <v>1234</v>
       </c>
     </row>
@@ -17094,13 +17508,13 @@
       <c r="C490" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D490" s="11" t="s">
+      <c r="D490" s="10" t="s">
         <v>1420</v>
       </c>
       <c r="E490" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F490" s="5" t="s">
+      <c r="F490" s="4" t="s">
         <v>1235</v>
       </c>
     </row>
@@ -17114,13 +17528,13 @@
       <c r="C491" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D491" s="11" t="s">
+      <c r="D491" s="10" t="s">
         <v>1421</v>
       </c>
       <c r="E491" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F491" s="5" t="s">
+      <c r="F491" s="4" t="s">
         <v>1236</v>
       </c>
     </row>
@@ -17134,13 +17548,13 @@
       <c r="C492" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D492" s="11" t="s">
+      <c r="D492" s="10" t="s">
         <v>1422</v>
       </c>
       <c r="E492" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F492" s="5" t="s">
+      <c r="F492" s="4" t="s">
         <v>1237</v>
       </c>
     </row>
@@ -17154,13 +17568,13 @@
       <c r="C493" s="4" t="s">
         <v>441</v>
       </c>
-      <c r="D493" s="11" t="s">
+      <c r="D493" s="10" t="s">
         <v>1423</v>
       </c>
       <c r="E493" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F493" s="5" t="s">
+      <c r="F493" s="4" t="s">
         <v>1238</v>
       </c>
     </row>
@@ -17180,7 +17594,7 @@
       <c r="E494" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F494" s="9" t="s">
+      <c r="F494" s="8" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -17200,7 +17614,7 @@
       <c r="E495" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F495" s="5" t="s">
+      <c r="F495" s="4" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -17220,7 +17634,7 @@
       <c r="E496" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F496" s="8" t="s">
+      <c r="F496" s="7" t="s">
         <v>1449</v>
       </c>
     </row>
@@ -17240,7 +17654,7 @@
       <c r="E497" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F497" s="5" t="s">
+      <c r="F497" s="4" t="s">
         <v>1450</v>
       </c>
     </row>
@@ -17260,7 +17674,7 @@
       <c r="E498" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F498" s="5" t="s">
+      <c r="F498" s="4" t="s">
         <v>1471</v>
       </c>
     </row>
@@ -17280,7 +17694,7 @@
       <c r="E499" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F499" s="5" t="s">
+      <c r="F499" s="4" t="s">
         <v>1470</v>
       </c>
     </row>
@@ -17300,7 +17714,7 @@
       <c r="E500" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F500" s="5" t="s">
+      <c r="F500" s="4" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -17320,7 +17734,7 @@
       <c r="E501" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F501" s="5" t="s">
+      <c r="F501" s="4" t="s">
         <v>1468</v>
       </c>
     </row>
@@ -17340,7 +17754,7 @@
       <c r="E502" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F502" s="5" t="s">
+      <c r="F502" s="4" t="s">
         <v>1467</v>
       </c>
     </row>
@@ -17360,7 +17774,7 @@
       <c r="E503" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F503" s="5" t="s">
+      <c r="F503" s="4" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -17380,7 +17794,7 @@
       <c r="E504" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F504" s="5" t="s">
+      <c r="F504" s="4" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -17400,7 +17814,7 @@
       <c r="E505" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F505" s="5" t="s">
+      <c r="F505" s="4" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -17420,7 +17834,7 @@
       <c r="E506" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F506" s="5" t="s">
+      <c r="F506" s="4" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -17440,7 +17854,7 @@
       <c r="E507" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F507" s="5" t="s">
+      <c r="F507" s="4" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -17460,7 +17874,7 @@
       <c r="E508" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F508" s="5" t="s">
+      <c r="F508" s="4" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -17480,7 +17894,7 @@
       <c r="E509" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F509" s="5" t="s">
+      <c r="F509" s="4" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -17500,7 +17914,7 @@
       <c r="E510" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F510" s="5" t="s">
+      <c r="F510" s="4" t="s">
         <v>1496</v>
       </c>
     </row>
@@ -17520,7 +17934,7 @@
       <c r="E511" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F511" s="5" t="s">
+      <c r="F511" s="4" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -17540,7 +17954,7 @@
       <c r="E512" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F512" s="5" t="s">
+      <c r="F512" s="4" t="s">
         <v>1500</v>
       </c>
     </row>
@@ -17560,7 +17974,7 @@
       <c r="E513" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F513" s="5" t="s">
+      <c r="F513" s="4" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -17580,7 +17994,7 @@
       <c r="E514" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F514" s="5" t="s">
+      <c r="F514" s="4" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -17600,7 +18014,7 @@
       <c r="E515" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F515" s="5" t="s">
+      <c r="F515" s="4" t="s">
         <v>1503</v>
       </c>
     </row>
@@ -17620,7 +18034,7 @@
       <c r="E516" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F516" s="5" t="s">
+      <c r="F516" s="4" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -17640,7 +18054,7 @@
       <c r="E517" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F517" s="5" t="s">
+      <c r="F517" s="4" t="s">
         <v>1505</v>
       </c>
     </row>
@@ -17660,7 +18074,7 @@
       <c r="E518" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F518" s="5" t="s">
+      <c r="F518" s="4" t="s">
         <v>1506</v>
       </c>
     </row>
@@ -17680,7 +18094,7 @@
       <c r="E519" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F519" s="5" t="s">
+      <c r="F519" s="4" t="s">
         <v>1507</v>
       </c>
     </row>
@@ -17700,7 +18114,7 @@
       <c r="E520" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F520" s="5" t="s">
+      <c r="F520" s="4" t="s">
         <v>1536</v>
       </c>
     </row>
@@ -17720,7 +18134,7 @@
       <c r="E521" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F521" s="5" t="s">
+      <c r="F521" s="4" t="s">
         <v>1539</v>
       </c>
     </row>
@@ -17740,7 +18154,7 @@
       <c r="E522" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F522" s="5" t="s">
+      <c r="F522" s="4" t="s">
         <v>1540</v>
       </c>
     </row>
@@ -17760,7 +18174,7 @@
       <c r="E523" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F523" s="5" t="s">
+      <c r="F523" s="4" t="s">
         <v>1541</v>
       </c>
     </row>
@@ -17780,7 +18194,7 @@
       <c r="E524" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F524" s="5" t="s">
+      <c r="F524" s="4" t="s">
         <v>1542</v>
       </c>
     </row>
@@ -17800,7 +18214,7 @@
       <c r="E525" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F525" s="5" t="s">
+      <c r="F525" s="4" t="s">
         <v>1543</v>
       </c>
     </row>
@@ -17820,7 +18234,7 @@
       <c r="E526" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F526" s="5" t="s">
+      <c r="F526" s="4" t="s">
         <v>1544</v>
       </c>
     </row>
@@ -17840,7 +18254,7 @@
       <c r="E527" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F527" s="5" t="s">
+      <c r="F527" s="4" t="s">
         <v>1545</v>
       </c>
     </row>
@@ -17860,7 +18274,7 @@
       <c r="E528" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F528" s="5" t="s">
+      <c r="F528" s="4" t="s">
         <v>1546</v>
       </c>
     </row>
@@ -17880,7 +18294,7 @@
       <c r="E529" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F529" s="5" t="s">
+      <c r="F529" s="4" t="s">
         <v>1547</v>
       </c>
     </row>
@@ -17900,7 +18314,7 @@
       <c r="E530" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F530" s="5" t="s">
+      <c r="F530" s="4" t="s">
         <v>1548</v>
       </c>
     </row>
@@ -17920,7 +18334,7 @@
       <c r="E531" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F531" s="5" t="s">
+      <c r="F531" s="4" t="s">
         <v>1549</v>
       </c>
     </row>
@@ -17940,7 +18354,7 @@
       <c r="E532" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F532" s="5" t="s">
+      <c r="F532" s="4" t="s">
         <v>1550</v>
       </c>
     </row>
@@ -17960,7 +18374,7 @@
       <c r="E533" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F533" s="5" t="s">
+      <c r="F533" s="4" t="s">
         <v>1551</v>
       </c>
     </row>
@@ -17980,7 +18394,7 @@
       <c r="E534" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F534" s="5" t="s">
+      <c r="F534" s="4" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -18000,7 +18414,7 @@
       <c r="E535" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F535" s="5" t="s">
+      <c r="F535" s="4" t="s">
         <v>1553</v>
       </c>
     </row>
@@ -18020,7 +18434,7 @@
       <c r="E536" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F536" s="5" t="s">
+      <c r="F536" s="4" t="s">
         <v>1554</v>
       </c>
     </row>
@@ -18040,7 +18454,7 @@
       <c r="E537" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F537" s="5" t="s">
+      <c r="F537" s="4" t="s">
         <v>1555</v>
       </c>
     </row>
@@ -18060,7 +18474,7 @@
       <c r="E538" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F538" s="5" t="s">
+      <c r="F538" s="4" t="s">
         <v>1556</v>
       </c>
     </row>
@@ -18080,7 +18494,7 @@
       <c r="E539" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F539" s="5" t="s">
+      <c r="F539" s="4" t="s">
         <v>1557</v>
       </c>
     </row>
@@ -18100,7 +18514,7 @@
       <c r="E540" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F540" s="5" t="s">
+      <c r="F540" s="4" t="s">
         <v>1558</v>
       </c>
     </row>
@@ -18120,7 +18534,7 @@
       <c r="E541" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F541" s="5" t="s">
+      <c r="F541" s="4" t="s">
         <v>1559</v>
       </c>
     </row>
@@ -18140,7 +18554,7 @@
       <c r="E542" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F542" s="5" t="s">
+      <c r="F542" s="4" t="s">
         <v>1560</v>
       </c>
     </row>
@@ -18160,7 +18574,7 @@
       <c r="E543" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F543" s="5" t="s">
+      <c r="F543" s="4" t="s">
         <v>1561</v>
       </c>
     </row>
@@ -18180,7 +18594,7 @@
       <c r="E544" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F544" s="5" t="s">
+      <c r="F544" s="4" t="s">
         <v>1562</v>
       </c>
     </row>
@@ -18200,7 +18614,7 @@
       <c r="E545" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F545" s="5" t="s">
+      <c r="F545" s="4" t="s">
         <v>1563</v>
       </c>
     </row>
@@ -18220,7 +18634,7 @@
       <c r="E546" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F546" s="5" t="s">
+      <c r="F546" s="4" t="s">
         <v>1564</v>
       </c>
     </row>
@@ -18240,7 +18654,7 @@
       <c r="E547" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F547" s="5" t="s">
+      <c r="F547" s="4" t="s">
         <v>1565</v>
       </c>
     </row>
@@ -18260,7 +18674,7 @@
       <c r="E548" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F548" s="5" t="s">
+      <c r="F548" s="4" t="s">
         <v>1566</v>
       </c>
     </row>
@@ -18280,7 +18694,7 @@
       <c r="E549" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F549" s="5" t="s">
+      <c r="F549" s="4" t="s">
         <v>1567</v>
       </c>
     </row>
@@ -18300,7 +18714,7 @@
       <c r="E550" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F550" s="5" t="s">
+      <c r="F550" s="4" t="s">
         <v>1568</v>
       </c>
     </row>
@@ -18320,7 +18734,7 @@
       <c r="E551" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F551" s="5" t="s">
+      <c r="F551" s="4" t="s">
         <v>1569</v>
       </c>
     </row>
@@ -18340,7 +18754,7 @@
       <c r="E552" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F552" s="5" t="s">
+      <c r="F552" s="4" t="s">
         <v>1570</v>
       </c>
     </row>
@@ -18360,7 +18774,7 @@
       <c r="E553" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F553" s="5" t="s">
+      <c r="F553" s="4" t="s">
         <v>1571</v>
       </c>
     </row>
@@ -18380,7 +18794,7 @@
       <c r="E554" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F554" s="5" t="s">
+      <c r="F554" s="4" t="s">
         <v>1572</v>
       </c>
     </row>
@@ -18400,7 +18814,7 @@
       <c r="E555" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F555" s="5" t="s">
+      <c r="F555" s="4" t="s">
         <v>1573</v>
       </c>
     </row>
@@ -18420,7 +18834,7 @@
       <c r="E556" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F556" s="5" t="s">
+      <c r="F556" s="4" t="s">
         <v>1574</v>
       </c>
     </row>
@@ -18440,7 +18854,7 @@
       <c r="E557" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F557" s="5" t="s">
+      <c r="F557" s="4" t="s">
         <v>1575</v>
       </c>
     </row>
@@ -18460,7 +18874,7 @@
       <c r="E558" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F558" s="5" t="s">
+      <c r="F558" s="4" t="s">
         <v>1576</v>
       </c>
     </row>
@@ -18480,7 +18894,7 @@
       <c r="E559" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F559" s="5" t="s">
+      <c r="F559" s="4" t="s">
         <v>1577</v>
       </c>
     </row>
@@ -18500,7 +18914,7 @@
       <c r="E560" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F560" s="5" t="s">
+      <c r="F560" s="4" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -18520,7 +18934,7 @@
       <c r="E561" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F561" s="5" t="s">
+      <c r="F561" s="4" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -18540,7 +18954,7 @@
       <c r="E562" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F562" s="5" t="s">
+      <c r="F562" s="4" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -18560,7 +18974,7 @@
       <c r="E563" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F563" s="5" t="s">
+      <c r="F563" s="4" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -18580,7 +18994,7 @@
       <c r="E564" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F564" s="5" t="s">
+      <c r="F564" s="4" t="s">
         <v>1670</v>
       </c>
     </row>
@@ -18600,7 +19014,7 @@
       <c r="E565" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F565" s="5" t="s">
+      <c r="F565" s="4" t="s">
         <v>1671</v>
       </c>
     </row>
@@ -18631,7 +19045,7 @@
       <c r="B567" s="4" t="s">
         <v>1675</v>
       </c>
-      <c r="C567" s="7" t="s">
+      <c r="C567" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D567" s="4" t="s">
@@ -18640,7 +19054,7 @@
       <c r="E567" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F567" s="5" t="s">
+      <c r="F567" s="4" t="s">
         <v>1677</v>
       </c>
     </row>
@@ -18651,7 +19065,7 @@
       <c r="B568" s="4" t="s">
         <v>1676</v>
       </c>
-      <c r="C568" s="7" t="s">
+      <c r="C568" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D568" s="4" t="s">
@@ -18660,7 +19074,7 @@
       <c r="E568" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F568" s="5" t="s">
+      <c r="F568" s="4" t="s">
         <v>1678</v>
       </c>
     </row>
@@ -19420,7 +19834,7 @@
       <c r="E606" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F606" s="5" t="s">
+      <c r="F606" s="4" t="s">
         <v>1789</v>
       </c>
     </row>
@@ -19440,7 +19854,7 @@
       <c r="E607" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F607" s="5" t="s">
+      <c r="F607" s="4" t="s">
         <v>1790</v>
       </c>
     </row>
@@ -19460,7 +19874,7 @@
       <c r="E608" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F608" s="5" t="s">
+      <c r="F608" s="4" t="s">
         <v>1791</v>
       </c>
     </row>
@@ -19480,7 +19894,7 @@
       <c r="E609" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F609" s="5" t="s">
+      <c r="F609" s="4" t="s">
         <v>1792</v>
       </c>
     </row>
@@ -19500,7 +19914,7 @@
       <c r="E610" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F610" s="5" t="s">
+      <c r="F610" s="4" t="s">
         <v>1793</v>
       </c>
     </row>
@@ -19520,7 +19934,7 @@
       <c r="E611" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F611" s="5" t="s">
+      <c r="F611" s="4" t="s">
         <v>1794</v>
       </c>
     </row>
@@ -19540,7 +19954,7 @@
       <c r="E612" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F612" s="5" t="s">
+      <c r="F612" s="4" t="s">
         <v>1795</v>
       </c>
     </row>
@@ -19560,7 +19974,7 @@
       <c r="E613" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F613" s="5" t="s">
+      <c r="F613" s="4" t="s">
         <v>1796</v>
       </c>
     </row>
@@ -19580,7 +19994,7 @@
       <c r="E614" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F614" s="5" t="s">
+      <c r="F614" s="4" t="s">
         <v>1797</v>
       </c>
     </row>
@@ -19600,7 +20014,7 @@
       <c r="E615" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F615" s="5" t="s">
+      <c r="F615" s="4" t="s">
         <v>1798</v>
       </c>
     </row>
@@ -19620,7 +20034,7 @@
       <c r="E616" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F616" s="5" t="s">
+      <c r="F616" s="4" t="s">
         <v>1799</v>
       </c>
     </row>
@@ -19640,7 +20054,7 @@
       <c r="E617" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F617" s="5" t="s">
+      <c r="F617" s="4" t="s">
         <v>1800</v>
       </c>
     </row>
@@ -19660,7 +20074,7 @@
       <c r="E618" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F618" s="5" t="s">
+      <c r="F618" s="4" t="s">
         <v>1801</v>
       </c>
     </row>
@@ -19680,7 +20094,7 @@
       <c r="E619" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F619" s="5" t="s">
+      <c r="F619" s="4" t="s">
         <v>1802</v>
       </c>
     </row>
@@ -19700,7 +20114,7 @@
       <c r="E620" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F620" s="5" t="s">
+      <c r="F620" s="4" t="s">
         <v>1803</v>
       </c>
     </row>
@@ -19720,7 +20134,7 @@
       <c r="E621" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F621" s="5" t="s">
+      <c r="F621" s="4" t="s">
         <v>1804</v>
       </c>
     </row>
@@ -19740,7 +20154,7 @@
       <c r="E622" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F622" s="5" t="s">
+      <c r="F622" s="4" t="s">
         <v>1805</v>
       </c>
     </row>
@@ -19760,7 +20174,7 @@
       <c r="E623" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F623" s="5" t="s">
+      <c r="F623" s="4" t="s">
         <v>1806</v>
       </c>
     </row>
@@ -19780,7 +20194,7 @@
       <c r="E624" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F624" s="12" t="s">
+      <c r="F624" s="11" t="s">
         <v>1898</v>
       </c>
     </row>
@@ -19800,7 +20214,7 @@
       <c r="E625" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F625" s="5" t="s">
+      <c r="F625" s="4" t="s">
         <v>1900</v>
       </c>
     </row>
@@ -19820,7 +20234,7 @@
       <c r="E626" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F626" s="5" t="s">
+      <c r="F626" s="4" t="s">
         <v>1901</v>
       </c>
     </row>
@@ -19840,7 +20254,7 @@
       <c r="E627" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F627" s="5" t="s">
+      <c r="F627" s="4" t="s">
         <v>1902</v>
       </c>
     </row>
@@ -19858,7 +20272,7 @@
       <c r="E628" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F628" s="5" t="s">
+      <c r="F628" s="4" t="s">
         <v>1906</v>
       </c>
     </row>
@@ -19878,7 +20292,7 @@
       <c r="E629" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F629" s="5" t="s">
+      <c r="F629" s="4" t="s">
         <v>1909</v>
       </c>
     </row>
@@ -19892,13 +20306,13 @@
       <c r="C630" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D630" s="11" t="s">
+      <c r="D630" s="10" t="s">
         <v>1984</v>
       </c>
       <c r="E630" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F630" s="5" t="s">
+      <c r="F630" s="4" t="s">
         <v>1985</v>
       </c>
     </row>
@@ -19912,13 +20326,13 @@
       <c r="C631" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D631" s="11" t="s">
+      <c r="D631" s="10" t="s">
         <v>1987</v>
       </c>
       <c r="E631" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F631" s="5" t="s">
+      <c r="F631" s="4" t="s">
         <v>1988</v>
       </c>
     </row>
@@ -19932,13 +20346,13 @@
       <c r="C632" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D632" s="11" t="s">
+      <c r="D632" s="10" t="s">
         <v>1949</v>
       </c>
       <c r="E632" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F632" s="5" t="s">
+      <c r="F632" s="4" t="s">
         <v>1910</v>
       </c>
     </row>
@@ -19952,13 +20366,13 @@
       <c r="C633" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D633" s="11" t="s">
+      <c r="D633" s="10" t="s">
         <v>1986</v>
       </c>
       <c r="E633" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F633" s="5" t="s">
+      <c r="F633" s="4" t="s">
         <v>1989</v>
       </c>
     </row>
@@ -19972,13 +20386,13 @@
       <c r="C634" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D634" s="11" t="s">
+      <c r="D634" s="10" t="s">
         <v>1950</v>
       </c>
       <c r="E634" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F634" s="5" t="s">
+      <c r="F634" s="4" t="s">
         <v>1911</v>
       </c>
     </row>
@@ -19992,13 +20406,13 @@
       <c r="C635" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D635" s="11" t="s">
+      <c r="D635" s="10" t="s">
         <v>1951</v>
       </c>
       <c r="E635" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F635" s="5" t="s">
+      <c r="F635" s="4" t="s">
         <v>1912</v>
       </c>
     </row>
@@ -20012,13 +20426,13 @@
       <c r="C636" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D636" s="11" t="s">
+      <c r="D636" s="10" t="s">
         <v>1952</v>
       </c>
       <c r="E636" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F636" s="5" t="s">
+      <c r="F636" s="4" t="s">
         <v>1913</v>
       </c>
     </row>
@@ -20032,13 +20446,13 @@
       <c r="C637" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D637" s="11" t="s">
+      <c r="D637" s="10" t="s">
         <v>1953</v>
       </c>
       <c r="E637" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F637" s="5" t="s">
+      <c r="F637" s="4" t="s">
         <v>1914</v>
       </c>
     </row>
@@ -20052,13 +20466,13 @@
       <c r="C638" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D638" s="11" t="s">
+      <c r="D638" s="10" t="s">
         <v>1954</v>
       </c>
       <c r="E638" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F638" s="5" t="s">
+      <c r="F638" s="4" t="s">
         <v>1915</v>
       </c>
     </row>
@@ -20072,13 +20486,13 @@
       <c r="C639" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D639" s="11" t="s">
+      <c r="D639" s="10" t="s">
         <v>1955</v>
       </c>
       <c r="E639" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F639" s="5" t="s">
+      <c r="F639" s="4" t="s">
         <v>1916</v>
       </c>
     </row>
@@ -20092,13 +20506,13 @@
       <c r="C640" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D640" s="11" t="s">
+      <c r="D640" s="10" t="s">
         <v>1956</v>
       </c>
       <c r="E640" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F640" s="5" t="s">
+      <c r="F640" s="4" t="s">
         <v>1917</v>
       </c>
     </row>
@@ -20112,13 +20526,13 @@
       <c r="C641" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D641" s="11" t="s">
+      <c r="D641" s="10" t="s">
         <v>1957</v>
       </c>
       <c r="E641" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F641" s="5" t="s">
+      <c r="F641" s="4" t="s">
         <v>1918</v>
       </c>
     </row>
@@ -20132,13 +20546,13 @@
       <c r="C642" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D642" s="11" t="s">
+      <c r="D642" s="10" t="s">
         <v>1958</v>
       </c>
       <c r="E642" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F642" s="5" t="s">
+      <c r="F642" s="4" t="s">
         <v>1919</v>
       </c>
     </row>
@@ -20152,13 +20566,13 @@
       <c r="C643" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D643" s="11" t="s">
+      <c r="D643" s="10" t="s">
         <v>1959</v>
       </c>
       <c r="E643" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F643" s="5" t="s">
+      <c r="F643" s="4" t="s">
         <v>1920</v>
       </c>
     </row>
@@ -20172,13 +20586,13 @@
       <c r="C644" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D644" s="11" t="s">
+      <c r="D644" s="10" t="s">
         <v>1960</v>
       </c>
       <c r="E644" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F644" s="5" t="s">
+      <c r="F644" s="4" t="s">
         <v>1921</v>
       </c>
     </row>
@@ -20192,13 +20606,13 @@
       <c r="C645" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D645" s="11" t="s">
+      <c r="D645" s="10" t="s">
         <v>1961</v>
       </c>
       <c r="E645" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F645" s="5" t="s">
+      <c r="F645" s="4" t="s">
         <v>1922</v>
       </c>
     </row>
@@ -20212,13 +20626,13 @@
       <c r="C646" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D646" s="11" t="s">
+      <c r="D646" s="10" t="s">
         <v>1962</v>
       </c>
       <c r="E646" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F646" s="5" t="s">
+      <c r="F646" s="4" t="s">
         <v>1923</v>
       </c>
     </row>
@@ -20232,13 +20646,13 @@
       <c r="C647" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D647" s="11" t="s">
+      <c r="D647" s="10" t="s">
         <v>1990</v>
       </c>
       <c r="E647" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F647" s="5" t="s">
+      <c r="F647" s="4" t="s">
         <v>1991</v>
       </c>
     </row>
@@ -20252,13 +20666,13 @@
       <c r="C648" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D648" s="11" t="s">
+      <c r="D648" s="10" t="s">
         <v>1963</v>
       </c>
       <c r="E648" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F648" s="5" t="s">
+      <c r="F648" s="4" t="s">
         <v>1924</v>
       </c>
     </row>
@@ -20272,13 +20686,13 @@
       <c r="C649" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D649" s="11" t="s">
+      <c r="D649" s="10" t="s">
         <v>1964</v>
       </c>
       <c r="E649" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F649" s="5" t="s">
+      <c r="F649" s="4" t="s">
         <v>1925</v>
       </c>
     </row>
@@ -20292,13 +20706,13 @@
       <c r="C650" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D650" s="11" t="s">
+      <c r="D650" s="10" t="s">
         <v>1992</v>
       </c>
       <c r="E650" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F650" s="5" t="s">
+      <c r="F650" s="4" t="s">
         <v>1993</v>
       </c>
     </row>
@@ -20312,13 +20726,13 @@
       <c r="C651" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D651" s="13" t="s">
+      <c r="D651" s="10" t="s">
         <v>1996</v>
       </c>
       <c r="E651" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F651" s="5" t="s">
+      <c r="F651" s="4" t="s">
         <v>1999</v>
       </c>
     </row>
@@ -20332,13 +20746,13 @@
       <c r="C652" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D652" s="13" t="s">
+      <c r="D652" s="10" t="s">
         <v>1997</v>
       </c>
       <c r="E652" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F652" s="5" t="s">
+      <c r="F652" s="4" t="s">
         <v>1998</v>
       </c>
     </row>
@@ -20352,13 +20766,13 @@
       <c r="C653" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D653" s="11" t="s">
+      <c r="D653" s="10" t="s">
         <v>1965</v>
       </c>
       <c r="E653" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F653" s="5" t="s">
+      <c r="F653" s="4" t="s">
         <v>1926</v>
       </c>
     </row>
@@ -20372,13 +20786,13 @@
       <c r="C654" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D654" s="11" t="s">
+      <c r="D654" s="10" t="s">
         <v>1966</v>
       </c>
       <c r="E654" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F654" s="5" t="s">
+      <c r="F654" s="4" t="s">
         <v>1927</v>
       </c>
     </row>
@@ -20392,13 +20806,13 @@
       <c r="C655" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D655" s="11" t="s">
+      <c r="D655" s="10" t="s">
         <v>1967</v>
       </c>
       <c r="E655" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F655" s="5" t="s">
+      <c r="F655" s="4" t="s">
         <v>1928</v>
       </c>
     </row>
@@ -20412,13 +20826,13 @@
       <c r="C656" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D656" s="13" t="s">
+      <c r="D656" s="10" t="s">
         <v>2000</v>
       </c>
       <c r="E656" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F656" s="5" t="s">
+      <c r="F656" s="4" t="s">
         <v>2002</v>
       </c>
     </row>
@@ -20432,13 +20846,13 @@
       <c r="C657" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D657" s="13" t="s">
+      <c r="D657" s="10" t="s">
         <v>2001</v>
       </c>
       <c r="E657" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F657" s="5" t="s">
+      <c r="F657" s="4" t="s">
         <v>2003</v>
       </c>
     </row>
@@ -20452,13 +20866,13 @@
       <c r="C658" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D658" s="13" t="s">
+      <c r="D658" s="10" t="s">
         <v>2008</v>
       </c>
       <c r="E658" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F658" s="5" t="s">
+      <c r="F658" s="4" t="s">
         <v>2009</v>
       </c>
     </row>
@@ -20472,13 +20886,13 @@
       <c r="C659" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D659" s="11" t="s">
+      <c r="D659" s="10" t="s">
         <v>1968</v>
       </c>
       <c r="E659" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F659" s="5" t="s">
+      <c r="F659" s="4" t="s">
         <v>1929</v>
       </c>
     </row>
@@ -20492,13 +20906,13 @@
       <c r="C660" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D660" s="11" t="s">
+      <c r="D660" s="10" t="s">
         <v>1969</v>
       </c>
       <c r="E660" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F660" s="5" t="s">
+      <c r="F660" s="4" t="s">
         <v>1930</v>
       </c>
     </row>
@@ -20512,13 +20926,13 @@
       <c r="C661" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D661" s="13" t="s">
+      <c r="D661" s="10" t="s">
         <v>2010</v>
       </c>
       <c r="E661" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F661" s="5" t="s">
+      <c r="F661" s="4" t="s">
         <v>2011</v>
       </c>
     </row>
@@ -20532,13 +20946,13 @@
       <c r="C662" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D662" s="13" t="s">
+      <c r="D662" s="10" t="s">
         <v>2012</v>
       </c>
       <c r="E662" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F662" s="5" t="s">
+      <c r="F662" s="4" t="s">
         <v>2013</v>
       </c>
     </row>
@@ -20552,13 +20966,13 @@
       <c r="C663" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D663" s="13" t="s">
+      <c r="D663" s="10" t="s">
         <v>2014</v>
       </c>
       <c r="E663" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F663" s="5" t="s">
+      <c r="F663" s="4" t="s">
         <v>2015</v>
       </c>
     </row>
@@ -20572,13 +20986,13 @@
       <c r="C664" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D664" s="11" t="s">
+      <c r="D664" s="10" t="s">
         <v>1970</v>
       </c>
       <c r="E664" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F664" s="5" t="s">
+      <c r="F664" s="4" t="s">
         <v>1931</v>
       </c>
     </row>
@@ -20592,13 +21006,13 @@
       <c r="C665" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D665" s="11" t="s">
+      <c r="D665" s="10" t="s">
         <v>1971</v>
       </c>
       <c r="E665" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F665" s="5" t="s">
+      <c r="F665" s="4" t="s">
         <v>1932</v>
       </c>
     </row>
@@ -20612,13 +21026,13 @@
       <c r="C666" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D666" s="13" t="s">
+      <c r="D666" s="10" t="s">
         <v>2016</v>
       </c>
       <c r="E666" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F666" s="5" t="s">
+      <c r="F666" s="4" t="s">
         <v>2017</v>
       </c>
     </row>
@@ -20632,13 +21046,13 @@
       <c r="C667" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D667" s="11" t="s">
+      <c r="D667" s="10" t="s">
         <v>1972</v>
       </c>
       <c r="E667" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F667" s="5" t="s">
+      <c r="F667" s="4" t="s">
         <v>1933</v>
       </c>
     </row>
@@ -20652,13 +21066,13 @@
       <c r="C668" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D668" s="11" t="s">
+      <c r="D668" s="10" t="s">
         <v>1973</v>
       </c>
       <c r="E668" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F668" s="5" t="s">
+      <c r="F668" s="4" t="s">
         <v>1934</v>
       </c>
     </row>
@@ -20672,13 +21086,13 @@
       <c r="C669" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D669" s="11" t="s">
+      <c r="D669" s="10" t="s">
         <v>1974</v>
       </c>
       <c r="E669" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F669" s="5" t="s">
+      <c r="F669" s="4" t="s">
         <v>1935</v>
       </c>
     </row>
@@ -20692,13 +21106,13 @@
       <c r="C670" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D670" s="11" t="s">
+      <c r="D670" s="10" t="s">
         <v>1975</v>
       </c>
       <c r="E670" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F670" s="5" t="s">
+      <c r="F670" s="4" t="s">
         <v>1936</v>
       </c>
     </row>
@@ -20712,13 +21126,13 @@
       <c r="C671" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D671" s="13" t="s">
+      <c r="D671" s="10" t="s">
         <v>2005</v>
       </c>
       <c r="E671" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F671" s="5" t="s">
+      <c r="F671" s="4" t="s">
         <v>2006</v>
       </c>
     </row>
@@ -20732,13 +21146,13 @@
       <c r="C672" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D672" s="13" t="s">
+      <c r="D672" s="10" t="s">
         <v>2004</v>
       </c>
       <c r="E672" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F672" s="5" t="s">
+      <c r="F672" s="4" t="s">
         <v>2007</v>
       </c>
     </row>
@@ -20752,13 +21166,13 @@
       <c r="C673" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D673" s="11" t="s">
+      <c r="D673" s="10" t="s">
         <v>1976</v>
       </c>
       <c r="E673" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F673" s="5" t="s">
+      <c r="F673" s="4" t="s">
         <v>1937</v>
       </c>
     </row>
@@ -20772,13 +21186,13 @@
       <c r="C674" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D674" s="11" t="s">
+      <c r="D674" s="10" t="s">
         <v>1977</v>
       </c>
       <c r="E674" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F674" s="5" t="s">
+      <c r="F674" s="4" t="s">
         <v>1938</v>
       </c>
     </row>
@@ -20792,13 +21206,13 @@
       <c r="C675" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D675" s="11" t="s">
+      <c r="D675" s="10" t="s">
         <v>1978</v>
       </c>
       <c r="E675" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F675" s="5" t="s">
+      <c r="F675" s="4" t="s">
         <v>1939</v>
       </c>
     </row>
@@ -20812,13 +21226,13 @@
       <c r="C676" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D676" s="11" t="s">
+      <c r="D676" s="10" t="s">
         <v>1979</v>
       </c>
       <c r="E676" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F676" s="5" t="s">
+      <c r="F676" s="4" t="s">
         <v>1940</v>
       </c>
     </row>
@@ -20832,13 +21246,13 @@
       <c r="C677" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D677" s="13" t="s">
+      <c r="D677" s="10" t="s">
         <v>1994</v>
       </c>
       <c r="E677" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F677" s="5" t="s">
+      <c r="F677" s="4" t="s">
         <v>1995</v>
       </c>
     </row>
@@ -20852,13 +21266,13 @@
       <c r="C678" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D678" s="11" t="s">
+      <c r="D678" s="10" t="s">
         <v>1980</v>
       </c>
       <c r="E678" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F678" s="5" t="s">
+      <c r="F678" s="4" t="s">
         <v>1941</v>
       </c>
     </row>
@@ -20872,13 +21286,13 @@
       <c r="C679" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D679" s="11" t="s">
+      <c r="D679" s="10" t="s">
         <v>1981</v>
       </c>
       <c r="E679" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F679" s="5" t="s">
+      <c r="F679" s="4" t="s">
         <v>1942</v>
       </c>
     </row>
@@ -20892,13 +21306,13 @@
       <c r="C680" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D680" s="11" t="s">
+      <c r="D680" s="10" t="s">
         <v>1982</v>
       </c>
       <c r="E680" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F680" s="5" t="s">
+      <c r="F680" s="4" t="s">
         <v>1943</v>
       </c>
     </row>
@@ -20912,13 +21326,13 @@
       <c r="C681" s="4" t="s">
         <v>1908</v>
       </c>
-      <c r="D681" s="11" t="s">
+      <c r="D681" s="10" t="s">
         <v>1983</v>
       </c>
       <c r="E681" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F681" s="5" t="s">
+      <c r="F681" s="4" t="s">
         <v>1944</v>
       </c>
     </row>
@@ -20952,13 +21366,13 @@
       <c r="C683" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D683" s="14" t="s">
+      <c r="D683" s="12" t="s">
         <v>2030</v>
       </c>
       <c r="E683" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F683" s="14" t="s">
+      <c r="F683" s="12" t="s">
         <v>2019</v>
       </c>
     </row>
@@ -20992,13 +21406,13 @@
       <c r="C685" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D685" s="14" t="s">
+      <c r="D685" s="12" t="s">
         <v>2027</v>
       </c>
       <c r="E685" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F685" s="14" t="s">
+      <c r="F685" s="12" t="s">
         <v>2024</v>
       </c>
     </row>
@@ -21032,13 +21446,13 @@
       <c r="C687" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D687" s="14" t="s">
+      <c r="D687" s="12" t="s">
         <v>2074</v>
       </c>
       <c r="E687" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F687" s="14" t="s">
+      <c r="F687" s="12" t="s">
         <v>2032</v>
       </c>
     </row>
@@ -21072,13 +21486,13 @@
       <c r="C689" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D689" s="14" t="s">
+      <c r="D689" s="12" t="s">
         <v>2079</v>
       </c>
       <c r="E689" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F689" s="14" t="s">
+      <c r="F689" s="12" t="s">
         <v>2034</v>
       </c>
     </row>
@@ -21098,7 +21512,7 @@
       <c r="E690" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F690" s="5" t="s">
+      <c r="F690" s="4" t="s">
         <v>2035</v>
       </c>
     </row>
@@ -21112,13 +21526,13 @@
       <c r="C691" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D691" s="14" t="s">
+      <c r="D691" s="12" t="s">
         <v>2075</v>
       </c>
       <c r="E691" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F691" s="5" t="s">
+      <c r="F691" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
@@ -21152,13 +21566,13 @@
       <c r="C693" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D693" s="14" t="s">
+      <c r="D693" s="12" t="s">
         <v>2080</v>
       </c>
       <c r="E693" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F693" s="14" t="s">
+      <c r="F693" s="12" t="s">
         <v>2038</v>
       </c>
     </row>
@@ -21192,13 +21606,13 @@
       <c r="C695" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D695" s="14" t="s">
+      <c r="D695" s="12" t="s">
         <v>2077</v>
       </c>
       <c r="E695" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F695" s="14" t="s">
+      <c r="F695" s="12" t="s">
         <v>2040</v>
       </c>
     </row>
@@ -21232,13 +21646,13 @@
       <c r="C697" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D697" s="14" t="s">
+      <c r="D697" s="12" t="s">
         <v>2086</v>
       </c>
       <c r="E697" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F697" s="14" t="s">
+      <c r="F697" s="12" t="s">
         <v>2042</v>
       </c>
     </row>
@@ -21272,13 +21686,13 @@
       <c r="C699" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D699" s="14" t="s">
+      <c r="D699" s="12" t="s">
         <v>2087</v>
       </c>
       <c r="E699" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F699" s="14" t="s">
+      <c r="F699" s="12" t="s">
         <v>2044</v>
       </c>
     </row>
@@ -21312,13 +21726,13 @@
       <c r="C701" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D701" s="14" t="s">
+      <c r="D701" s="12" t="s">
         <v>2078</v>
       </c>
       <c r="E701" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F701" s="14" t="s">
+      <c r="F701" s="12" t="s">
         <v>2046</v>
       </c>
     </row>
@@ -21352,13 +21766,13 @@
       <c r="C703" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D703" s="14" t="s">
+      <c r="D703" s="12" t="s">
         <v>2089</v>
       </c>
       <c r="E703" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F703" s="14" t="s">
+      <c r="F703" s="12" t="s">
         <v>2048</v>
       </c>
     </row>
@@ -21392,13 +21806,13 @@
       <c r="C705" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D705" s="14" t="s">
+      <c r="D705" s="12" t="s">
         <v>2090</v>
       </c>
       <c r="E705" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F705" s="14" t="s">
+      <c r="F705" s="12" t="s">
         <v>2049</v>
       </c>
     </row>
@@ -21412,59 +21826,59 @@
       <c r="C706" s="4" t="s">
         <v>2022</v>
       </c>
-      <c r="D706" s="14" t="s">
+      <c r="D706" s="12" t="s">
         <v>2091</v>
       </c>
       <c r="E706" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F706" s="14" t="s">
+      <c r="F706" s="12" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="707" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A707" s="14" t="s">
-        <v>2092</v>
+      <c r="A707" s="4" t="s">
+        <v>2093</v>
       </c>
       <c r="B707" s="4" t="s">
         <v>2095</v>
       </c>
-      <c r="C707" s="14" t="s">
+      <c r="C707" s="12" t="s">
         <v>2022</v>
       </c>
-      <c r="D707" s="14" t="s">
+      <c r="D707" s="12" t="s">
         <v>2094</v>
       </c>
       <c r="E707" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F707" s="5" t="s">
+      <c r="F707" s="4" t="s">
         <v>2096</v>
       </c>
     </row>
     <row r="708" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A708" s="14" t="s">
-        <v>2092</v>
+      <c r="A708" s="4" t="s">
+        <v>2093</v>
       </c>
       <c r="B708" s="4" t="s">
         <v>2098</v>
       </c>
-      <c r="C708" s="14" t="s">
+      <c r="C708" s="12" t="s">
         <v>2022</v>
       </c>
-      <c r="D708" s="14" t="s">
+      <c r="D708" s="12" t="s">
         <v>2097</v>
       </c>
       <c r="E708" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F708" s="5" t="s">
+      <c r="F708" s="4" t="s">
         <v>2099</v>
       </c>
     </row>
     <row r="709" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="4" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="B709" s="4" t="s">
         <v>2104</v>
@@ -21478,38 +21892,38 @@
       <c r="E709" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F709" s="5" t="s">
+      <c r="F709" s="4" t="s">
         <v>2100</v>
       </c>
     </row>
     <row r="710" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A710" s="14" t="s">
-        <v>2092</v>
+      <c r="A710" s="4" t="s">
+        <v>2093</v>
       </c>
       <c r="B710" s="4" t="s">
         <v>2105</v>
       </c>
-      <c r="C710" s="14" t="s">
+      <c r="C710" s="12" t="s">
         <v>2022</v>
       </c>
-      <c r="D710" s="14" t="s">
+      <c r="D710" s="12" t="s">
         <v>2109</v>
       </c>
       <c r="E710" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F710" s="5" t="s">
+      <c r="F710" s="4" t="s">
         <v>2101</v>
       </c>
     </row>
     <row r="711" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A711" s="14" t="s">
-        <v>2092</v>
+      <c r="A711" s="4" t="s">
+        <v>2093</v>
       </c>
       <c r="B711" s="4" t="s">
         <v>2106</v>
       </c>
-      <c r="C711" s="14" t="s">
+      <c r="C711" s="12" t="s">
         <v>2022</v>
       </c>
       <c r="D711" s="4" t="s">
@@ -21523,63 +21937,1063 @@
       </c>
     </row>
     <row r="712" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A712" s="14" t="s">
-        <v>2092</v>
+      <c r="A712" s="4" t="s">
+        <v>2093</v>
       </c>
       <c r="B712" s="4" t="s">
         <v>2107</v>
       </c>
-      <c r="C712" s="14" t="s">
+      <c r="C712" s="12" t="s">
         <v>2022</v>
       </c>
-      <c r="D712" s="14" t="s">
+      <c r="D712" s="12" t="s">
         <v>2111</v>
       </c>
       <c r="E712" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="F712" s="14" t="s">
+      <c r="F712" s="12" t="s">
         <v>2103</v>
       </c>
     </row>
     <row r="713" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A713" s="14" t="s">
+      <c r="A713" s="4" t="s">
         <v>2093</v>
       </c>
       <c r="B713" s="4" t="s">
         <v>2112</v>
       </c>
-      <c r="C713" s="14" t="s">
+      <c r="C713" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="D713" s="14" t="s">
+      <c r="D713" s="12" t="s">
         <v>2164</v>
       </c>
-      <c r="E713" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F713" s="14" t="s">
+      <c r="E713" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F713" s="12" t="s">
         <v>2166</v>
       </c>
     </row>
     <row r="714" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A714" s="14" t="s">
+      <c r="A714" s="4" t="s">
         <v>2093</v>
       </c>
       <c r="B714" s="4" t="s">
         <v>2113</v>
       </c>
-      <c r="C714" s="14" t="s">
+      <c r="C714" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="D714" s="14" t="s">
+      <c r="D714" s="12" t="s">
         <v>2163</v>
       </c>
-      <c r="E714" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="F714" s="14" t="s">
+      <c r="E714" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F714" s="12" t="s">
         <v>2165</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A715" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B715" s="4" t="s">
+        <v>2169</v>
+      </c>
+      <c r="C715" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D715" s="12" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E715" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F715" s="4" t="s">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A716" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B716" s="4" t="s">
+        <v>2170</v>
+      </c>
+      <c r="C716" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D716" s="4" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E716" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F716" s="4" t="s">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="717" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A717" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B717" s="4" t="s">
+        <v>2176</v>
+      </c>
+      <c r="C717" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D717" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E717" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F717" s="4" t="s">
+        <v>2179</v>
+      </c>
+    </row>
+    <row r="718" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A718" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B718" s="4" t="s">
+        <v>2177</v>
+      </c>
+      <c r="C718" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D718" s="4" t="s">
+        <v>2174</v>
+      </c>
+      <c r="E718" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F718" s="4" t="s">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A719" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B719" s="4" t="s">
+        <v>2178</v>
+      </c>
+      <c r="C719" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D719" s="12" t="s">
+        <v>2173</v>
+      </c>
+      <c r="E719" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F719" s="4" t="s">
+        <v>2181</v>
+      </c>
+    </row>
+    <row r="720" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A720" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B720" s="4" t="s">
+        <v>2184</v>
+      </c>
+      <c r="C720" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D720" s="4" t="s">
+        <v>2186</v>
+      </c>
+      <c r="E720" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F720" s="4" t="s">
+        <v>2182</v>
+      </c>
+    </row>
+    <row r="721" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A721" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B721" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="C721" s="12" t="s">
+        <v>418</v>
+      </c>
+      <c r="D721" s="4" t="s">
+        <v>2187</v>
+      </c>
+      <c r="E721" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F721" s="4" t="s">
+        <v>2183</v>
+      </c>
+    </row>
+    <row r="722" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A722" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B722" s="4" t="s">
+        <v>2190</v>
+      </c>
+      <c r="C722" s="12" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D722" s="12" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E722" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F722" s="4" t="s">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="723" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A723" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B723" s="4" t="s">
+        <v>2191</v>
+      </c>
+      <c r="C723" s="12" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D723" s="12" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E723" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F723" s="12" t="s">
+        <v>2189</v>
+      </c>
+    </row>
+    <row r="724" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A724" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B724" s="4" t="s">
+        <v>2193</v>
+      </c>
+      <c r="C724" s="12" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D724" s="12" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E724" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F724" s="12" t="s">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A725" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B725" s="4" t="s">
+        <v>2197</v>
+      </c>
+      <c r="C725" s="12" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D725" s="12" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E725" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F725" s="4" t="s">
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A726" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B726" s="4" t="s">
+        <v>2198</v>
+      </c>
+      <c r="C726" s="12" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D726" s="12" t="s">
+        <v>2097</v>
+      </c>
+      <c r="E726" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F726" s="12" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A727" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B727" s="4" t="s">
+        <v>2200</v>
+      </c>
+      <c r="C727" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D727" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E727" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F727" s="12" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="728" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A728" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B728" s="4" t="s">
+        <v>2202</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D728" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E728" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F728" s="4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A729" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B729" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="C729" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D729" s="12" t="s">
+        <v>2203</v>
+      </c>
+      <c r="E729" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F729" s="13" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="730" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A730" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B730" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="C730" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D730" s="12" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E730" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F730" s="13" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A731" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B731" s="4" t="s">
+        <v>2212</v>
+      </c>
+      <c r="C731" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D731" s="12" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E731" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F731" s="14" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="732" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A732" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B732" s="4" t="s">
+        <v>2215</v>
+      </c>
+      <c r="C732" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D732" s="12" t="s">
+        <v>2217</v>
+      </c>
+      <c r="E732" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F732" s="13" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="733" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A733" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B733" s="4" t="s">
+        <v>2216</v>
+      </c>
+      <c r="C733" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D733" s="12" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E733" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F733" s="14" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="734" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A734" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B734" s="4" t="s">
+        <v>2219</v>
+      </c>
+      <c r="C734" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D734" s="4" t="s">
+        <v>2221</v>
+      </c>
+      <c r="E734" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F734" s="14" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="735" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A735" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B735" s="4" t="s">
+        <v>2222</v>
+      </c>
+      <c r="C735" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D735" s="14" t="s">
+        <v>2288</v>
+      </c>
+      <c r="E735" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F735" s="13" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="736" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A736" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B736" s="4" t="s">
+        <v>2245</v>
+      </c>
+      <c r="C736" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D736" s="14" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E736" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F736" s="14" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="737" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A737" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B737" s="4" t="s">
+        <v>2246</v>
+      </c>
+      <c r="C737" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D737" s="14" t="s">
+        <v>2266</v>
+      </c>
+      <c r="E737" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F737" s="4" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="738" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A738" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B738" s="4" t="s">
+        <v>2247</v>
+      </c>
+      <c r="C738" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D738" s="13" t="s">
+        <v>2267</v>
+      </c>
+      <c r="E738" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F738" s="4" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="739" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A739" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B739" s="4" t="s">
+        <v>2248</v>
+      </c>
+      <c r="C739" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D739" s="13" t="s">
+        <v>2268</v>
+      </c>
+      <c r="E739" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F739" s="4" t="s">
+        <v>2225</v>
+      </c>
+    </row>
+    <row r="740" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A740" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B740" s="4" t="s">
+        <v>2249</v>
+      </c>
+      <c r="C740" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D740" s="13" t="s">
+        <v>2269</v>
+      </c>
+      <c r="E740" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F740" s="4" t="s">
+        <v>2226</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A741" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B741" s="4" t="s">
+        <v>2250</v>
+      </c>
+      <c r="C741" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D741" s="13" t="s">
+        <v>2270</v>
+      </c>
+      <c r="E741" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F741" s="4" t="s">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="742" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A742" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B742" s="4" t="s">
+        <v>2251</v>
+      </c>
+      <c r="C742" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D742" s="13" t="s">
+        <v>2271</v>
+      </c>
+      <c r="E742" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F742" s="4" t="s">
+        <v>2228</v>
+      </c>
+    </row>
+    <row r="743" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A743" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B743" s="4" t="s">
+        <v>2252</v>
+      </c>
+      <c r="C743" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D743" s="13" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E743" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F743" s="4" t="s">
+        <v>2229</v>
+      </c>
+    </row>
+    <row r="744" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A744" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B744" s="4" t="s">
+        <v>2253</v>
+      </c>
+      <c r="C744" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D744" s="13" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E744" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F744" s="4" t="s">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A745" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B745" s="4" t="s">
+        <v>2254</v>
+      </c>
+      <c r="C745" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D745" s="13" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E745" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F745" s="4" t="s">
+        <v>2231</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A746" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B746" s="4" t="s">
+        <v>2255</v>
+      </c>
+      <c r="C746" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D746" s="13" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E746" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F746" s="4" t="s">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A747" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B747" s="4" t="s">
+        <v>2256</v>
+      </c>
+      <c r="C747" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D747" s="13" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E747" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F747" s="4" t="s">
+        <v>2233</v>
+      </c>
+    </row>
+    <row r="748" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A748" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B748" s="4" t="s">
+        <v>2257</v>
+      </c>
+      <c r="C748" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D748" s="13" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E748" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F748" s="4" t="s">
+        <v>2234</v>
+      </c>
+    </row>
+    <row r="749" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A749" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B749" s="4" t="s">
+        <v>2258</v>
+      </c>
+      <c r="C749" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D749" s="13" t="s">
+        <v>2278</v>
+      </c>
+      <c r="E749" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F749" s="4" t="s">
+        <v>2235</v>
+      </c>
+    </row>
+    <row r="750" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A750" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B750" s="4" t="s">
+        <v>2259</v>
+      </c>
+      <c r="C750" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D750" s="13" t="s">
+        <v>2279</v>
+      </c>
+      <c r="E750" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F750" s="4" t="s">
+        <v>2236</v>
+      </c>
+    </row>
+    <row r="751" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A751" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B751" s="4" t="s">
+        <v>2260</v>
+      </c>
+      <c r="C751" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D751" s="13" t="s">
+        <v>2280</v>
+      </c>
+      <c r="E751" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F751" s="4" t="s">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="752" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A752" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B752" s="4" t="s">
+        <v>2261</v>
+      </c>
+      <c r="C752" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D752" s="13" t="s">
+        <v>2281</v>
+      </c>
+      <c r="E752" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F752" s="4" t="s">
+        <v>2238</v>
+      </c>
+    </row>
+    <row r="753" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A753" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B753" s="4" t="s">
+        <v>2262</v>
+      </c>
+      <c r="C753" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D753" s="13" t="s">
+        <v>2282</v>
+      </c>
+      <c r="E753" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F753" s="4" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="754" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A754" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B754" s="4" t="s">
+        <v>2263</v>
+      </c>
+      <c r="C754" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D754" s="13" t="s">
+        <v>2283</v>
+      </c>
+      <c r="E754" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F754" s="4" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="755" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A755" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B755" s="4" t="s">
+        <v>2264</v>
+      </c>
+      <c r="C755" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D755" s="13" t="s">
+        <v>2284</v>
+      </c>
+      <c r="E755" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F755" s="4" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="756" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A756" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B756" s="4" t="s">
+        <v>2265</v>
+      </c>
+      <c r="C756" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D756" s="13" t="s">
+        <v>2285</v>
+      </c>
+      <c r="E756" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F756" s="4" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="757" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A757" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B757" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="C757" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D757" s="13" t="s">
+        <v>2286</v>
+      </c>
+      <c r="E757" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F757" s="4" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="758" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A758" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B758" s="4" t="s">
+        <v>2291</v>
+      </c>
+      <c r="C758" s="14" t="s">
+        <v>2022</v>
+      </c>
+      <c r="D758" s="13" t="s">
+        <v>2287</v>
+      </c>
+      <c r="E758" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F758" s="4" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="759" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A759" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B759" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="C759" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D759" s="4" t="s">
+        <v>2201</v>
+      </c>
+      <c r="E759" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F759" s="13" t="s">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="760" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A760" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B760" s="4" t="s">
+        <v>2295</v>
+      </c>
+      <c r="C760" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D760" s="4" t="s">
+        <v>2296</v>
+      </c>
+      <c r="E760" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F760" s="14" t="s">
+        <v>2293</v>
+      </c>
+    </row>
+    <row r="761" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A761" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B761" s="4" t="s">
+        <v>2299</v>
+      </c>
+      <c r="C761" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="D761" s="4" t="s">
+        <v>2298</v>
+      </c>
+      <c r="E761" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F761" s="13" t="s">
+        <v>2297</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A762" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B762" s="4" t="s">
+        <v>2300</v>
+      </c>
+      <c r="C762" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D762" s="12" t="s">
+        <v>2204</v>
+      </c>
+      <c r="E762" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F762" s="14" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="763" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A763" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B763" s="4" t="s">
+        <v>2303</v>
+      </c>
+      <c r="C763" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D763" s="12" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E763" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F763" s="13" t="s">
+        <v>2301</v>
+      </c>
+    </row>
+    <row r="764" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A764" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="B764" s="4" t="s">
+        <v>2304</v>
+      </c>
+      <c r="C764" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="D764" s="12" t="s">
+        <v>2210</v>
+      </c>
+      <c r="E764" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F764" s="14" t="s">
+        <v>2302</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F542A426-E874-4FAF-ABB7-B0477A326519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67965130-6068-44F0-80CD-5A8E419DDDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7316" uniqueCount="3597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="3677">
   <si>
     <t>RunTest</t>
   </si>
@@ -10829,6 +10829,246 @@
   </si>
   <si>
     <t>Aim of the Script  is to Verify if user can select feed filters from search window and save preferences when FW tab auto launch OFF</t>
+  </si>
+  <si>
+    <t>FW_UI_1283</t>
+  </si>
+  <si>
+    <t>Verify_MemoryLeak</t>
+  </si>
+  <si>
+    <t>Verify_PublishMemoryLeak</t>
+  </si>
+  <si>
+    <t>Verify if error pops up on tear out tab, test for memory leak on clicking Headlines for several hours</t>
+  </si>
+  <si>
+    <t>Verify if error pops up on tear out tab, test for memory leak on publishing Headlines for several hours</t>
+  </si>
+  <si>
+    <t>FW_UI_1284</t>
+  </si>
+  <si>
+    <t>VerifyJobRolesCases</t>
+  </si>
+  <si>
+    <t>FW_UI_1285</t>
+  </si>
+  <si>
+    <t>REOPEN,AUTOMATIONS</t>
+  </si>
+  <si>
+    <t>REOPEN,COMPANYLIST</t>
+  </si>
+  <si>
+    <t>REOPEN,FEEDFILTERS</t>
+  </si>
+  <si>
+    <t>REOPEN,WEBWATCH</t>
+  </si>
+  <si>
+    <t>REOPEN,FEEDWEBWATCH</t>
+  </si>
+  <si>
+    <t>REOPEN,COMPANYWEBWATCH</t>
+  </si>
+  <si>
+    <t>REOPEN,AUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>REOPEN,FEEDCOMPANY</t>
+  </si>
+  <si>
+    <t>REOPEN,FEEDAUTOMATIONS</t>
+  </si>
+  <si>
+    <t>REOPEN,FEEDAUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>REOPEN,COMPANYAUTOMATIONS</t>
+  </si>
+  <si>
+    <t>REOPEN,COMPANYAUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>FW_UI_1286</t>
+  </si>
+  <si>
+    <t>FW_UI_1287</t>
+  </si>
+  <si>
+    <t>FW_UI_1288</t>
+  </si>
+  <si>
+    <t>FW_UI_1289</t>
+  </si>
+  <si>
+    <t>FW_UI_1290</t>
+  </si>
+  <si>
+    <t>FW_UI_1291</t>
+  </si>
+  <si>
+    <t>FW_UI_1292</t>
+  </si>
+  <si>
+    <t>FW_UI_1293</t>
+  </si>
+  <si>
+    <t>FW_UI_1294</t>
+  </si>
+  <si>
+    <t>FW_UI_1295</t>
+  </si>
+  <si>
+    <t>FW_UI_1296</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected automations filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected webwatchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed filters and webwatchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list filters and webwatchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected automations filters and webwatchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed and company list filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed and automations filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed, automations filters and web watchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list , automations filters retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list, automations filters and web watchers retained in next session when user reopens fastwire</t>
+  </si>
+  <si>
+    <t>RELAUNCH,AUTOMATIONS</t>
+  </si>
+  <si>
+    <t>RELAUNCH,COMPANYLIST</t>
+  </si>
+  <si>
+    <t>RELAUNCH,FEEDFILTERS</t>
+  </si>
+  <si>
+    <t>RELAUNCH,WEBWATCH</t>
+  </si>
+  <si>
+    <t>RELAUNCH,FEEDWEBWATCH</t>
+  </si>
+  <si>
+    <t>RELAUNCH,COMPANYWEBWATCH</t>
+  </si>
+  <si>
+    <t>RELAUNCH,AUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>RELAUNCH,FEEDCOMPANY</t>
+  </si>
+  <si>
+    <t>RELAUNCH,FEEDAUTOMATIONS</t>
+  </si>
+  <si>
+    <t>RELAUNCH,FEEDAUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>RELAUNCH,COMPANYAUTOMATIONS</t>
+  </si>
+  <si>
+    <t>RELAUNCH,COMPANYAUTOMATIONSWEBWATCH</t>
+  </si>
+  <si>
+    <t>FW_UI_1297</t>
+  </si>
+  <si>
+    <t>FW_UI_1298</t>
+  </si>
+  <si>
+    <t>FW_UI_1299</t>
+  </si>
+  <si>
+    <t>FW_UI_1300</t>
+  </si>
+  <si>
+    <t>FW_UI_1301</t>
+  </si>
+  <si>
+    <t>FW_UI_1302</t>
+  </si>
+  <si>
+    <t>FW_UI_1303</t>
+  </si>
+  <si>
+    <t>FW_UI_1304</t>
+  </si>
+  <si>
+    <t>FW_UI_1305</t>
+  </si>
+  <si>
+    <t>FW_UI_1306</t>
+  </si>
+  <si>
+    <t>FW_UI_1307</t>
+  </si>
+  <si>
+    <t>FW_UI_1308</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected automations filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected webwatchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed filters and webwatchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list filters and webwatchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected automations filters and webwatchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed and company list filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed and automations filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected feed, automations filters and web watchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list , automations filters retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>Aim of the Script is to verify Whether selected company list, automations filters and web watchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>VerifyWWScenarios</t>
   </si>
 </sst>
 </file>
@@ -10971,7 +11211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11016,6 +11256,21 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11265,7 +11520,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F1283" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F1309" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -11279,9 +11534,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11319,9 +11574,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11354,26 +11609,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -11406,26 +11644,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -11600,10 +11821,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F1283"/>
+  <dimension ref="A1:F1309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A874" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D888" sqref="D888"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11640,7 +11861,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -11660,7 +11881,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -11680,7 +11901,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -11700,7 +11921,7 @@
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -11720,7 +11941,7 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -11740,7 +11961,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -11760,7 +11981,7 @@
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -11780,7 +12001,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -11800,7 +12021,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -11820,7 +12041,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>2054</v>
+        <v>3430</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -29222,7 +29443,7 @@
     </row>
     <row r="900" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B900" s="4" t="s">
         <v>2989</v>
@@ -29242,7 +29463,7 @@
     </row>
     <row r="901" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B901" s="4" t="s">
         <v>2990</v>
@@ -29262,7 +29483,7 @@
     </row>
     <row r="902" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B902" s="4" t="s">
         <v>2991</v>
@@ -29282,7 +29503,7 @@
     </row>
     <row r="903" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B903" s="4" t="s">
         <v>2992</v>
@@ -29302,7 +29523,7 @@
     </row>
     <row r="904" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B904" s="4" t="s">
         <v>2993</v>
@@ -29322,7 +29543,7 @@
     </row>
     <row r="905" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B905" s="4" t="s">
         <v>2994</v>
@@ -29342,7 +29563,7 @@
     </row>
     <row r="906" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B906" s="4" t="s">
         <v>2995</v>
@@ -29362,7 +29583,7 @@
     </row>
     <row r="907" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B907" s="4" t="s">
         <v>2996</v>
@@ -29382,7 +29603,7 @@
     </row>
     <row r="908" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B908" s="4" t="s">
         <v>2997</v>
@@ -29402,7 +29623,7 @@
     </row>
     <row r="909" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B909" s="4" t="s">
         <v>2998</v>
@@ -29422,7 +29643,7 @@
     </row>
     <row r="910" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B910" s="4" t="s">
         <v>2999</v>
@@ -29442,7 +29663,7 @@
     </row>
     <row r="911" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B911" s="4" t="s">
         <v>3000</v>
@@ -29462,7 +29683,7 @@
     </row>
     <row r="912" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B912" s="4" t="s">
         <v>3001</v>
@@ -29482,7 +29703,7 @@
     </row>
     <row r="913" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B913" s="4" t="s">
         <v>3002</v>
@@ -29502,7 +29723,7 @@
     </row>
     <row r="914" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B914" s="4" t="s">
         <v>3003</v>
@@ -29522,7 +29743,7 @@
     </row>
     <row r="915" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B915" s="4" t="s">
         <v>3004</v>
@@ -29542,7 +29763,7 @@
     </row>
     <row r="916" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B916" s="4" t="s">
         <v>3005</v>
@@ -29562,7 +29783,7 @@
     </row>
     <row r="917" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B917" s="4" t="s">
         <v>3006</v>
@@ -29582,7 +29803,7 @@
     </row>
     <row r="918" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B918" s="4" t="s">
         <v>3007</v>
@@ -29602,7 +29823,7 @@
     </row>
     <row r="919" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B919" s="4" t="s">
         <v>3008</v>
@@ -29622,7 +29843,7 @@
     </row>
     <row r="920" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B920" s="4" t="s">
         <v>3009</v>
@@ -29642,7 +29863,7 @@
     </row>
     <row r="921" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B921" s="4" t="s">
         <v>3010</v>
@@ -29662,7 +29883,7 @@
     </row>
     <row r="922" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B922" s="4" t="s">
         <v>3011</v>
@@ -29682,7 +29903,7 @@
     </row>
     <row r="923" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B923" s="4" t="s">
         <v>3012</v>
@@ -29702,7 +29923,7 @@
     </row>
     <row r="924" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B924" s="4" t="s">
         <v>3013</v>
@@ -29722,7 +29943,7 @@
     </row>
     <row r="925" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B925" s="4" t="s">
         <v>3014</v>
@@ -29742,7 +29963,7 @@
     </row>
     <row r="926" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B926" s="4" t="s">
         <v>3015</v>
@@ -29762,7 +29983,7 @@
     </row>
     <row r="927" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B927" s="4" t="s">
         <v>3016</v>
@@ -29782,7 +30003,7 @@
     </row>
     <row r="928" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B928" s="4" t="s">
         <v>3017</v>
@@ -29802,7 +30023,7 @@
     </row>
     <row r="929" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B929" s="4" t="s">
         <v>3018</v>
@@ -29822,7 +30043,7 @@
     </row>
     <row r="930" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B930" s="4" t="s">
         <v>3019</v>
@@ -29842,7 +30063,7 @@
     </row>
     <row r="931" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B931" s="4" t="s">
         <v>3020</v>
@@ -29862,7 +30083,7 @@
     </row>
     <row r="932" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B932" s="4" t="s">
         <v>3021</v>
@@ -29882,7 +30103,7 @@
     </row>
     <row r="933" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B933" s="4" t="s">
         <v>3022</v>
@@ -29902,7 +30123,7 @@
     </row>
     <row r="934" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B934" s="4" t="s">
         <v>3023</v>
@@ -29922,7 +30143,7 @@
     </row>
     <row r="935" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B935" s="4" t="s">
         <v>3024</v>
@@ -29942,7 +30163,7 @@
     </row>
     <row r="936" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B936" s="4" t="s">
         <v>3025</v>
@@ -29962,7 +30183,7 @@
     </row>
     <row r="937" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B937" s="4" t="s">
         <v>3026</v>
@@ -29982,7 +30203,7 @@
     </row>
     <row r="938" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B938" s="4" t="s">
         <v>3027</v>
@@ -30002,7 +30223,7 @@
     </row>
     <row r="939" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B939" s="4" t="s">
         <v>3028</v>
@@ -30022,7 +30243,7 @@
     </row>
     <row r="940" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B940" s="4" t="s">
         <v>3029</v>
@@ -30042,7 +30263,7 @@
     </row>
     <row r="941" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B941" s="4" t="s">
         <v>3030</v>
@@ -30062,7 +30283,7 @@
     </row>
     <row r="942" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B942" s="4" t="s">
         <v>3031</v>
@@ -30082,7 +30303,7 @@
     </row>
     <row r="943" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B943" s="4" t="s">
         <v>3032</v>
@@ -30102,7 +30323,7 @@
     </row>
     <row r="944" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B944" s="4" t="s">
         <v>3033</v>
@@ -30122,7 +30343,7 @@
     </row>
     <row r="945" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B945" s="4" t="s">
         <v>3034</v>
@@ -30142,7 +30363,7 @@
     </row>
     <row r="946" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B946" s="4" t="s">
         <v>3035</v>
@@ -30162,7 +30383,7 @@
     </row>
     <row r="947" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B947" s="4" t="s">
         <v>3036</v>
@@ -30182,7 +30403,7 @@
     </row>
     <row r="948" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B948" s="4" t="s">
         <v>3037</v>
@@ -30202,7 +30423,7 @@
     </row>
     <row r="949" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B949" s="4" t="s">
         <v>3038</v>
@@ -30222,7 +30443,7 @@
     </row>
     <row r="950" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B950" s="4" t="s">
         <v>3039</v>
@@ -30242,7 +30463,7 @@
     </row>
     <row r="951" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B951" s="4" t="s">
         <v>3040</v>
@@ -30262,7 +30483,7 @@
     </row>
     <row r="952" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B952" s="4" t="s">
         <v>3041</v>
@@ -30282,7 +30503,7 @@
     </row>
     <row r="953" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B953" s="4" t="s">
         <v>3042</v>
@@ -30302,7 +30523,7 @@
     </row>
     <row r="954" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B954" s="4" t="s">
         <v>3043</v>
@@ -30322,7 +30543,7 @@
     </row>
     <row r="955" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B955" s="4" t="s">
         <v>3044</v>
@@ -30347,9 +30568,13 @@
       <c r="B956" s="4" t="s">
         <v>3045</v>
       </c>
-      <c r="C956" s="11"/>
+      <c r="C956" s="11" t="s">
+        <v>3676</v>
+      </c>
       <c r="D956" s="4"/>
-      <c r="E956" s="12"/>
+      <c r="E956" s="12" t="s">
+        <v>91</v>
+      </c>
       <c r="F956" s="4" t="s">
         <v>2576</v>
       </c>
@@ -33338,7 +33563,7 @@
     </row>
     <row r="1117" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1117" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1117" s="4" t="s">
         <v>3206</v>
@@ -33358,7 +33583,7 @@
     </row>
     <row r="1118" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1118" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1118" s="4" t="s">
         <v>3207</v>
@@ -33378,7 +33603,7 @@
     </row>
     <row r="1119" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1119" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1119" s="4" t="s">
         <v>3208</v>
@@ -33398,7 +33623,7 @@
     </row>
     <row r="1120" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1120" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1120" s="4" t="s">
         <v>3209</v>
@@ -33418,7 +33643,7 @@
     </row>
     <row r="1121" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1121" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1121" s="4" t="s">
         <v>3210</v>
@@ -33438,7 +33663,7 @@
     </row>
     <row r="1122" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1122" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1122" s="4" t="s">
         <v>3211</v>
@@ -33458,7 +33683,7 @@
     </row>
     <row r="1123" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1123" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1123" s="4" t="s">
         <v>3212</v>
@@ -33478,7 +33703,7 @@
     </row>
     <row r="1124" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1124" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1124" s="4" t="s">
         <v>3213</v>
@@ -33498,7 +33723,7 @@
     </row>
     <row r="1125" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1125" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1125" s="4" t="s">
         <v>3214</v>
@@ -33518,7 +33743,7 @@
     </row>
     <row r="1126" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1126" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1126" s="4" t="s">
         <v>3215</v>
@@ -33538,7 +33763,7 @@
     </row>
     <row r="1127" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1127" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1127" s="4" t="s">
         <v>3216</v>
@@ -33558,7 +33783,7 @@
     </row>
     <row r="1128" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1128" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1128" s="4" t="s">
         <v>3217</v>
@@ -33578,7 +33803,7 @@
     </row>
     <row r="1129" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1129" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1129" s="4" t="s">
         <v>3218</v>
@@ -33598,7 +33823,7 @@
     </row>
     <row r="1130" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1130" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1130" s="4" t="s">
         <v>3219</v>
@@ -33618,7 +33843,7 @@
     </row>
     <row r="1131" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1131" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1131" s="4" t="s">
         <v>3220</v>
@@ -33638,7 +33863,7 @@
     </row>
     <row r="1132" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1132" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1132" s="4" t="s">
         <v>3221</v>
@@ -33658,7 +33883,7 @@
     </row>
     <row r="1133" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1133" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1133" s="4" t="s">
         <v>3222</v>
@@ -33678,7 +33903,7 @@
     </row>
     <row r="1134" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1134" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1134" s="4" t="s">
         <v>3223</v>
@@ -33698,7 +33923,7 @@
     </row>
     <row r="1135" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1135" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1135" s="4" t="s">
         <v>3224</v>
@@ -33718,7 +33943,7 @@
     </row>
     <row r="1136" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1136" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1136" s="4" t="s">
         <v>3225</v>
@@ -33738,7 +33963,7 @@
     </row>
     <row r="1137" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1137" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1137" s="4" t="s">
         <v>3226</v>
@@ -33758,7 +33983,7 @@
     </row>
     <row r="1138" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1138" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1138" s="4" t="s">
         <v>3227</v>
@@ -33778,7 +34003,7 @@
     </row>
     <row r="1139" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1139" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1139" s="4" t="s">
         <v>3228</v>
@@ -33798,7 +34023,7 @@
     </row>
     <row r="1140" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1140" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1140" s="4" t="s">
         <v>3229</v>
@@ -33818,7 +34043,7 @@
     </row>
     <row r="1141" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1141" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1141" s="4" t="s">
         <v>3230</v>
@@ -33838,7 +34063,7 @@
     </row>
     <row r="1142" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1142" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1142" s="4" t="s">
         <v>3231</v>
@@ -33858,7 +34083,7 @@
     </row>
     <row r="1143" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1143" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1143" s="4" t="s">
         <v>3232</v>
@@ -33878,7 +34103,7 @@
     </row>
     <row r="1144" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1144" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1144" s="4" t="s">
         <v>3233</v>
@@ -33898,7 +34123,7 @@
     </row>
     <row r="1145" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1145" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1145" s="4" t="s">
         <v>3234</v>
@@ -33918,7 +34143,7 @@
     </row>
     <row r="1146" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1146" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1146" s="4" t="s">
         <v>3235</v>
@@ -33938,7 +34163,7 @@
     </row>
     <row r="1147" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1147" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1147" s="4" t="s">
         <v>3236</v>
@@ -33958,7 +34183,7 @@
     </row>
     <row r="1148" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1148" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1148" s="4" t="s">
         <v>3237</v>
@@ -33978,7 +34203,7 @@
     </row>
     <row r="1149" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1149" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1149" s="4" t="s">
         <v>3238</v>
@@ -33998,7 +34223,7 @@
     </row>
     <row r="1150" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1150" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1150" s="4" t="s">
         <v>3239</v>
@@ -34018,7 +34243,7 @@
     </row>
     <row r="1151" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1151" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1151" s="4" t="s">
         <v>3240</v>
@@ -34038,7 +34263,7 @@
     </row>
     <row r="1152" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1152" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1152" s="4" t="s">
         <v>3241</v>
@@ -34058,7 +34283,7 @@
     </row>
     <row r="1153" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1153" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1153" s="4" t="s">
         <v>3242</v>
@@ -34078,7 +34303,7 @@
     </row>
     <row r="1154" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1154" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1154" s="4" t="s">
         <v>3243</v>
@@ -34098,7 +34323,7 @@
     </row>
     <row r="1155" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1155" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1155" s="4" t="s">
         <v>3244</v>
@@ -34118,7 +34343,7 @@
     </row>
     <row r="1156" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1156" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1156" s="4" t="s">
         <v>3245</v>
@@ -34138,7 +34363,7 @@
     </row>
     <row r="1157" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1157" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1157" s="4" t="s">
         <v>3246</v>
@@ -34158,7 +34383,7 @@
     </row>
     <row r="1158" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1158" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1158" s="4" t="s">
         <v>3247</v>
@@ -34178,7 +34403,7 @@
     </row>
     <row r="1159" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1159" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1159" s="4" t="s">
         <v>3248</v>
@@ -34198,7 +34423,7 @@
     </row>
     <row r="1160" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1160" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1160" s="4" t="s">
         <v>3249</v>
@@ -34218,7 +34443,7 @@
     </row>
     <row r="1161" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1161" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1161" s="4" t="s">
         <v>3250</v>
@@ -34238,7 +34463,7 @@
     </row>
     <row r="1162" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1162" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1162" s="4" t="s">
         <v>3251</v>
@@ -34258,7 +34483,7 @@
     </row>
     <row r="1163" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1163" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1163" s="4" t="s">
         <v>3252</v>
@@ -34278,7 +34503,7 @@
     </row>
     <row r="1164" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1164" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1164" s="4" t="s">
         <v>3253</v>
@@ -34298,7 +34523,7 @@
     </row>
     <row r="1165" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1165" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1165" s="4" t="s">
         <v>3254</v>
@@ -34318,7 +34543,7 @@
     </row>
     <row r="1166" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1166" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1166" s="4" t="s">
         <v>3255</v>
@@ -34338,7 +34563,7 @@
     </row>
     <row r="1167" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1167" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1167" s="4" t="s">
         <v>3256</v>
@@ -34358,7 +34583,7 @@
     </row>
     <row r="1168" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1168" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1168" s="4" t="s">
         <v>3257</v>
@@ -34378,7 +34603,7 @@
     </row>
     <row r="1169" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1169" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1169" s="4" t="s">
         <v>3258</v>
@@ -34398,7 +34623,7 @@
     </row>
     <row r="1170" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1170" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1170" s="4" t="s">
         <v>3259</v>
@@ -34418,7 +34643,7 @@
     </row>
     <row r="1171" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1171" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1171" s="4" t="s">
         <v>3260</v>
@@ -34438,7 +34663,7 @@
     </row>
     <row r="1172" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1172" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1172" s="4" t="s">
         <v>3261</v>
@@ -34458,7 +34683,7 @@
     </row>
     <row r="1173" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1173" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1173" s="4" t="s">
         <v>3262</v>
@@ -34478,7 +34703,7 @@
     </row>
     <row r="1174" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1174" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1174" s="4" t="s">
         <v>3263</v>
@@ -34498,7 +34723,7 @@
     </row>
     <row r="1175" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1175" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1175" s="4" t="s">
         <v>3264</v>
@@ -34518,7 +34743,7 @@
     </row>
     <row r="1176" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1176" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1176" s="4" t="s">
         <v>3265</v>
@@ -34538,7 +34763,7 @@
     </row>
     <row r="1177" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1177" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1177" s="4" t="s">
         <v>3266</v>
@@ -34558,7 +34783,7 @@
     </row>
     <row r="1178" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1178" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1178" s="4" t="s">
         <v>3267</v>
@@ -34578,7 +34803,7 @@
     </row>
     <row r="1179" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1179" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1179" s="4" t="s">
         <v>3268</v>
@@ -34598,7 +34823,7 @@
     </row>
     <row r="1180" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1180" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1180" s="4" t="s">
         <v>3269</v>
@@ -34618,7 +34843,7 @@
     </row>
     <row r="1181" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1181" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1181" s="4" t="s">
         <v>3270</v>
@@ -34638,7 +34863,7 @@
     </row>
     <row r="1182" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1182" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1182" s="4" t="s">
         <v>3271</v>
@@ -34658,7 +34883,7 @@
     </row>
     <row r="1183" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1183" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1183" s="4" t="s">
         <v>3272</v>
@@ -34678,7 +34903,7 @@
     </row>
     <row r="1184" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1184" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1184" s="4" t="s">
         <v>3273</v>
@@ -34698,7 +34923,7 @@
     </row>
     <row r="1185" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1185" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1185" s="4" t="s">
         <v>3274</v>
@@ -34718,7 +34943,7 @@
     </row>
     <row r="1186" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1186" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1186" s="4" t="s">
         <v>3275</v>
@@ -34738,7 +34963,7 @@
     </row>
     <row r="1187" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1187" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1187" s="4" t="s">
         <v>3276</v>
@@ -34758,7 +34983,7 @@
     </row>
     <row r="1188" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1188" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1188" s="4" t="s">
         <v>3277</v>
@@ -34778,7 +35003,7 @@
     </row>
     <row r="1189" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1189" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1189" s="4" t="s">
         <v>3278</v>
@@ -34798,7 +35023,7 @@
     </row>
     <row r="1190" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1190" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1190" s="4" t="s">
         <v>3279</v>
@@ -34818,7 +35043,7 @@
     </row>
     <row r="1191" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1191" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1191" s="4" t="s">
         <v>3280</v>
@@ -34838,7 +35063,7 @@
     </row>
     <row r="1192" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1192" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1192" s="4" t="s">
         <v>3281</v>
@@ -34858,7 +35083,7 @@
     </row>
     <row r="1193" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1193" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1193" s="4" t="s">
         <v>3282</v>
@@ -34878,7 +35103,7 @@
     </row>
     <row r="1194" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1194" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1194" s="4" t="s">
         <v>3283</v>
@@ -34898,7 +35123,7 @@
     </row>
     <row r="1195" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1195" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1195" s="4" t="s">
         <v>3284</v>
@@ -34918,7 +35143,7 @@
     </row>
     <row r="1196" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1196" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1196" s="4" t="s">
         <v>3285</v>
@@ -34938,7 +35163,7 @@
     </row>
     <row r="1197" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1197" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1197" s="4" t="s">
         <v>3286</v>
@@ -34958,7 +35183,7 @@
     </row>
     <row r="1198" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1198" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1198" s="4" t="s">
         <v>3287</v>
@@ -34978,7 +35203,7 @@
     </row>
     <row r="1199" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1199" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1199" s="4" t="s">
         <v>3288</v>
@@ -34998,7 +35223,7 @@
     </row>
     <row r="1200" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1200" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1200" s="4" t="s">
         <v>3289</v>
@@ -35018,7 +35243,7 @@
     </row>
     <row r="1201" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1201" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1201" s="4" t="s">
         <v>3290</v>
@@ -35038,7 +35263,7 @@
     </row>
     <row r="1202" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1202" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1202" s="4" t="s">
         <v>3291</v>
@@ -35058,7 +35283,7 @@
     </row>
     <row r="1203" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1203" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1203" s="4" t="s">
         <v>3292</v>
@@ -35078,7 +35303,7 @@
     </row>
     <row r="1204" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1204" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1204" s="4" t="s">
         <v>3293</v>
@@ -35098,7 +35323,7 @@
     </row>
     <row r="1205" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1205" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1205" s="4" t="s">
         <v>3294</v>
@@ -35118,7 +35343,7 @@
     </row>
     <row r="1206" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1206" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1206" s="4" t="s">
         <v>3295</v>
@@ -35138,7 +35363,7 @@
     </row>
     <row r="1207" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1207" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1207" s="4" t="s">
         <v>3296</v>
@@ -35158,7 +35383,7 @@
     </row>
     <row r="1208" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1208" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1208" s="4" t="s">
         <v>3297</v>
@@ -35178,7 +35403,7 @@
     </row>
     <row r="1209" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1209" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1209" s="4" t="s">
         <v>3298</v>
@@ -35198,7 +35423,7 @@
     </row>
     <row r="1210" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1210" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1210" s="4" t="s">
         <v>3299</v>
@@ -35218,7 +35443,7 @@
     </row>
     <row r="1211" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1211" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1211" s="4" t="s">
         <v>3300</v>
@@ -35238,7 +35463,7 @@
     </row>
     <row r="1212" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1212" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1212" s="4" t="s">
         <v>3301</v>
@@ -35258,7 +35483,7 @@
     </row>
     <row r="1213" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1213" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1213" s="4" t="s">
         <v>3302</v>
@@ -35278,7 +35503,7 @@
     </row>
     <row r="1214" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1214" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1214" s="4" t="s">
         <v>3303</v>
@@ -35298,7 +35523,7 @@
     </row>
     <row r="1215" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1215" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1215" s="4" t="s">
         <v>3304</v>
@@ -35318,7 +35543,7 @@
     </row>
     <row r="1216" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1216" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1216" s="4" t="s">
         <v>3305</v>
@@ -35338,7 +35563,7 @@
     </row>
     <row r="1217" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1217" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1217" s="4" t="s">
         <v>3306</v>
@@ -35358,7 +35583,7 @@
     </row>
     <row r="1218" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1218" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1218" s="4" t="s">
         <v>3307</v>
@@ -35378,7 +35603,7 @@
     </row>
     <row r="1219" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1219" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1219" s="4" t="s">
         <v>3308</v>
@@ -35398,7 +35623,7 @@
     </row>
     <row r="1220" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1220" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1220" s="4" t="s">
         <v>3309</v>
@@ -35418,7 +35643,7 @@
     </row>
     <row r="1221" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1221" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1221" s="4" t="s">
         <v>3310</v>
@@ -35438,7 +35663,7 @@
     </row>
     <row r="1222" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1222" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1222" s="4" t="s">
         <v>3311</v>
@@ -35458,7 +35683,7 @@
     </row>
     <row r="1223" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1223" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1223" s="4" t="s">
         <v>3312</v>
@@ -35478,7 +35703,7 @@
     </row>
     <row r="1224" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1224" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1224" s="4" t="s">
         <v>3313</v>
@@ -35498,7 +35723,7 @@
     </row>
     <row r="1225" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1225" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1225" s="4" t="s">
         <v>3314</v>
@@ -35518,7 +35743,7 @@
     </row>
     <row r="1226" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1226" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1226" s="4" t="s">
         <v>3315</v>
@@ -35538,7 +35763,7 @@
     </row>
     <row r="1227" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1227" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1227" s="4" t="s">
         <v>3316</v>
@@ -35558,7 +35783,7 @@
     </row>
     <row r="1228" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1228" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1228" s="4" t="s">
         <v>3317</v>
@@ -35578,7 +35803,7 @@
     </row>
     <row r="1229" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1229" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1229" s="4" t="s">
         <v>3318</v>
@@ -35598,7 +35823,7 @@
     </row>
     <row r="1230" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1230" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1230" s="4" t="s">
         <v>3319</v>
@@ -35618,7 +35843,7 @@
     </row>
     <row r="1231" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1231" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1231" s="4" t="s">
         <v>3320</v>
@@ -35638,7 +35863,7 @@
     </row>
     <row r="1232" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1232" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1232" s="4" t="s">
         <v>3321</v>
@@ -35658,7 +35883,7 @@
     </row>
     <row r="1233" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1233" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1233" s="4" t="s">
         <v>3322</v>
@@ -35678,7 +35903,7 @@
     </row>
     <row r="1234" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1234" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1234" s="4" t="s">
         <v>3323</v>
@@ -35698,7 +35923,7 @@
     </row>
     <row r="1235" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1235" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1235" s="4" t="s">
         <v>3324</v>
@@ -35718,7 +35943,7 @@
     </row>
     <row r="1236" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1236" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1236" s="4" t="s">
         <v>3325</v>
@@ -35738,7 +35963,7 @@
     </row>
     <row r="1237" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1237" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1237" s="4" t="s">
         <v>3326</v>
@@ -35758,7 +35983,7 @@
     </row>
     <row r="1238" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1238" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1238" s="4" t="s">
         <v>3327</v>
@@ -35778,7 +36003,7 @@
     </row>
     <row r="1239" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1239" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1239" s="4" t="s">
         <v>3328</v>
@@ -35798,7 +36023,7 @@
     </row>
     <row r="1240" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1240" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1240" s="4" t="s">
         <v>3329</v>
@@ -35818,7 +36043,7 @@
     </row>
     <row r="1241" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1241" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1241" s="4" t="s">
         <v>3330</v>
@@ -35838,7 +36063,7 @@
     </row>
     <row r="1242" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1242" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1242" s="4" t="s">
         <v>3331</v>
@@ -35858,7 +36083,7 @@
     </row>
     <row r="1243" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1243" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1243" s="4" t="s">
         <v>3332</v>
@@ -35878,7 +36103,7 @@
     </row>
     <row r="1244" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1244" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1244" s="4" t="s">
         <v>3333</v>
@@ -35898,7 +36123,7 @@
     </row>
     <row r="1245" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1245" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1245" s="4" t="s">
         <v>3334</v>
@@ -35918,7 +36143,7 @@
     </row>
     <row r="1246" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1246" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1246" s="4" t="s">
         <v>3335</v>
@@ -35938,7 +36163,7 @@
     </row>
     <row r="1247" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1247" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1247" s="4" t="s">
         <v>3336</v>
@@ -35958,7 +36183,7 @@
     </row>
     <row r="1248" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1248" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1248" s="4" t="s">
         <v>3337</v>
@@ -35978,7 +36203,7 @@
     </row>
     <row r="1249" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1249" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1249" s="4" t="s">
         <v>3338</v>
@@ -35998,7 +36223,7 @@
     </row>
     <row r="1250" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1250" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1250" s="4" t="s">
         <v>3339</v>
@@ -36018,7 +36243,7 @@
     </row>
     <row r="1251" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1251" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1251" s="4" t="s">
         <v>3340</v>
@@ -36038,7 +36263,7 @@
     </row>
     <row r="1252" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1252" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1252" s="4" t="s">
         <v>3341</v>
@@ -36058,7 +36283,7 @@
     </row>
     <row r="1253" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1253" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1253" s="4" t="s">
         <v>3342</v>
@@ -36078,7 +36303,7 @@
     </row>
     <row r="1254" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1254" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1254" s="4" t="s">
         <v>3343</v>
@@ -36098,7 +36323,7 @@
     </row>
     <row r="1255" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1255" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1255" s="4" t="s">
         <v>3344</v>
@@ -36118,7 +36343,7 @@
     </row>
     <row r="1256" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1256" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B1256" s="4" t="s">
         <v>3345</v>
@@ -36512,6 +36737,522 @@
       <c r="E1283" s="14"/>
       <c r="F1283" s="10" t="s">
         <v>2897</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1284" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1284" s="10" t="s">
+        <v>3597</v>
+      </c>
+      <c r="C1284" s="13" t="s">
+        <v>3598</v>
+      </c>
+      <c r="D1284" s="10"/>
+      <c r="E1284" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1284" s="10" t="s">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1285" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1285" s="10" t="s">
+        <v>3602</v>
+      </c>
+      <c r="C1285" s="13" t="s">
+        <v>3599</v>
+      </c>
+      <c r="D1285" s="10"/>
+      <c r="E1285" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1285" s="10" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1286" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1286" s="10" t="s">
+        <v>3604</v>
+      </c>
+      <c r="C1286" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1286" s="17" t="s">
+        <v>3605</v>
+      </c>
+      <c r="E1286" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1286" s="17" t="s">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1287" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1287" s="10" t="s">
+        <v>3617</v>
+      </c>
+      <c r="C1287" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1287" s="8" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E1287" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1287" s="17" t="s">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1288" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1288" s="10" t="s">
+        <v>3618</v>
+      </c>
+      <c r="C1288" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1288" s="8" t="s">
+        <v>3607</v>
+      </c>
+      <c r="E1288" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1288" s="17" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1289" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1289" s="10" t="s">
+        <v>3619</v>
+      </c>
+      <c r="C1289" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1289" s="17" t="s">
+        <v>3608</v>
+      </c>
+      <c r="E1289" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1289" s="17" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1290" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1290" s="10" t="s">
+        <v>3620</v>
+      </c>
+      <c r="C1290" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1290" s="10" t="s">
+        <v>3609</v>
+      </c>
+      <c r="E1290" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1290" s="17" t="s">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1291" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1291" s="10" t="s">
+        <v>3621</v>
+      </c>
+      <c r="C1291" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1291" s="4" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E1291" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1291" s="17" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1292" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1292" s="10" t="s">
+        <v>3622</v>
+      </c>
+      <c r="C1292" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1292" s="4" t="s">
+        <v>3611</v>
+      </c>
+      <c r="E1292" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1292" s="17" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1293" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1293" s="10" t="s">
+        <v>3623</v>
+      </c>
+      <c r="C1293" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1293" s="4" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E1293" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1293" s="17" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1294" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1294" s="10" t="s">
+        <v>3624</v>
+      </c>
+      <c r="C1294" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1294" s="4" t="s">
+        <v>3613</v>
+      </c>
+      <c r="E1294" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1294" s="17" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1295" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1295" s="10" t="s">
+        <v>3625</v>
+      </c>
+      <c r="C1295" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1295" s="10" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E1295" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1295" s="17" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1296" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1296" s="10" t="s">
+        <v>3626</v>
+      </c>
+      <c r="C1296" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1296" s="10" t="s">
+        <v>3615</v>
+      </c>
+      <c r="E1296" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1296" s="17" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1297" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1297" s="10" t="s">
+        <v>3627</v>
+      </c>
+      <c r="C1297" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1297" s="4" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E1297" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1297" s="17" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1298" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1298" s="10" t="s">
+        <v>3652</v>
+      </c>
+      <c r="C1298" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1298" s="8" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E1298" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1298" s="8" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1299" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1299" s="10" t="s">
+        <v>3653</v>
+      </c>
+      <c r="C1299" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1299" s="8" t="s">
+        <v>3641</v>
+      </c>
+      <c r="E1299" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1299" s="8" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1300" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1300" s="10" t="s">
+        <v>3654</v>
+      </c>
+      <c r="C1300" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1300" s="8" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E1300" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1300" s="8" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1301" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1301" s="10" t="s">
+        <v>3655</v>
+      </c>
+      <c r="C1301" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1301" s="8" t="s">
+        <v>3643</v>
+      </c>
+      <c r="E1301" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1301" s="8" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1302" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1302" s="10" t="s">
+        <v>3656</v>
+      </c>
+      <c r="C1302" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1302" s="4" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E1302" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1302" s="8" t="s">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1303" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1303" s="10" t="s">
+        <v>3657</v>
+      </c>
+      <c r="C1303" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1303" s="4" t="s">
+        <v>3645</v>
+      </c>
+      <c r="E1303" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1303" s="8" t="s">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1304" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1304" s="10" t="s">
+        <v>3658</v>
+      </c>
+      <c r="C1304" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1304" s="4" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E1304" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1304" s="8" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1305" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1305" s="10" t="s">
+        <v>3659</v>
+      </c>
+      <c r="C1305" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1305" s="4" t="s">
+        <v>3647</v>
+      </c>
+      <c r="E1305" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1305" s="8" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1306" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1306" s="10" t="s">
+        <v>3660</v>
+      </c>
+      <c r="C1306" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1306" s="4" t="s">
+        <v>3648</v>
+      </c>
+      <c r="E1306" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1306" s="8" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1307" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1307" s="10" t="s">
+        <v>3661</v>
+      </c>
+      <c r="C1307" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1307" s="4" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E1307" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1307" s="8" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1308" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1308" s="10" t="s">
+        <v>3662</v>
+      </c>
+      <c r="C1308" s="19" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1308" s="4" t="s">
+        <v>3650</v>
+      </c>
+      <c r="E1308" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1308" s="8" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1309" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1309" s="10" t="s">
+        <v>3663</v>
+      </c>
+      <c r="C1309" s="16" t="s">
+        <v>3603</v>
+      </c>
+      <c r="D1309" s="10" t="s">
+        <v>3651</v>
+      </c>
+      <c r="E1309" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1309" s="17" t="s">
+        <v>3675</v>
       </c>
     </row>
   </sheetData>

--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67965130-6068-44F0-80CD-5A8E419DDDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1C208-0446-46A3-99B4-1057C6E3076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Test Cases'!#REF!</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="3677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="3676">
   <si>
     <t>RunTest</t>
   </si>
@@ -11066,9 +11067,6 @@
   </si>
   <si>
     <t>Aim of the Script is to verify Whether selected company list, automations filters and web watchers retained in next session when user relaunches fastwire</t>
-  </si>
-  <si>
-    <t>VerifyWWScenarios</t>
   </si>
 </sst>
 </file>
@@ -11823,8 +11821,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:F1309"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F10" activeCellId="1" sqref="F19 F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -28006,9 +28004,15 @@
       <c r="B809" s="4" t="s">
         <v>2898</v>
       </c>
-      <c r="C809" s="11"/>
-      <c r="D809" s="4"/>
-      <c r="E809" s="12"/>
+      <c r="C809" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D809" s="4" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E809" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F809" s="4" t="s">
         <v>2433</v>
       </c>
@@ -28020,9 +28024,15 @@
       <c r="B810" s="4" t="s">
         <v>2899</v>
       </c>
-      <c r="C810" s="11"/>
-      <c r="D810" s="4"/>
-      <c r="E810" s="12"/>
+      <c r="C810" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D810" s="4" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E810" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F810" s="4" t="s">
         <v>2434</v>
       </c>
@@ -28034,9 +28044,15 @@
       <c r="B811" s="4" t="s">
         <v>2900</v>
       </c>
-      <c r="C811" s="11"/>
-      <c r="D811" s="4"/>
-      <c r="E811" s="12"/>
+      <c r="C811" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D811" s="4" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E811" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F811" s="4" t="s">
         <v>2435</v>
       </c>
@@ -28048,9 +28064,15 @@
       <c r="B812" s="4" t="s">
         <v>2901</v>
       </c>
-      <c r="C812" s="11"/>
-      <c r="D812" s="4"/>
-      <c r="E812" s="12"/>
+      <c r="C812" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D812" s="4" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E812" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F812" s="4" t="s">
         <v>2436</v>
       </c>
@@ -28062,9 +28084,15 @@
       <c r="B813" s="4" t="s">
         <v>2902</v>
       </c>
-      <c r="C813" s="11"/>
-      <c r="D813" s="4"/>
-      <c r="E813" s="12"/>
+      <c r="C813" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D813" s="4" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E813" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F813" s="4" t="s">
         <v>2437</v>
       </c>
@@ -28076,9 +28104,15 @@
       <c r="B814" s="4" t="s">
         <v>2903</v>
       </c>
-      <c r="C814" s="11"/>
-      <c r="D814" s="4"/>
-      <c r="E814" s="12"/>
+      <c r="C814" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D814" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E814" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F814" s="4" t="s">
         <v>2438</v>
       </c>
@@ -28090,9 +28124,15 @@
       <c r="B815" s="4" t="s">
         <v>2904</v>
       </c>
-      <c r="C815" s="11"/>
-      <c r="D815" s="4"/>
-      <c r="E815" s="12"/>
+      <c r="C815" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D815" s="4" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E815" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F815" s="4" t="s">
         <v>2439</v>
       </c>
@@ -28104,9 +28144,15 @@
       <c r="B816" s="4" t="s">
         <v>2905</v>
       </c>
-      <c r="C816" s="11"/>
-      <c r="D816" s="4"/>
-      <c r="E816" s="12"/>
+      <c r="C816" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D816" s="4" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E816" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F816" s="4" t="s">
         <v>2440</v>
       </c>
@@ -28118,9 +28164,15 @@
       <c r="B817" s="4" t="s">
         <v>2906</v>
       </c>
-      <c r="C817" s="11"/>
-      <c r="D817" s="4"/>
-      <c r="E817" s="12"/>
+      <c r="C817" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D817" s="4" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E817" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F817" s="4" t="s">
         <v>2441</v>
       </c>
@@ -28132,9 +28184,15 @@
       <c r="B818" s="4" t="s">
         <v>2907</v>
       </c>
-      <c r="C818" s="11"/>
-      <c r="D818" s="4"/>
-      <c r="E818" s="12"/>
+      <c r="C818" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D818" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E818" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F818" s="4" t="s">
         <v>2442</v>
       </c>
@@ -28146,9 +28204,15 @@
       <c r="B819" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="C819" s="11"/>
-      <c r="D819" s="4"/>
-      <c r="E819" s="12"/>
+      <c r="C819" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D819" s="4" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E819" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F819" s="4" t="s">
         <v>2443</v>
       </c>
@@ -28160,9 +28224,15 @@
       <c r="B820" s="4" t="s">
         <v>2909</v>
       </c>
-      <c r="C820" s="11"/>
-      <c r="D820" s="4"/>
-      <c r="E820" s="12"/>
+      <c r="C820" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D820" s="4" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E820" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F820" s="4" t="s">
         <v>2444</v>
       </c>
@@ -28174,9 +28244,15 @@
       <c r="B821" s="4" t="s">
         <v>2910</v>
       </c>
-      <c r="C821" s="11"/>
-      <c r="D821" s="4"/>
-      <c r="E821" s="12"/>
+      <c r="C821" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D821" s="4" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E821" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F821" s="4" t="s">
         <v>2445</v>
       </c>
@@ -28188,9 +28264,15 @@
       <c r="B822" s="4" t="s">
         <v>2911</v>
       </c>
-      <c r="C822" s="11"/>
-      <c r="D822" s="4"/>
-      <c r="E822" s="12"/>
+      <c r="C822" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D822" s="4" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E822" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F822" s="4" t="s">
         <v>2446</v>
       </c>
@@ -28202,9 +28284,15 @@
       <c r="B823" s="4" t="s">
         <v>2912</v>
       </c>
-      <c r="C823" s="11"/>
-      <c r="D823" s="4"/>
-      <c r="E823" s="12"/>
+      <c r="C823" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D823" s="4" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E823" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F823" s="4" t="s">
         <v>2447</v>
       </c>
@@ -28216,9 +28304,15 @@
       <c r="B824" s="4" t="s">
         <v>2913</v>
       </c>
-      <c r="C824" s="11"/>
-      <c r="D824" s="4"/>
-      <c r="E824" s="12"/>
+      <c r="C824" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D824" s="4" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E824" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F824" s="4" t="s">
         <v>2448</v>
       </c>
@@ -28230,9 +28324,15 @@
       <c r="B825" s="4" t="s">
         <v>2914</v>
       </c>
-      <c r="C825" s="11"/>
-      <c r="D825" s="4"/>
-      <c r="E825" s="12"/>
+      <c r="C825" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D825" s="4" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E825" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F825" s="4" t="s">
         <v>2449</v>
       </c>
@@ -28244,9 +28344,15 @@
       <c r="B826" s="4" t="s">
         <v>2915</v>
       </c>
-      <c r="C826" s="11"/>
-      <c r="D826" s="4"/>
-      <c r="E826" s="12"/>
+      <c r="C826" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D826" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E826" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F826" s="4" t="s">
         <v>2450</v>
       </c>
@@ -28258,9 +28364,15 @@
       <c r="B827" s="4" t="s">
         <v>2916</v>
       </c>
-      <c r="C827" s="11"/>
-      <c r="D827" s="4"/>
-      <c r="E827" s="12"/>
+      <c r="C827" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D827" s="4" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E827" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F827" s="4" t="s">
         <v>2451</v>
       </c>
@@ -28272,9 +28384,15 @@
       <c r="B828" s="4" t="s">
         <v>2917</v>
       </c>
-      <c r="C828" s="11"/>
-      <c r="D828" s="4"/>
-      <c r="E828" s="12"/>
+      <c r="C828" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D828" s="4" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E828" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F828" s="4" t="s">
         <v>2452</v>
       </c>
@@ -28286,9 +28404,15 @@
       <c r="B829" s="4" t="s">
         <v>2918</v>
       </c>
-      <c r="C829" s="11"/>
-      <c r="D829" s="4"/>
-      <c r="E829" s="12"/>
+      <c r="C829" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D829" s="4" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E829" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F829" s="4" t="s">
         <v>2453</v>
       </c>
@@ -28300,9 +28424,15 @@
       <c r="B830" s="4" t="s">
         <v>2919</v>
       </c>
-      <c r="C830" s="11"/>
-      <c r="D830" s="4"/>
-      <c r="E830" s="12"/>
+      <c r="C830" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D830" s="4" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E830" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F830" s="4" t="s">
         <v>2454</v>
       </c>
@@ -28314,9 +28444,15 @@
       <c r="B831" s="4" t="s">
         <v>2920</v>
       </c>
-      <c r="C831" s="11"/>
-      <c r="D831" s="4"/>
-      <c r="E831" s="12"/>
+      <c r="C831" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D831" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E831" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F831" s="4" t="s">
         <v>2455</v>
       </c>
@@ -28328,9 +28464,15 @@
       <c r="B832" s="4" t="s">
         <v>2921</v>
       </c>
-      <c r="C832" s="11"/>
-      <c r="D832" s="4"/>
-      <c r="E832" s="12"/>
+      <c r="C832" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D832" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="E832" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F832" s="4" t="s">
         <v>2456</v>
       </c>
@@ -28342,9 +28484,15 @@
       <c r="B833" s="4" t="s">
         <v>2922</v>
       </c>
-      <c r="C833" s="11"/>
-      <c r="D833" s="4"/>
-      <c r="E833" s="12"/>
+      <c r="C833" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D833" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="E833" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F833" s="4" t="s">
         <v>2457</v>
       </c>
@@ -28356,9 +28504,15 @@
       <c r="B834" s="4" t="s">
         <v>2923</v>
       </c>
-      <c r="C834" s="11"/>
-      <c r="D834" s="4"/>
-      <c r="E834" s="12"/>
+      <c r="C834" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D834" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E834" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F834" s="4" t="s">
         <v>2458</v>
       </c>
@@ -28370,9 +28524,15 @@
       <c r="B835" s="4" t="s">
         <v>2924</v>
       </c>
-      <c r="C835" s="11"/>
-      <c r="D835" s="4"/>
-      <c r="E835" s="12"/>
+      <c r="C835" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D835" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E835" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F835" s="4" t="s">
         <v>2459</v>
       </c>
@@ -28384,9 +28544,15 @@
       <c r="B836" s="4" t="s">
         <v>2925</v>
       </c>
-      <c r="C836" s="11"/>
-      <c r="D836" s="4"/>
-      <c r="E836" s="12"/>
+      <c r="C836" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D836" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="E836" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F836" s="4" t="s">
         <v>2460</v>
       </c>
@@ -28398,9 +28564,15 @@
       <c r="B837" s="4" t="s">
         <v>2926</v>
       </c>
-      <c r="C837" s="11"/>
-      <c r="D837" s="4"/>
-      <c r="E837" s="12"/>
+      <c r="C837" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D837" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E837" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F837" s="4" t="s">
         <v>2461</v>
       </c>
@@ -28412,9 +28584,15 @@
       <c r="B838" s="4" t="s">
         <v>2927</v>
       </c>
-      <c r="C838" s="11"/>
-      <c r="D838" s="4"/>
-      <c r="E838" s="12"/>
+      <c r="C838" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D838" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="E838" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F838" s="4" t="s">
         <v>2462</v>
       </c>
@@ -28426,9 +28604,15 @@
       <c r="B839" s="4" t="s">
         <v>2928</v>
       </c>
-      <c r="C839" s="11"/>
-      <c r="D839" s="4"/>
-      <c r="E839" s="12"/>
+      <c r="C839" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D839" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="E839" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F839" s="4" t="s">
         <v>2463</v>
       </c>
@@ -28440,9 +28624,15 @@
       <c r="B840" s="4" t="s">
         <v>2929</v>
       </c>
-      <c r="C840" s="11"/>
-      <c r="D840" s="4"/>
-      <c r="E840" s="12"/>
+      <c r="C840" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D840" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="E840" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F840" s="4" t="s">
         <v>2464</v>
       </c>
@@ -28454,9 +28644,15 @@
       <c r="B841" s="4" t="s">
         <v>2930</v>
       </c>
-      <c r="C841" s="11"/>
-      <c r="D841" s="4"/>
-      <c r="E841" s="12"/>
+      <c r="C841" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D841" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E841" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F841" s="4" t="s">
         <v>2465</v>
       </c>
@@ -28468,9 +28664,15 @@
       <c r="B842" s="4" t="s">
         <v>2931</v>
       </c>
-      <c r="C842" s="11"/>
-      <c r="D842" s="4"/>
-      <c r="E842" s="12"/>
+      <c r="C842" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D842" s="4" t="s">
+        <v>972</v>
+      </c>
+      <c r="E842" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F842" s="4" t="s">
         <v>2466</v>
       </c>
@@ -28482,9 +28684,15 @@
       <c r="B843" s="4" t="s">
         <v>2932</v>
       </c>
-      <c r="C843" s="11"/>
-      <c r="D843" s="4"/>
-      <c r="E843" s="12"/>
+      <c r="C843" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D843" s="4" t="s">
+        <v>987</v>
+      </c>
+      <c r="E843" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F843" s="4" t="s">
         <v>2467</v>
       </c>
@@ -28496,9 +28704,15 @@
       <c r="B844" s="4" t="s">
         <v>2933</v>
       </c>
-      <c r="C844" s="11"/>
-      <c r="D844" s="4"/>
-      <c r="E844" s="12"/>
+      <c r="C844" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D844" s="4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E844" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F844" s="4" t="s">
         <v>2468</v>
       </c>
@@ -28510,9 +28724,15 @@
       <c r="B845" s="4" t="s">
         <v>2934</v>
       </c>
-      <c r="C845" s="11"/>
-      <c r="D845" s="4"/>
-      <c r="E845" s="12"/>
+      <c r="C845" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D845" s="4" t="s">
+        <v>979</v>
+      </c>
+      <c r="E845" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F845" s="4" t="s">
         <v>2469</v>
       </c>
@@ -28524,9 +28744,15 @@
       <c r="B846" s="4" t="s">
         <v>2935</v>
       </c>
-      <c r="C846" s="11"/>
-      <c r="D846" s="4"/>
-      <c r="E846" s="12"/>
+      <c r="C846" s="4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D846" s="4" t="s">
+        <v>980</v>
+      </c>
+      <c r="E846" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F846" s="4" t="s">
         <v>2470</v>
       </c>
@@ -28538,9 +28764,15 @@
       <c r="B847" s="4" t="s">
         <v>2936</v>
       </c>
-      <c r="C847" s="11"/>
-      <c r="D847" s="4"/>
-      <c r="E847" s="12"/>
+      <c r="C847" s="4" t="s">
+        <v>994</v>
+      </c>
+      <c r="D847" s="4" t="s">
+        <v>1098</v>
+      </c>
+      <c r="E847" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F847" s="4" t="s">
         <v>2471</v>
       </c>
@@ -28552,9 +28784,15 @@
       <c r="B848" s="4" t="s">
         <v>2937</v>
       </c>
-      <c r="C848" s="11"/>
-      <c r="D848" s="4"/>
-      <c r="E848" s="12"/>
+      <c r="C848" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D848" s="4" t="s">
+        <v>2117</v>
+      </c>
+      <c r="E848" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F848" s="4" t="s">
         <v>2472</v>
       </c>
@@ -28566,9 +28804,15 @@
       <c r="B849" s="4" t="s">
         <v>2938</v>
       </c>
-      <c r="C849" s="11"/>
-      <c r="D849" s="4"/>
-      <c r="E849" s="12"/>
+      <c r="C849" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="D849" s="4" t="s">
+        <v>2095</v>
+      </c>
+      <c r="E849" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F849" s="4" t="s">
         <v>2473</v>
       </c>
@@ -28580,9 +28824,15 @@
       <c r="B850" s="4" t="s">
         <v>2939</v>
       </c>
-      <c r="C850" s="11"/>
-      <c r="D850" s="4"/>
-      <c r="E850" s="12"/>
+      <c r="C850" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D850" s="4" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E850" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F850" s="4" t="s">
         <v>2474</v>
       </c>
@@ -28594,9 +28844,15 @@
       <c r="B851" s="4" t="s">
         <v>2940</v>
       </c>
-      <c r="C851" s="11"/>
-      <c r="D851" s="4"/>
-      <c r="E851" s="12"/>
+      <c r="C851" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D851" s="4" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E851" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F851" s="4" t="s">
         <v>2475</v>
       </c>
@@ -28608,9 +28864,15 @@
       <c r="B852" s="4" t="s">
         <v>2941</v>
       </c>
-      <c r="C852" s="11"/>
-      <c r="D852" s="4"/>
-      <c r="E852" s="12"/>
+      <c r="C852" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D852" s="4" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E852" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F852" s="4" t="s">
         <v>2476</v>
       </c>
@@ -28622,9 +28884,15 @@
       <c r="B853" s="4" t="s">
         <v>2942</v>
       </c>
-      <c r="C853" s="11"/>
-      <c r="D853" s="4"/>
-      <c r="E853" s="12"/>
+      <c r="C853" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D853" s="4" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E853" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F853" s="4" t="s">
         <v>2477</v>
       </c>
@@ -28636,9 +28904,15 @@
       <c r="B854" s="4" t="s">
         <v>2943</v>
       </c>
-      <c r="C854" s="11"/>
-      <c r="D854" s="4"/>
-      <c r="E854" s="12"/>
+      <c r="C854" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D854" s="4" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E854" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F854" s="4" t="s">
         <v>3378</v>
       </c>
@@ -28650,9 +28924,15 @@
       <c r="B855" s="4" t="s">
         <v>2944</v>
       </c>
-      <c r="C855" s="11"/>
-      <c r="D855" s="4"/>
-      <c r="E855" s="12"/>
+      <c r="C855" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D855" s="4" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E855" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F855" s="4" t="s">
         <v>3379</v>
       </c>
@@ -28664,9 +28944,15 @@
       <c r="B856" s="4" t="s">
         <v>2945</v>
       </c>
-      <c r="C856" s="11"/>
-      <c r="D856" s="4"/>
-      <c r="E856" s="12"/>
+      <c r="C856" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D856" s="4" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E856" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F856" s="4" t="s">
         <v>2478</v>
       </c>
@@ -28678,9 +28964,15 @@
       <c r="B857" s="4" t="s">
         <v>2946</v>
       </c>
-      <c r="C857" s="11"/>
-      <c r="D857" s="4"/>
-      <c r="E857" s="12"/>
+      <c r="C857" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D857" s="4" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E857" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F857" s="4" t="s">
         <v>2479</v>
       </c>
@@ -28692,9 +28984,15 @@
       <c r="B858" s="4" t="s">
         <v>2947</v>
       </c>
-      <c r="C858" s="11"/>
-      <c r="D858" s="4"/>
-      <c r="E858" s="12"/>
+      <c r="C858" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D858" s="4" t="s">
+        <v>1038</v>
+      </c>
+      <c r="E858" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F858" s="4" t="s">
         <v>2480</v>
       </c>
@@ -29266,9 +29564,15 @@
       <c r="B887" s="4" t="s">
         <v>2976</v>
       </c>
-      <c r="C887" s="11"/>
-      <c r="D887" s="4"/>
-      <c r="E887" s="12"/>
+      <c r="C887" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D887" s="4" t="s">
+        <v>973</v>
+      </c>
+      <c r="E887" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F887" s="4" t="s">
         <v>2507</v>
       </c>
@@ -29280,9 +29584,15 @@
       <c r="B888" s="4" t="s">
         <v>2977</v>
       </c>
-      <c r="C888" s="11"/>
-      <c r="D888" s="4"/>
-      <c r="E888" s="12"/>
+      <c r="C888" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D888" s="4" t="s">
+        <v>970</v>
+      </c>
+      <c r="E888" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F888" s="4" t="s">
         <v>2508</v>
       </c>
@@ -29294,9 +29604,15 @@
       <c r="B889" s="4" t="s">
         <v>2978</v>
       </c>
-      <c r="C889" s="11"/>
-      <c r="D889" s="4"/>
-      <c r="E889" s="12"/>
+      <c r="C889" s="4" t="s">
+        <v>962</v>
+      </c>
+      <c r="D889" s="4" t="s">
+        <v>971</v>
+      </c>
+      <c r="E889" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F889" s="4" t="s">
         <v>2509</v>
       </c>
@@ -29308,9 +29624,15 @@
       <c r="B890" s="4" t="s">
         <v>2979</v>
       </c>
-      <c r="C890" s="11"/>
-      <c r="D890" s="4"/>
-      <c r="E890" s="12"/>
+      <c r="C890" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D890" s="4" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E890" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F890" s="4" t="s">
         <v>2510</v>
       </c>
@@ -29322,9 +29644,15 @@
       <c r="B891" s="4" t="s">
         <v>2980</v>
       </c>
-      <c r="C891" s="11"/>
-      <c r="D891" s="4"/>
-      <c r="E891" s="12"/>
+      <c r="C891" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D891" s="4" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E891" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F891" s="4" t="s">
         <v>2511</v>
       </c>
@@ -29336,9 +29664,15 @@
       <c r="B892" s="4" t="s">
         <v>2981</v>
       </c>
-      <c r="C892" s="11"/>
-      <c r="D892" s="4"/>
-      <c r="E892" s="12"/>
+      <c r="C892" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D892" s="4" t="s">
+        <v>2400</v>
+      </c>
+      <c r="E892" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F892" s="4" t="s">
         <v>2512</v>
       </c>
@@ -29350,9 +29684,15 @@
       <c r="B893" s="4" t="s">
         <v>2982</v>
       </c>
-      <c r="C893" s="11"/>
-      <c r="D893" s="4"/>
-      <c r="E893" s="12"/>
+      <c r="C893" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D893" s="4" t="s">
+        <v>2401</v>
+      </c>
+      <c r="E893" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F893" s="4" t="s">
         <v>2513</v>
       </c>
@@ -29364,9 +29704,15 @@
       <c r="B894" s="4" t="s">
         <v>2983</v>
       </c>
-      <c r="C894" s="11"/>
-      <c r="D894" s="4"/>
-      <c r="E894" s="12"/>
+      <c r="C894" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D894" s="4" t="s">
+        <v>2402</v>
+      </c>
+      <c r="E894" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F894" s="4" t="s">
         <v>2514</v>
       </c>
@@ -29378,9 +29724,15 @@
       <c r="B895" s="4" t="s">
         <v>2984</v>
       </c>
-      <c r="C895" s="11"/>
-      <c r="D895" s="4"/>
-      <c r="E895" s="12"/>
+      <c r="C895" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D895" s="4" t="s">
+        <v>2403</v>
+      </c>
+      <c r="E895" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F895" s="4" t="s">
         <v>2515</v>
       </c>
@@ -29392,9 +29744,15 @@
       <c r="B896" s="4" t="s">
         <v>2985</v>
       </c>
-      <c r="C896" s="11"/>
-      <c r="D896" s="4"/>
-      <c r="E896" s="12"/>
+      <c r="C896" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D896" s="4" t="s">
+        <v>1957</v>
+      </c>
+      <c r="E896" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F896" s="4" t="s">
         <v>2516</v>
       </c>
@@ -29406,9 +29764,15 @@
       <c r="B897" s="4" t="s">
         <v>2986</v>
       </c>
-      <c r="C897" s="11"/>
-      <c r="D897" s="4"/>
-      <c r="E897" s="12"/>
+      <c r="C897" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D897" s="4" t="s">
+        <v>2404</v>
+      </c>
+      <c r="E897" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F897" s="4" t="s">
         <v>2517</v>
       </c>
@@ -29420,9 +29784,15 @@
       <c r="B898" s="4" t="s">
         <v>2987</v>
       </c>
-      <c r="C898" s="11"/>
-      <c r="D898" s="4"/>
-      <c r="E898" s="12"/>
+      <c r="C898" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D898" s="4" t="s">
+        <v>2405</v>
+      </c>
+      <c r="E898" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F898" s="4" t="s">
         <v>2518</v>
       </c>
@@ -29434,9 +29804,15 @@
       <c r="B899" s="4" t="s">
         <v>2988</v>
       </c>
-      <c r="C899" s="11"/>
-      <c r="D899" s="4"/>
-      <c r="E899" s="12"/>
+      <c r="C899" s="4" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D899" s="4" t="s">
+        <v>2406</v>
+      </c>
+      <c r="E899" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F899" s="4" t="s">
         <v>2519</v>
       </c>
@@ -30568,11 +30944,13 @@
       <c r="B956" s="4" t="s">
         <v>3045</v>
       </c>
-      <c r="C956" s="11" t="s">
-        <v>3676</v>
-      </c>
-      <c r="D956" s="4"/>
-      <c r="E956" s="12" t="s">
+      <c r="C956" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D956" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E956" s="8" t="s">
         <v>91</v>
       </c>
       <c r="F956" s="4" t="s">
@@ -30586,9 +30964,15 @@
       <c r="B957" s="4" t="s">
         <v>3046</v>
       </c>
-      <c r="C957" s="11"/>
-      <c r="D957" s="4"/>
-      <c r="E957" s="12"/>
+      <c r="C957" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D957" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E957" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F957" s="4" t="s">
         <v>2577</v>
       </c>
@@ -30600,9 +30984,15 @@
       <c r="B958" s="4" t="s">
         <v>3047</v>
       </c>
-      <c r="C958" s="11"/>
-      <c r="D958" s="4"/>
-      <c r="E958" s="12"/>
+      <c r="C958" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D958" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E958" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F958" s="4" t="s">
         <v>2578</v>
       </c>
@@ -30614,9 +31004,15 @@
       <c r="B959" s="4" t="s">
         <v>3048</v>
       </c>
-      <c r="C959" s="11"/>
-      <c r="D959" s="4"/>
-      <c r="E959" s="12"/>
+      <c r="C959" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D959" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E959" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F959" s="4" t="s">
         <v>2579</v>
       </c>
@@ -30628,9 +31024,15 @@
       <c r="B960" s="4" t="s">
         <v>3049</v>
       </c>
-      <c r="C960" s="11"/>
-      <c r="D960" s="4"/>
-      <c r="E960" s="12"/>
+      <c r="C960" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D960" s="8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E960" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F960" s="4" t="s">
         <v>2580</v>
       </c>
@@ -30642,9 +31044,15 @@
       <c r="B961" s="4" t="s">
         <v>3050</v>
       </c>
-      <c r="C961" s="11"/>
-      <c r="D961" s="4"/>
-      <c r="E961" s="12"/>
+      <c r="C961" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D961" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E961" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F961" s="4" t="s">
         <v>2581</v>
       </c>
@@ -30656,9 +31064,15 @@
       <c r="B962" s="4" t="s">
         <v>3051</v>
       </c>
-      <c r="C962" s="11"/>
-      <c r="D962" s="4"/>
-      <c r="E962" s="12"/>
+      <c r="C962" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D962" s="8" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E962" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F962" s="4" t="s">
         <v>2582</v>
       </c>
@@ -30670,9 +31084,15 @@
       <c r="B963" s="4" t="s">
         <v>3052</v>
       </c>
-      <c r="C963" s="11"/>
-      <c r="D963" s="4"/>
-      <c r="E963" s="12"/>
+      <c r="C963" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D963" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E963" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F963" s="4" t="s">
         <v>2583</v>
       </c>
@@ -30684,9 +31104,15 @@
       <c r="B964" s="4" t="s">
         <v>3053</v>
       </c>
-      <c r="C964" s="11"/>
-      <c r="D964" s="4"/>
-      <c r="E964" s="12"/>
+      <c r="C964" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D964" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E964" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F964" s="4" t="s">
         <v>2584</v>
       </c>
@@ -30698,9 +31124,15 @@
       <c r="B965" s="4" t="s">
         <v>3054</v>
       </c>
-      <c r="C965" s="11"/>
-      <c r="D965" s="4"/>
-      <c r="E965" s="12"/>
+      <c r="C965" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D965" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E965" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F965" s="4" t="s">
         <v>2585</v>
       </c>
@@ -30712,9 +31144,15 @@
       <c r="B966" s="4" t="s">
         <v>3055</v>
       </c>
-      <c r="C966" s="11"/>
-      <c r="D966" s="4"/>
-      <c r="E966" s="12"/>
+      <c r="C966" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D966" s="8" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E966" s="8" t="s">
+        <v>91</v>
+      </c>
       <c r="F966" s="4" t="s">
         <v>2586</v>
       </c>
@@ -30726,9 +31164,15 @@
       <c r="B967" s="4" t="s">
         <v>3056</v>
       </c>
-      <c r="C967" s="11"/>
-      <c r="D967" s="4"/>
-      <c r="E967" s="12"/>
+      <c r="C967" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D967" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E967" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F967" s="4" t="s">
         <v>2587</v>
       </c>
@@ -31860,9 +32304,15 @@
       <c r="B1024" s="4" t="s">
         <v>3113</v>
       </c>
-      <c r="C1024" s="11"/>
-      <c r="D1024" s="4"/>
-      <c r="E1024" s="12"/>
+      <c r="C1024" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1024" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1024" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F1024" s="4" t="s">
         <v>2644</v>
       </c>
@@ -31874,9 +32324,15 @@
       <c r="B1025" s="4" t="s">
         <v>3114</v>
       </c>
-      <c r="C1025" s="11"/>
-      <c r="D1025" s="4"/>
-      <c r="E1025" s="12"/>
+      <c r="C1025" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1025" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1025" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F1025" s="4" t="s">
         <v>2645</v>
       </c>
@@ -31888,9 +32344,15 @@
       <c r="B1026" s="4" t="s">
         <v>3115</v>
       </c>
-      <c r="C1026" s="11"/>
-      <c r="D1026" s="4"/>
-      <c r="E1026" s="12"/>
+      <c r="C1026" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1026" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1026" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F1026" s="4" t="s">
         <v>2646</v>
       </c>
@@ -31902,9 +32364,15 @@
       <c r="B1027" s="4" t="s">
         <v>3116</v>
       </c>
-      <c r="C1027" s="11"/>
-      <c r="D1027" s="4"/>
-      <c r="E1027" s="12"/>
+      <c r="C1027" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1027" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1027" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F1027" s="4" t="s">
         <v>2647</v>
       </c>
@@ -31916,9 +32384,15 @@
       <c r="B1028" s="4" t="s">
         <v>3117</v>
       </c>
-      <c r="C1028" s="11"/>
-      <c r="D1028" s="4"/>
-      <c r="E1028" s="12"/>
+      <c r="C1028" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D1028" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E1028" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="F1028" s="4" t="s">
         <v>2648</v>
       </c>
@@ -32230,9 +32704,15 @@
       <c r="B1044" s="4" t="s">
         <v>3133</v>
       </c>
-      <c r="C1044" s="11"/>
-      <c r="D1044" s="4"/>
-      <c r="E1044" s="12"/>
+      <c r="C1044" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1044" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="E1044" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1044" s="4" t="s">
         <v>3373</v>
       </c>
@@ -32244,9 +32724,15 @@
       <c r="B1045" s="4" t="s">
         <v>3134</v>
       </c>
-      <c r="C1045" s="11"/>
-      <c r="D1045" s="4"/>
-      <c r="E1045" s="12"/>
+      <c r="C1045" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1045" s="4" t="s">
+        <v>950</v>
+      </c>
+      <c r="E1045" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1045" s="4" t="s">
         <v>3374</v>
       </c>
@@ -32258,9 +32744,15 @@
       <c r="B1046" s="4" t="s">
         <v>3135</v>
       </c>
-      <c r="C1046" s="11"/>
-      <c r="D1046" s="4"/>
-      <c r="E1046" s="12"/>
+      <c r="C1046" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1046" s="4" t="s">
+        <v>951</v>
+      </c>
+      <c r="E1046" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1046" s="4" t="s">
         <v>3375</v>
       </c>
@@ -32272,9 +32764,15 @@
       <c r="B1047" s="4" t="s">
         <v>3136</v>
       </c>
-      <c r="C1047" s="11"/>
-      <c r="D1047" s="4"/>
-      <c r="E1047" s="12"/>
+      <c r="C1047" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1047" s="4" t="s">
+        <v>952</v>
+      </c>
+      <c r="E1047" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1047" s="4" t="s">
         <v>3376</v>
       </c>
@@ -32286,9 +32784,15 @@
       <c r="B1048" s="4" t="s">
         <v>3137</v>
       </c>
-      <c r="C1048" s="11"/>
-      <c r="D1048" s="4"/>
-      <c r="E1048" s="12"/>
+      <c r="C1048" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1048" s="4" t="s">
+        <v>957</v>
+      </c>
+      <c r="E1048" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1048" s="4" t="s">
         <v>3377</v>
       </c>
@@ -32300,9 +32804,15 @@
       <c r="B1049" s="4" t="s">
         <v>3138</v>
       </c>
-      <c r="C1049" s="11"/>
-      <c r="D1049" s="4"/>
-      <c r="E1049" s="12"/>
+      <c r="C1049" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1049" s="4" t="s">
+        <v>958</v>
+      </c>
+      <c r="E1049" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1049" s="4" t="s">
         <v>2664</v>
       </c>
@@ -32314,9 +32824,15 @@
       <c r="B1050" s="4" t="s">
         <v>3139</v>
       </c>
-      <c r="C1050" s="11"/>
-      <c r="D1050" s="4"/>
-      <c r="E1050" s="12"/>
+      <c r="C1050" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1050" s="4" t="s">
+        <v>959</v>
+      </c>
+      <c r="E1050" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1050" s="4" t="s">
         <v>2665</v>
       </c>
@@ -32328,9 +32844,15 @@
       <c r="B1051" s="4" t="s">
         <v>3140</v>
       </c>
-      <c r="C1051" s="11"/>
-      <c r="D1051" s="4"/>
-      <c r="E1051" s="12"/>
+      <c r="C1051" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1051" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="E1051" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1051" s="4" t="s">
         <v>2666</v>
       </c>
@@ -32342,9 +32864,15 @@
       <c r="B1052" s="4" t="s">
         <v>3141</v>
       </c>
-      <c r="C1052" s="11"/>
-      <c r="D1052" s="4"/>
-      <c r="E1052" s="12"/>
+      <c r="C1052" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1052" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E1052" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1052" s="4" t="s">
         <v>2667</v>
       </c>
@@ -32356,9 +32884,15 @@
       <c r="B1053" s="4" t="s">
         <v>3142</v>
       </c>
-      <c r="C1053" s="11"/>
-      <c r="D1053" s="4"/>
-      <c r="E1053" s="12"/>
+      <c r="C1053" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1053" s="4" t="s">
+        <v>2274</v>
+      </c>
+      <c r="E1053" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1053" s="4" t="s">
         <v>2668</v>
       </c>
@@ -32370,9 +32904,15 @@
       <c r="B1054" s="4" t="s">
         <v>3143</v>
       </c>
-      <c r="C1054" s="11"/>
-      <c r="D1054" s="4"/>
-      <c r="E1054" s="12"/>
+      <c r="C1054" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1054" s="4" t="s">
+        <v>2273</v>
+      </c>
+      <c r="E1054" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1054" s="4" t="s">
         <v>2669</v>
       </c>
@@ -32384,9 +32924,15 @@
       <c r="B1055" s="4" t="s">
         <v>3144</v>
       </c>
-      <c r="C1055" s="11"/>
-      <c r="D1055" s="4"/>
-      <c r="E1055" s="12"/>
+      <c r="C1055" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1055" s="4" t="s">
+        <v>2275</v>
+      </c>
+      <c r="E1055" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1055" s="4" t="s">
         <v>2670</v>
       </c>
@@ -32398,9 +32944,15 @@
       <c r="B1056" s="4" t="s">
         <v>3145</v>
       </c>
-      <c r="C1056" s="11"/>
-      <c r="D1056" s="4"/>
-      <c r="E1056" s="12"/>
+      <c r="C1056" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1056" s="4" t="s">
+        <v>2276</v>
+      </c>
+      <c r="E1056" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1056" s="4" t="s">
         <v>2671</v>
       </c>
@@ -32412,9 +32964,15 @@
       <c r="B1057" s="4" t="s">
         <v>3146</v>
       </c>
-      <c r="C1057" s="11"/>
-      <c r="D1057" s="4"/>
-      <c r="E1057" s="12"/>
+      <c r="C1057" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1057" s="4" t="s">
+        <v>2277</v>
+      </c>
+      <c r="E1057" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1057" s="4" t="s">
         <v>2672</v>
       </c>
@@ -32426,9 +32984,15 @@
       <c r="B1058" s="4" t="s">
         <v>3147</v>
       </c>
-      <c r="C1058" s="11"/>
-      <c r="D1058" s="4"/>
-      <c r="E1058" s="12"/>
+      <c r="C1058" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1058" s="4" t="s">
+        <v>2289</v>
+      </c>
+      <c r="E1058" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1058" s="4" t="s">
         <v>2673</v>
       </c>
@@ -32440,9 +33004,15 @@
       <c r="B1059" s="4" t="s">
         <v>3148</v>
       </c>
-      <c r="C1059" s="11"/>
-      <c r="D1059" s="4"/>
-      <c r="E1059" s="12"/>
+      <c r="C1059" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1059" s="4" t="s">
+        <v>2290</v>
+      </c>
+      <c r="E1059" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1059" s="4" t="s">
         <v>2674</v>
       </c>
@@ -32454,9 +33024,15 @@
       <c r="B1060" s="4" t="s">
         <v>3149</v>
       </c>
-      <c r="C1060" s="11"/>
-      <c r="D1060" s="4"/>
-      <c r="E1060" s="12"/>
+      <c r="C1060" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1060" s="4" t="s">
+        <v>2293</v>
+      </c>
+      <c r="E1060" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1060" s="4" t="s">
         <v>2675</v>
       </c>
@@ -32468,9 +33044,15 @@
       <c r="B1061" s="4" t="s">
         <v>3150</v>
       </c>
-      <c r="C1061" s="11"/>
-      <c r="D1061" s="4"/>
-      <c r="E1061" s="12"/>
+      <c r="C1061" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1061" s="4" t="s">
+        <v>2294</v>
+      </c>
+      <c r="E1061" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1061" s="4" t="s">
         <v>2676</v>
       </c>
@@ -32482,9 +33064,15 @@
       <c r="B1062" s="4" t="s">
         <v>3151</v>
       </c>
-      <c r="C1062" s="11"/>
-      <c r="D1062" s="4"/>
-      <c r="E1062" s="12"/>
+      <c r="C1062" s="4" t="s">
+        <v>948</v>
+      </c>
+      <c r="D1062" s="4" t="s">
+        <v>960</v>
+      </c>
+      <c r="E1062" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="F1062" s="4" t="s">
         <v>2677</v>
       </c>
@@ -32496,9 +33084,15 @@
       <c r="B1063" s="4" t="s">
         <v>3152</v>
       </c>
-      <c r="C1063" s="11"/>
-      <c r="D1063" s="4"/>
-      <c r="E1063" s="12"/>
+      <c r="C1063" s="4" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D1063" s="4" t="s">
+        <v>2272</v>
+      </c>
+      <c r="E1063" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1063" s="4" t="s">
         <v>2678</v>
       </c>
@@ -36368,9 +36962,15 @@
       <c r="B1257" s="4" t="s">
         <v>3346</v>
       </c>
-      <c r="C1257" s="11"/>
-      <c r="D1257" s="4"/>
-      <c r="E1257" s="12"/>
+      <c r="C1257" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1257" s="10" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E1257" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1257" s="4" t="s">
         <v>2871</v>
       </c>
@@ -36382,9 +36982,15 @@
       <c r="B1258" s="4" t="s">
         <v>3347</v>
       </c>
-      <c r="C1258" s="11"/>
-      <c r="D1258" s="4"/>
-      <c r="E1258" s="12"/>
+      <c r="C1258" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1258" s="10" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E1258" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1258" s="4" t="s">
         <v>2872</v>
       </c>
@@ -36396,9 +37002,15 @@
       <c r="B1259" s="4" t="s">
         <v>3348</v>
       </c>
-      <c r="C1259" s="11"/>
-      <c r="D1259" s="4"/>
-      <c r="E1259" s="12"/>
+      <c r="C1259" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1259" s="10" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1259" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1259" s="6" t="s">
         <v>2873</v>
       </c>
@@ -36410,9 +37022,15 @@
       <c r="B1260" s="4" t="s">
         <v>3349</v>
       </c>
-      <c r="C1260" s="11"/>
-      <c r="D1260" s="4"/>
-      <c r="E1260" s="12"/>
+      <c r="C1260" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1260" s="10" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E1260" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1260" s="4" t="s">
         <v>2874</v>
       </c>
@@ -36424,9 +37042,15 @@
       <c r="B1261" s="4" t="s">
         <v>3350</v>
       </c>
-      <c r="C1261" s="11"/>
-      <c r="D1261" s="4"/>
-      <c r="E1261" s="12"/>
+      <c r="C1261" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1261" s="10" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E1261" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1261" s="4" t="s">
         <v>2875</v>
       </c>
@@ -36438,9 +37062,15 @@
       <c r="B1262" s="4" t="s">
         <v>3351</v>
       </c>
-      <c r="C1262" s="11"/>
-      <c r="D1262" s="4"/>
-      <c r="E1262" s="12"/>
+      <c r="C1262" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="D1262" s="10" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E1262" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1262" s="4" t="s">
         <v>2876</v>
       </c>
@@ -36452,9 +37082,15 @@
       <c r="B1263" s="4" t="s">
         <v>3352</v>
       </c>
-      <c r="C1263" s="11"/>
-      <c r="D1263" s="4"/>
-      <c r="E1263" s="12"/>
+      <c r="C1263" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1263" s="4" t="s">
+        <v>2182</v>
+      </c>
+      <c r="E1263" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1263" s="4" t="s">
         <v>2877</v>
       </c>
@@ -36466,9 +37102,15 @@
       <c r="B1264" s="4" t="s">
         <v>3353</v>
       </c>
-      <c r="C1264" s="11"/>
-      <c r="D1264" s="4"/>
-      <c r="E1264" s="12"/>
+      <c r="C1264" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1264" s="10" t="s">
+        <v>2249</v>
+      </c>
+      <c r="E1264" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1264" s="4" t="s">
         <v>2878</v>
       </c>
@@ -36480,9 +37122,15 @@
       <c r="B1265" s="4" t="s">
         <v>3354</v>
       </c>
-      <c r="C1265" s="11"/>
-      <c r="D1265" s="4"/>
-      <c r="E1265" s="12"/>
+      <c r="C1265" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1265" s="10" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E1265" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1265" s="4" t="s">
         <v>2879</v>
       </c>
@@ -36494,9 +37142,15 @@
       <c r="B1266" s="4" t="s">
         <v>3355</v>
       </c>
-      <c r="C1266" s="11"/>
-      <c r="D1266" s="4"/>
-      <c r="E1266" s="12"/>
+      <c r="C1266" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1266" s="10" t="s">
+        <v>2227</v>
+      </c>
+      <c r="E1266" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1266" s="4" t="s">
         <v>2880</v>
       </c>
@@ -36508,9 +37162,15 @@
       <c r="B1267" s="4" t="s">
         <v>3356</v>
       </c>
-      <c r="C1267" s="11"/>
-      <c r="D1267" s="4"/>
-      <c r="E1267" s="12"/>
+      <c r="C1267" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1267" s="10" t="s">
+        <v>2228</v>
+      </c>
+      <c r="E1267" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1267" s="4" t="s">
         <v>2881</v>
       </c>
@@ -36522,9 +37182,15 @@
       <c r="B1268" s="4" t="s">
         <v>3357</v>
       </c>
-      <c r="C1268" s="11"/>
-      <c r="D1268" s="4"/>
-      <c r="E1268" s="12"/>
+      <c r="C1268" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1268" s="10" t="s">
+        <v>2229</v>
+      </c>
+      <c r="E1268" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1268" s="4" t="s">
         <v>2882</v>
       </c>
@@ -36536,9 +37202,15 @@
       <c r="B1269" s="4" t="s">
         <v>3358</v>
       </c>
-      <c r="C1269" s="11"/>
-      <c r="D1269" s="4"/>
-      <c r="E1269" s="12"/>
+      <c r="C1269" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1269" s="10" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E1269" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1269" s="4" t="s">
         <v>2883</v>
       </c>
@@ -36550,9 +37222,15 @@
       <c r="B1270" s="4" t="s">
         <v>3359</v>
       </c>
-      <c r="C1270" s="11"/>
-      <c r="D1270" s="4"/>
-      <c r="E1270" s="12"/>
+      <c r="C1270" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1270" s="10" t="s">
+        <v>2231</v>
+      </c>
+      <c r="E1270" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1270" s="4" t="s">
         <v>2884</v>
       </c>
@@ -36564,9 +37242,15 @@
       <c r="B1271" s="4" t="s">
         <v>3360</v>
       </c>
-      <c r="C1271" s="11"/>
-      <c r="D1271" s="4"/>
-      <c r="E1271" s="12"/>
+      <c r="C1271" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1271" s="10" t="s">
+        <v>2232</v>
+      </c>
+      <c r="E1271" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1271" s="4" t="s">
         <v>2885</v>
       </c>
@@ -36578,9 +37262,15 @@
       <c r="B1272" s="4" t="s">
         <v>3361</v>
       </c>
-      <c r="C1272" s="11"/>
-      <c r="D1272" s="4"/>
-      <c r="E1272" s="12"/>
+      <c r="C1272" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1272" s="10" t="s">
+        <v>2233</v>
+      </c>
+      <c r="E1272" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1272" s="4" t="s">
         <v>2886</v>
       </c>
@@ -36592,9 +37282,15 @@
       <c r="B1273" s="4" t="s">
         <v>3362</v>
       </c>
-      <c r="C1273" s="11"/>
-      <c r="D1273" s="4"/>
-      <c r="E1273" s="12"/>
+      <c r="C1273" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1273" s="10" t="s">
+        <v>2234</v>
+      </c>
+      <c r="E1273" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1273" s="4" t="s">
         <v>2887</v>
       </c>
@@ -36606,9 +37302,15 @@
       <c r="B1274" s="4" t="s">
         <v>3363</v>
       </c>
-      <c r="C1274" s="11"/>
-      <c r="D1274" s="4"/>
-      <c r="E1274" s="12"/>
+      <c r="C1274" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1274" s="10" t="s">
+        <v>2235</v>
+      </c>
+      <c r="E1274" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1274" s="4" t="s">
         <v>2888</v>
       </c>
@@ -36620,9 +37322,15 @@
       <c r="B1275" s="4" t="s">
         <v>3364</v>
       </c>
-      <c r="C1275" s="11"/>
-      <c r="D1275" s="4"/>
-      <c r="E1275" s="12"/>
+      <c r="C1275" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1275" s="10" t="s">
+        <v>2236</v>
+      </c>
+      <c r="E1275" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1275" s="4" t="s">
         <v>2889</v>
       </c>
@@ -36634,9 +37342,15 @@
       <c r="B1276" s="4" t="s">
         <v>3365</v>
       </c>
-      <c r="C1276" s="11"/>
-      <c r="D1276" s="4"/>
-      <c r="E1276" s="12"/>
+      <c r="C1276" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1276" s="10" t="s">
+        <v>2237</v>
+      </c>
+      <c r="E1276" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1276" s="4" t="s">
         <v>2890</v>
       </c>
@@ -36648,9 +37362,15 @@
       <c r="B1277" s="4" t="s">
         <v>3366</v>
       </c>
-      <c r="C1277" s="11"/>
-      <c r="D1277" s="4"/>
-      <c r="E1277" s="12"/>
+      <c r="C1277" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1277" s="10" t="s">
+        <v>2238</v>
+      </c>
+      <c r="E1277" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1277" s="4" t="s">
         <v>2891</v>
       </c>
@@ -36662,9 +37382,15 @@
       <c r="B1278" s="4" t="s">
         <v>3367</v>
       </c>
-      <c r="C1278" s="11"/>
-      <c r="D1278" s="4"/>
-      <c r="E1278" s="12"/>
+      <c r="C1278" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1278" s="10" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1278" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1278" s="4" t="s">
         <v>2892</v>
       </c>
@@ -36676,9 +37402,15 @@
       <c r="B1279" s="4" t="s">
         <v>3368</v>
       </c>
-      <c r="C1279" s="11"/>
-      <c r="D1279" s="4"/>
-      <c r="E1279" s="12"/>
+      <c r="C1279" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1279" s="10" t="s">
+        <v>2240</v>
+      </c>
+      <c r="E1279" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1279" s="4" t="s">
         <v>2893</v>
       </c>
@@ -36690,9 +37422,15 @@
       <c r="B1280" s="4" t="s">
         <v>3369</v>
       </c>
-      <c r="C1280" s="11"/>
-      <c r="D1280" s="4"/>
-      <c r="E1280" s="12"/>
+      <c r="C1280" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1280" s="10" t="s">
+        <v>2241</v>
+      </c>
+      <c r="E1280" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1280" s="4" t="s">
         <v>2894</v>
       </c>
@@ -36704,9 +37442,15 @@
       <c r="B1281" s="4" t="s">
         <v>3370</v>
       </c>
-      <c r="C1281" s="11"/>
-      <c r="D1281" s="4"/>
-      <c r="E1281" s="12"/>
+      <c r="C1281" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1281" s="10" t="s">
+        <v>2242</v>
+      </c>
+      <c r="E1281" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1281" s="4" t="s">
         <v>2895</v>
       </c>
@@ -36718,9 +37462,15 @@
       <c r="B1282" s="4" t="s">
         <v>3371</v>
       </c>
-      <c r="C1282" s="11"/>
-      <c r="D1282" s="4"/>
-      <c r="E1282" s="12"/>
+      <c r="C1282" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1282" s="10" t="s">
+        <v>2243</v>
+      </c>
+      <c r="E1282" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1282" s="4" t="s">
         <v>2896</v>
       </c>
@@ -36732,9 +37482,15 @@
       <c r="B1283" s="4" t="s">
         <v>3372</v>
       </c>
-      <c r="C1283" s="13"/>
-      <c r="D1283" s="10"/>
-      <c r="E1283" s="14"/>
+      <c r="C1283" s="10" t="s">
+        <v>1984</v>
+      </c>
+      <c r="D1283" s="10" t="s">
+        <v>2244</v>
+      </c>
+      <c r="E1283" s="10" t="s">
+        <v>91</v>
+      </c>
       <c r="F1283" s="10" t="s">
         <v>2897</v>
       </c>
@@ -37264,4 +38020,261 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713C69A7-386E-4068-A295-FC2A04A02B4E}">
+  <dimension ref="C4:E25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C4" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>2108</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C5" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>2082</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C6" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>2109</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C7" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>2083</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C8" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>2110</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C9" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C10" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>2111</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C11" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>2085</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C12" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>2112</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C13" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C14" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>2113</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C15" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>2087</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C16" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>2114</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" ht="89.25" x14ac:dyDescent="0.2">
+      <c r="C17" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>2088</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C18" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="C19" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>2089</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C20" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>2116</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C21" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C22" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>2091</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C23" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>2092</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="C24" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>2093</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" ht="51" x14ac:dyDescent="0.2">
+      <c r="C25" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>2094</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
+++ b/LYNX_Automation/src/test/resources/TestData/Test_Data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\X023840\git\Fastwire_Sikuli\LYNX_Automation\src\test\resources\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E1C208-0446-46A3-99B4-1057C6E3076E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4CC9FEE-E06B-4003-9997-95A5660CF029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7917" uniqueCount="3676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7971" uniqueCount="3695">
   <si>
     <t>RunTest</t>
   </si>
@@ -11067,6 +11067,63 @@
   </si>
   <si>
     <t>Aim of the Script is to verify Whether selected company list, automations filters and web watchers retained in next session when user relaunches fastwire</t>
+  </si>
+  <si>
+    <t>VerifyEmailRIC</t>
+  </si>
+  <si>
+    <t>FW_UI_1309</t>
+  </si>
+  <si>
+    <t>FW_UI_1310</t>
+  </si>
+  <si>
+    <t>FW_UI_1311</t>
+  </si>
+  <si>
+    <t>FW_UI_1312</t>
+  </si>
+  <si>
+    <t>FW_UI_1313</t>
+  </si>
+  <si>
+    <t>FW_UI_1314</t>
+  </si>
+  <si>
+    <t>FW_UI_1315</t>
+  </si>
+  <si>
+    <t>FW_UI_1316</t>
+  </si>
+  <si>
+    <t>FW_UI_1317</t>
+  </si>
+  <si>
+    <t>zenergyreports,energyreports,iirenergy.com,S.BK</t>
+  </si>
+  <si>
+    <t>zUSDA Foreign Agricultural Service,FAS.USDA,service.govdelivery.com,S.BK</t>
+  </si>
+  <si>
+    <t>zUSDA Farm Service Agency,usdafarmers,public.govdelivery.com,S.BK</t>
+  </si>
+  <si>
+    <t>zIntercontinental Exchange,emailalerts-ir,theice.com,S.BK</t>
+  </si>
+  <si>
+    <t>zKiara King (ZA),Kiara.King,absa.africa,S.BK</t>
+  </si>
+  <si>
+    <t>zSilind'okuhle Khanyile (ZA),Silindokuhle.Khanyile,absa.africa,S.BK</t>
+  </si>
+  <si>
+    <t>zNokukhanya Masemola (ZA),Nokukhanya.Masemola,absa.africa,S.BK</t>
+  </si>
+  <si>
+    <t>zANZ Research,research,anz.com,S.BK</t>
+  </si>
+  <si>
+    <t>zICEFuturesEurope,ICEFuturesEurope.Circulars,ice.com,S.BK</t>
   </si>
 </sst>
 </file>
@@ -11209,7 +11266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -11269,6 +11326,15 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11518,7 +11584,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F1309" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CBB49106-BC95-4A00-9B23-0E30E5D20288}" name="Table2" displayName="Table2" ref="A1:F1318" totalsRowShown="0" headerRowDxfId="10" dataDxfId="8" headerRowBorderDxfId="9" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E8C12C75-5AB5-4A43-A3C6-442932DE8960}" name="RunTest" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{2D0C15F7-7463-4837-A664-2CE60CA101D5}" name="TC_ID" dataDxfId="4"/>
@@ -11819,10 +11885,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F1309"/>
+  <dimension ref="A1:F1318"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F10" activeCellId="1" sqref="F19 F10"/>
+    <sheetView tabSelected="1" topLeftCell="A1307" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A1309" sqref="A1309:A1317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11859,7 +11925,7 @@
     </row>
     <row r="2" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>4</v>
@@ -11879,7 +11945,7 @@
     </row>
     <row r="3" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>7</v>
@@ -11899,7 +11965,7 @@
     </row>
     <row r="4" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>9</v>
@@ -11919,7 +11985,7 @@
     </row>
     <row r="5" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>10</v>
@@ -11939,7 +12005,7 @@
     </row>
     <row r="6" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>11</v>
@@ -11959,7 +12025,7 @@
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>14</v>
@@ -11979,7 +12045,7 @@
     </row>
     <row r="8" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -11999,7 +12065,7 @@
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>20</v>
@@ -12019,7 +12085,7 @@
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>22</v>
@@ -12039,7 +12105,7 @@
     </row>
     <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>3430</v>
+        <v>2054</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>23</v>
@@ -28184,13 +28250,13 @@
       <c r="B818" s="4" t="s">
         <v>2907</v>
       </c>
-      <c r="C818" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D818" s="4" t="s">
-        <v>2086</v>
-      </c>
-      <c r="E818" s="4" t="s">
+      <c r="C818" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D818" s="21" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E818" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F818" s="4" t="s">
@@ -28204,13 +28270,13 @@
       <c r="B819" s="4" t="s">
         <v>2908</v>
       </c>
-      <c r="C819" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D819" s="4" t="s">
-        <v>2113</v>
-      </c>
-      <c r="E819" s="4" t="s">
+      <c r="C819" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D819" s="21" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E819" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F819" s="4" t="s">
@@ -28224,13 +28290,13 @@
       <c r="B820" s="4" t="s">
         <v>2909</v>
       </c>
-      <c r="C820" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D820" s="4" t="s">
-        <v>2087</v>
-      </c>
-      <c r="E820" s="4" t="s">
+      <c r="C820" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D820" s="21" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E820" s="23" t="s">
         <v>91</v>
       </c>
       <c r="F820" s="4" t="s">
@@ -38009,6 +38075,186 @@
       </c>
       <c r="F1309" s="17" t="s">
         <v>3675</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1310" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1310" s="10" t="s">
+        <v>3677</v>
+      </c>
+      <c r="C1310" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1310" s="21" t="s">
+        <v>3686</v>
+      </c>
+      <c r="E1310" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1310" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1311" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1311" s="10" t="s">
+        <v>3678</v>
+      </c>
+      <c r="C1311" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1311" s="21" t="s">
+        <v>3687</v>
+      </c>
+      <c r="E1311" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1311" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1312" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1312" s="10" t="s">
+        <v>3679</v>
+      </c>
+      <c r="C1312" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1312" s="21" t="s">
+        <v>3688</v>
+      </c>
+      <c r="E1312" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1312" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1313" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1313" s="10" t="s">
+        <v>3680</v>
+      </c>
+      <c r="C1313" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1313" s="21" t="s">
+        <v>3689</v>
+      </c>
+      <c r="E1313" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1313" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1314" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1314" s="10" t="s">
+        <v>3681</v>
+      </c>
+      <c r="C1314" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1314" s="21" t="s">
+        <v>3690</v>
+      </c>
+      <c r="E1314" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1314" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1315" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1315" s="10" t="s">
+        <v>3682</v>
+      </c>
+      <c r="C1315" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1315" s="21" t="s">
+        <v>3691</v>
+      </c>
+      <c r="E1315" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1315" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1316" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1316" s="10" t="s">
+        <v>3683</v>
+      </c>
+      <c r="C1316" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1316" s="21" t="s">
+        <v>3692</v>
+      </c>
+      <c r="E1316" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1316" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1317" s="4" t="s">
+        <v>2054</v>
+      </c>
+      <c r="B1317" s="10" t="s">
+        <v>3684</v>
+      </c>
+      <c r="C1317" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1317" s="21" t="s">
+        <v>3693</v>
+      </c>
+      <c r="E1317" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1317" s="21" t="s">
+        <v>2442</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1318" s="21" t="s">
+        <v>3430</v>
+      </c>
+      <c r="B1318" s="10" t="s">
+        <v>3685</v>
+      </c>
+      <c r="C1318" s="22" t="s">
+        <v>3676</v>
+      </c>
+      <c r="D1318" s="21" t="s">
+        <v>3694</v>
+      </c>
+      <c r="E1318" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1318" s="21" t="s">
+        <v>2442</v>
       </c>
     </row>
   </sheetData>
